--- a/bdd_excel/Avis.xlsx
+++ b/bdd_excel/Avis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A456E6F8-36C8-1A49-B935-256D05400456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A78E9F9-C5DE-DF42-90E8-E08E3D857A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{5F733D11-7903-410F-80E2-DF13D6D4BE95}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{FFAC0233-3D28-634B-9D7E-2085D8CE6967}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,738 +33,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="849">
-  <si>
-    <t>Incroyable ce jeu ! Probablement le meilleur de l'année ! Je conseille fortement !</t>
-  </si>
-  <si>
-    <t>Très sympa à jouer avec des amis !</t>
-  </si>
-  <si>
-    <t>C'est pas le jeu de l'année, mais il saura vous occuper pendant une soirée ou deux !</t>
-  </si>
-  <si>
-    <t>Pas mal !</t>
-  </si>
-  <si>
-    <t>Pas bien !</t>
-  </si>
-  <si>
-    <t>G pa kompri lé regle</t>
-  </si>
-  <si>
-    <t>Incroyable  ! Mon jeu préféré !</t>
-  </si>
-  <si>
-    <t>Exceptionnel ! Mon nouveau jeu préféré !</t>
-  </si>
-  <si>
-    <t>WOOOOOOOOOOOOOOOOOOOOW ! Mon nouveau jeu préféré !</t>
-  </si>
-  <si>
-    <t>Magistral ! Mon nouveau jeu préféré !</t>
-  </si>
-  <si>
-    <t>Un peu cher pour sa durée de vie mais néanmoins agréable !</t>
-  </si>
-  <si>
-    <t>Parfait pour jouer avec ses enfants !</t>
-  </si>
-  <si>
-    <t>Mon dieu ! Mais quelle horreur ! Ce jeu n'a pour seul objectif de rendre vos enfants violents ! Je suis OUTRÉ !</t>
-  </si>
-  <si>
-    <t>Excellent jeu avec une durée de vie infinie !</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>enorme c incr com jeu</t>
-  </si>
-  <si>
-    <t>vrmt bien quan ta rien a fair</t>
-  </si>
-  <si>
-    <t>On faisait mieux en 2001…</t>
-  </si>
-  <si>
-    <t>C'est un jeu maudit !</t>
-  </si>
-  <si>
-    <t>Juste une dingz</t>
-  </si>
-  <si>
-    <t>Juste une double dingz</t>
-  </si>
-  <si>
-    <t>Comment on se fait rembourser ?</t>
-  </si>
-  <si>
-    <t>Durée de vie : ++ / Gameplay : - / Equilibrage : - / Design : +</t>
-  </si>
-  <si>
-    <t>Durée de vie : + / Gameplay : ++ / Equilibrage : - / Design : +</t>
-  </si>
-  <si>
-    <t>Durée de vie : -- / Gameplay : + / Equilibrage : - / Design : -</t>
-  </si>
-  <si>
-    <t>Durée de vie : ++ / Gameplay : ++ / Equilibrage : + / Design : ++</t>
-  </si>
-  <si>
-    <t>Durée de vie : + / Gameplay : + / Equilibrage : + / Design : ++</t>
-  </si>
-  <si>
-    <t>Durée de vie : - / Gameplay : + / Equilibrage : -- / Design : +</t>
-  </si>
-  <si>
-    <t>Durée de vie : -- / Gameplay : ++ / Equilibrage : + / Design : -</t>
-  </si>
-  <si>
-    <t>Durée de vie : + / Gameplay : -- / Equilibrage : ++ / Design : +</t>
-  </si>
-  <si>
-    <t>Durée de vie : - / Gameplay : + / Equilibrage : + / Design : +</t>
-  </si>
-  <si>
-    <t>Durée de vie : -- / Gameplay : -- / Equilibrage : - / Design : --</t>
-  </si>
-  <si>
-    <t>Durée de vie : ++ / Gameplay : ++ / Equilibrage : - / Design : ++</t>
-  </si>
-  <si>
-    <t>Vraiment pas mal ce petit jeu !</t>
-  </si>
-  <si>
-    <t>Un classique !</t>
-  </si>
-  <si>
-    <t>Bof</t>
-  </si>
-  <si>
-    <t>Un très bon jeu ! Si y en a qui cherchent des gens pour jouer, vous pouvez m'ajouter, mon pseudo c'est Whiskey</t>
-  </si>
-  <si>
-    <t>Il était une école, qui avait tout gagné…</t>
-  </si>
-  <si>
-    <t>Catastrophique ! Une honte de vendre un jeu pareil !</t>
-  </si>
-  <si>
-    <t>Si l'ennui est votre passion, alors n'hésitez pas !</t>
-  </si>
-  <si>
-    <t>Remplir sa fiche d'impôsition est du fun à l'état pur à côté de ça...</t>
-  </si>
-  <si>
-    <t>Wow ! Ils ont dû redoubler d'effort pour réussir à condenser tout ce qui s'oppose à l'amusement en un seul jeu !</t>
-  </si>
-  <si>
-    <t>Ce jeu me rappelle mon fils : j'en voulais pas, il m'a coûté plus cher que ce qu'il m'a rapporté et même si j'en attendais rien, j'ai quand même été déçu…</t>
-  </si>
-  <si>
-    <t>Alors là, j'ai plus les mots…</t>
-  </si>
-  <si>
-    <t>Du pain béni !</t>
-  </si>
-  <si>
-    <t>MASTERCLASS !! Vous devez y jouer !!</t>
-  </si>
-  <si>
-    <t>Le parfait mélange entre un éclair vanille et une tarte au citron meringuée !</t>
-  </si>
-  <si>
-    <t>Si les dieux faisaient un enfant, il resemblerait à ça !</t>
-  </si>
-  <si>
-    <t>Très fun ! Il vaut le détour !</t>
-  </si>
-  <si>
-    <t>MA-SHA-LLAH !</t>
-  </si>
-  <si>
-    <t>Ne vaut pas son prix !</t>
-  </si>
-  <si>
-    <t>Le concept est vraiment original ! Dommage que les dessins soient peu travaillés…</t>
-  </si>
-  <si>
-    <t>Les pièces commencent déjà à s'abîmer gravement alors que j'ai acheté le jeu il y a moins de 2 semaines ! C'est honteux !</t>
-  </si>
-  <si>
-    <t>Excellent jeu ! Très convivial !</t>
-  </si>
-  <si>
-    <t>Les dessins sont beaux mais c'est tout…</t>
-  </si>
-  <si>
-    <t>Pas le jeu de l'année mais plutôt cool !</t>
-  </si>
-  <si>
-    <t>Ce jeu est aux jeux de société ce que la tarte au citron meringuée est aux desserts !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce jeu est aux jeux de société ce que Père Fouras est à Fort Boyard ! </t>
-  </si>
-  <si>
-    <t>Ce jeu est aux jeux de société ce que le réglisse est aux bonbons !</t>
-  </si>
-  <si>
-    <t>Ce jeu est aux jeux de société ce que le chou est aux légumes !</t>
-  </si>
-  <si>
-    <t>pas mal</t>
-  </si>
-  <si>
-    <t>vrmt pas mal</t>
-  </si>
-  <si>
-    <t>pas vrmt pas mal</t>
-  </si>
-  <si>
-    <t>Moyen</t>
-  </si>
-  <si>
-    <t>Un bon petit jeu</t>
-  </si>
-  <si>
-    <t>Un indispensable des soirées entre amis !</t>
-  </si>
-  <si>
-    <t>Presque autant déçu que Leon</t>
-  </si>
-  <si>
-    <t>Dans la moyenne</t>
-  </si>
-  <si>
-    <t>Médiane</t>
-  </si>
-  <si>
-    <t>Meh</t>
-  </si>
-  <si>
-    <t>Ça ne vaut pas un bon vieux Takenoko mais ça fait quand même l'affaire</t>
-  </si>
-  <si>
-    <t>J'ai vu mieux, j'ai vu pire…</t>
-  </si>
-  <si>
-    <t>Nul</t>
-  </si>
-  <si>
-    <t>Grave bien !</t>
-  </si>
-  <si>
-    <t>Comme une envie de me foutre en l'air…</t>
-  </si>
-  <si>
-    <t>Plutôt original, il en vaut le détour !</t>
-  </si>
-  <si>
-    <t>Sûrement l'un des meilleurs dans ce domaine</t>
-  </si>
-  <si>
-    <t>Toujours une valeur sure [EDITEUR] !</t>
-  </si>
-  <si>
-    <t>Y en a pas bcp des bons jeu de [THEME], mais celui-là en fait partie !</t>
-  </si>
-  <si>
-    <t>Bcp trop de règles compliquées qui rendent le jeu incompréhensible !</t>
-  </si>
-  <si>
-    <t>Un bon jeu pour changer des grands classiques !</t>
-  </si>
-  <si>
-    <t>J'aime bien le concept mais à acheter en promo car la durée de vie est limitée</t>
-  </si>
-  <si>
-    <t>Excellent en tout point ! Un must-have !</t>
-  </si>
-  <si>
-    <t>Même si le design est un peu élémentaire, il vaut le coup !</t>
-  </si>
-  <si>
-    <t>Le gameplay n'est pas très passionnant… Heureusement que c'est illustré par [ILLUSTRATEUR] !</t>
-  </si>
-  <si>
-    <t>Il sort des sentiers battus et ça marche ! Je valide !</t>
-  </si>
-  <si>
-    <t>Une formule classique mais bien exécutée !</t>
-  </si>
-  <si>
-    <t>On retrouve bien la patte de [CREATEUR], ce qui nous donne un jeu agréable entre amis !</t>
-  </si>
-  <si>
-    <t>Moelleux</t>
-  </si>
-  <si>
-    <t>Galbé</t>
-  </si>
-  <si>
-    <t>Eclairé</t>
-  </si>
-  <si>
-    <t>Obscur</t>
-  </si>
-  <si>
-    <t>Transcendant</t>
-  </si>
-  <si>
-    <t>Arrogant</t>
-  </si>
-  <si>
-    <t>Curieux</t>
-  </si>
-  <si>
-    <t>Mignon</t>
-  </si>
-  <si>
-    <t>Froid</t>
-  </si>
-  <si>
-    <t>Hypocrite</t>
-  </si>
-  <si>
-    <t>Egal</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Pauvre</t>
-  </si>
-  <si>
-    <t>Sincère</t>
-  </si>
-  <si>
-    <t>Timide</t>
-  </si>
-  <si>
-    <t>Onctueux</t>
-  </si>
-  <si>
-    <t>Pas cuit</t>
-  </si>
-  <si>
-    <t>Trop cuit</t>
-  </si>
-  <si>
-    <t>Allumé</t>
-  </si>
-  <si>
-    <t>Vibrant</t>
-  </si>
-  <si>
-    <t>Vivant</t>
-  </si>
-  <si>
-    <t>Sauvage</t>
-  </si>
-  <si>
-    <t>Assaisonné</t>
-  </si>
-  <si>
-    <t>Innocent</t>
-  </si>
-  <si>
-    <t>Super</t>
-  </si>
-  <si>
-    <t>Indiscernable</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Artérielle</t>
-  </si>
-  <si>
-    <t>Aberrant</t>
-  </si>
-  <si>
-    <t>Immédiat</t>
-  </si>
-  <si>
-    <t>Sanguin</t>
-  </si>
-  <si>
-    <t>Oxygéné</t>
-  </si>
-  <si>
-    <t>Aéré</t>
-  </si>
-  <si>
-    <t>Plausible</t>
-  </si>
-  <si>
-    <t>Occupant</t>
-  </si>
-  <si>
-    <t>Distrayant</t>
-  </si>
-  <si>
-    <t>Demonstratif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Très bien ! </t>
-  </si>
-  <si>
-    <t>Oubliable</t>
-  </si>
-  <si>
-    <t>Nullissime</t>
-  </si>
-  <si>
-    <t>Génant</t>
-  </si>
-  <si>
-    <t>Aiguisé</t>
-  </si>
-  <si>
-    <t>Inquiet</t>
-  </si>
-  <si>
-    <t>Grossier</t>
-  </si>
-  <si>
-    <t>Monstreux</t>
-  </si>
-  <si>
-    <t>Lucide</t>
-  </si>
-  <si>
-    <t>Basique</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Académique</t>
-  </si>
-  <si>
-    <t>Ludique</t>
-  </si>
-  <si>
-    <t>Stylé</t>
-  </si>
-  <si>
-    <t>Cosmique</t>
-  </si>
-  <si>
-    <t>Rapide</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Lent</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>Minimal</t>
-  </si>
-  <si>
-    <t>Développé</t>
-  </si>
-  <si>
-    <t>Beau</t>
-  </si>
-  <si>
-    <t>Immersif</t>
-  </si>
-  <si>
-    <t>Intuitif</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Surprenant</t>
-  </si>
-  <si>
-    <t>Génial</t>
-  </si>
-  <si>
-    <t>Imaginatif</t>
-  </si>
-  <si>
-    <t>Créatif</t>
-  </si>
-  <si>
-    <t>Solide</t>
-  </si>
-  <si>
-    <t>Ponctuel</t>
-  </si>
-  <si>
-    <t>Bienveillant</t>
-  </si>
-  <si>
-    <t>Traumatisant</t>
-  </si>
-  <si>
-    <t>Horrible</t>
-  </si>
-  <si>
-    <t>Affreux</t>
-  </si>
-  <si>
-    <t>Catastrophique</t>
-  </si>
-  <si>
-    <t>Désastreux</t>
-  </si>
-  <si>
-    <t>Ecoeurant</t>
-  </si>
-  <si>
-    <t>Assidu</t>
-  </si>
-  <si>
-    <t>Pensif</t>
-  </si>
-  <si>
-    <t>Vendu</t>
-  </si>
-  <si>
-    <t>Terminé</t>
-  </si>
-  <si>
-    <t>Héroïque</t>
-  </si>
-  <si>
-    <t>Plat</t>
-  </si>
-  <si>
-    <t>Fade</t>
-  </si>
-  <si>
-    <t>Gastronomique</t>
-  </si>
-  <si>
-    <t>Chargemeeeeeennnnnntt !! Lalalalala ! Chargemeeeeeeeennntt !!</t>
-  </si>
-  <si>
-    <t>Ouverture de porte</t>
-  </si>
-  <si>
-    <t>Transition</t>
-  </si>
-  <si>
-    <t>Féodal</t>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>Efficace</t>
-  </si>
-  <si>
-    <t>Un jeu excellent !</t>
-  </si>
-  <si>
-    <t>Un jeu amusant !</t>
-  </si>
-  <si>
-    <t>Un jeu mauvais !</t>
-  </si>
-  <si>
-    <t>J'ai plus grand-chose à vendre, mais il est vraiment bien !</t>
-  </si>
-  <si>
-    <t>Je vendrai ma mère pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai mon père pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai mon frère pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai ma sœur pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai mon fils pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai ma fille pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai mon oncle pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Il vaut pas un rond celui-là…</t>
-  </si>
-  <si>
-    <t>Je vendrai ma tante pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai mon grand-père pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai ma grand-mère pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai ma femme pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai mon meilleur ami pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Je vendrai mon chien pour ce jeu !</t>
-  </si>
-  <si>
-    <t>Ne l'achetez surtout pas !</t>
-  </si>
-  <si>
-    <t>Vrmt raffraichissant ! Ça devrait être une inspiration pour les prochains jeux !</t>
-  </si>
-  <si>
-    <t>Un classique indémodable</t>
-  </si>
-  <si>
-    <t>Rien à dire, il fait le job.</t>
-  </si>
-  <si>
-    <t>Un peu déçu par la fin, dommage le début était prometteur…</t>
-  </si>
-  <si>
-    <t>Très compliqué au premier abord mais la courbe de progression est très satisfaisante !</t>
-  </si>
-  <si>
-    <t>Alors là je dis oui, oui, oui !</t>
-  </si>
-  <si>
-    <t>Mais là je dis non, non, non !</t>
-  </si>
-  <si>
-    <t>C'est un jeu de niche, qui plaira aux fans des jeux de [MECANIQUE] !</t>
-  </si>
-  <si>
-    <t>J'ai enfin trouvé le digne successeur de [JEU] !</t>
-  </si>
-  <si>
-    <t>Il est cool celui-là ! Tu voudras y jouer [PSEUDO] ?</t>
-  </si>
-  <si>
-    <t>*pouce en l'air*</t>
-  </si>
-  <si>
-    <t>*applaudissement*</t>
-  </si>
-  <si>
-    <t>*smiley content*</t>
-  </si>
-  <si>
-    <t>*smiley énervé*</t>
-  </si>
-  <si>
-    <t>*smiley déçu*</t>
-  </si>
-  <si>
-    <t>*baleine*</t>
-  </si>
-  <si>
-    <t>*hot-dog*</t>
-  </si>
-  <si>
-    <t>*pouce vers le bas*</t>
-  </si>
-  <si>
-    <t>*smiley satisfait mais qui reste un peu sur sa faim quand même car il aurait aimé un peu plus de possibilité de gameplay mais vu que les dessins sont stylés*</t>
-  </si>
-  <si>
-    <t>Nul ! Faut être beaucoup pour jouer mais je suis tout seul…</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>ez</t>
-  </si>
-  <si>
-    <t>trop facil com jeu</t>
-  </si>
-  <si>
-    <t>vous aver pa plus dificil ?</t>
-  </si>
-  <si>
-    <t>Très convivial, parfait pour les dimanche en famille !</t>
-  </si>
-  <si>
-    <t>Un peu trop compliqué pour les novices du genre.</t>
-  </si>
-  <si>
-    <t>A la fois intuitif et complexe, il permet de faire de belles parties entre adeptes !</t>
-  </si>
-  <si>
-    <t>Parfait pour initier de nouveaux joueurs aux jeux de [MECANIQUE] !</t>
-  </si>
-  <si>
-    <t>Enfin un jeu de [THEME] à la hauteur !</t>
-  </si>
-  <si>
-    <t>[JEU], c'est la vie !</t>
-  </si>
-  <si>
-    <t>B***** de m**** ! C'est quoi cette m**** p***** ! Bande d'e****** remboursez moi !</t>
-  </si>
-  <si>
-    <t>Toujours un plaisir d'y jouer avec mes amies du club de tricot !</t>
-  </si>
-  <si>
-    <t>Jsuis pas sur davoir tout compris mais ca a lair plutot cool</t>
-  </si>
-  <si>
-    <t>Un peu déçu venant de [CREATEUR] et [CREATEUR], c'est pas leur meilleur...</t>
-  </si>
-  <si>
-    <t>Une collaboration entre [CREATEUR] et [ILLUSTRATEUR] ne pouvait donner qu'un chef d'œuvre !</t>
-  </si>
-  <si>
-    <t>Je ne sais pas pour les autres configurations, mais y jouer à 4 rendait le jeu assez lent…</t>
-  </si>
-  <si>
-    <t>J'adore l'univers ! De plus le gameplay est nerveux et intense ! C'est un grand oui pour moi !</t>
-  </si>
-  <si>
-    <t>C'est tellement dommage ! Le concept de base était grave intéressant, mais on s'y perd trop avec tous les attributs et les objets en plus ! On passe plus de temps à essayer de comprendre ce qu'il se passe qu'à jouer...</t>
-  </si>
-  <si>
-    <t>Et bien ! Je ne suis pas un grand fan des jeux de [MECANIQUE], mais je dois avouer que celui-ci a su me plaire !</t>
-  </si>
-  <si>
-    <t>Un jeu intuitif, facile à prendre en main et compréhensible</t>
-  </si>
-  <si>
-    <t>Un jeu rapide, vif et véloce</t>
-  </si>
-  <si>
-    <t>Un jeu difficile, complexe et compliqué</t>
-  </si>
-  <si>
-    <t>Première fois que je teste un jeu de [EDITEUR] : résultat très concluant !</t>
-  </si>
-  <si>
-    <t>A part si vous n'avez rien d'autre, à éviter</t>
-  </si>
-  <si>
-    <t>Bon jeu entre amis, dommage qu'il ne puisse pas y avoir plus de joueurs…</t>
-  </si>
-  <si>
-    <t>Si vous tenez à votre santé mental, votre temps et votre argent, n'y jouez pas !</t>
-  </si>
-  <si>
-    <t>Quelle déception ! Je l'attendais tellement mais il manque trop de contenu, en 30min on a vite fait le tour...</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="497">
+  <si>
+    <t>id_avis</t>
+  </si>
+  <si>
+    <t>note_avis</t>
+  </si>
+  <si>
+    <t>commentaire</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>id_jeu</t>
+  </si>
+  <si>
+    <t>id_config</t>
+  </si>
+  <si>
+    <t>id_joueur</t>
   </si>
   <si>
     <t>"Incroyable ce jeu ! Probablement le meilleur de l'année ! Je conseille fortement !"</t>
@@ -773,9 +62,6 @@
     <t>'28-MAY-2020'</t>
   </si>
   <si>
-    <t>28-May-2020</t>
-  </si>
-  <si>
     <t>"Quelle déception ! Je l'attendais tellement mais il manque trop de contenu, en 30min on a vite fait le tour..."</t>
   </si>
   <si>
@@ -788,9 +74,6 @@
     <t>'26-AUG-2021'</t>
   </si>
   <si>
-    <t>26-Aug-2021</t>
-  </si>
-  <si>
     <t>"C'est pas le jeu de l'année, mais il saura vous occuper pendant une soirée ou deux !"</t>
   </si>
   <si>
@@ -803,9 +86,6 @@
     <t>'14-APR-2018'</t>
   </si>
   <si>
-    <t>14-Apr-2018</t>
-  </si>
-  <si>
     <t>"Pas bien !"</t>
   </si>
   <si>
@@ -824,18 +104,12 @@
     <t>'03-APR-2022'</t>
   </si>
   <si>
-    <t>03-Apr-2022</t>
-  </si>
-  <si>
     <t>"Exceptionnel ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
     <t>'23-DEC-2022'</t>
   </si>
   <si>
-    <t>23-Dec-2022</t>
-  </si>
-  <si>
     <t>"Magistral ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
@@ -848,9 +122,6 @@
     <t>'27-FEB-2019'</t>
   </si>
   <si>
-    <t>27-Feb-2019</t>
-  </si>
-  <si>
     <t>"Un peu cher pour sa durée de vie mais néanmoins agréable !"</t>
   </si>
   <si>
@@ -899,9 +170,6 @@
     <t>'18-FEB-2022'</t>
   </si>
   <si>
-    <t>18-Feb-2022</t>
-  </si>
-  <si>
     <t>"vrmt bien quan ta rien a fair"</t>
   </si>
   <si>
@@ -926,9 +194,6 @@
     <t>'10-FEB-2020'</t>
   </si>
   <si>
-    <t>10-Feb-2020</t>
-  </si>
-  <si>
     <t>"Juste une double dingz"</t>
   </si>
   <si>
@@ -941,9 +206,6 @@
     <t>'03-MAY-2021'</t>
   </si>
   <si>
-    <t>03-May-2021</t>
-  </si>
-  <si>
     <t>"Durée de vie : ++ / Gameplay : - / Equilibrage : - / Design : +"</t>
   </si>
   <si>
@@ -962,9 +224,6 @@
     <t>'27-MAY-2018'</t>
   </si>
   <si>
-    <t>27-May-2018</t>
-  </si>
-  <si>
     <t>"Durée de vie : + / Gameplay : + / Equilibrage : + / Design : ++"</t>
   </si>
   <si>
@@ -977,27 +236,18 @@
     <t>'06-FEB-2022'</t>
   </si>
   <si>
-    <t>06-Feb-2022</t>
-  </si>
-  <si>
     <t>"Durée de vie : - / Gameplay : + / Equilibrage : -- / Design : +"</t>
   </si>
   <si>
     <t>'02-DEC-2016'</t>
   </si>
   <si>
-    <t>02-Dec-2016</t>
-  </si>
-  <si>
     <t>"Durée de vie : -- / Gameplay : ++ / Equilibrage : + / Design : -"</t>
   </si>
   <si>
     <t>'15-APR-2016'</t>
   </si>
   <si>
-    <t>15-Apr-2016</t>
-  </si>
-  <si>
     <t>"Durée de vie : + / Gameplay : -- / Equilibrage : ++ / Design : +"</t>
   </si>
   <si>
@@ -1016,9 +266,6 @@
     <t>'13-MAY-2016'</t>
   </si>
   <si>
-    <t>13-May-2016</t>
-  </si>
-  <si>
     <t>"Durée de vie : ++ / Gameplay : ++ / Equilibrage : - / Design : ++"</t>
   </si>
   <si>
@@ -1031,18 +278,12 @@
     <t>'18-MAY-2015'</t>
   </si>
   <si>
-    <t>18-May-2015</t>
-  </si>
-  <si>
     <t>"Un classique !"</t>
   </si>
   <si>
     <t>'20-AUG-2020'</t>
   </si>
   <si>
-    <t>20-Aug-2020</t>
-  </si>
-  <si>
     <t>"Bof"</t>
   </si>
   <si>
@@ -1055,9 +296,6 @@
     <t>'03-MAY-2016'</t>
   </si>
   <si>
-    <t>03-May-2016</t>
-  </si>
-  <si>
     <t>"Il était une école, qui avait tout gagné…"</t>
   </si>
   <si>
@@ -1100,9 +338,6 @@
     <t>'20-FEB-2021'</t>
   </si>
   <si>
-    <t>20-Feb-2021</t>
-  </si>
-  <si>
     <t>"Du pain béni !"</t>
   </si>
   <si>
@@ -1115,18 +350,12 @@
     <t>'01-AUG-2018'</t>
   </si>
   <si>
-    <t>01-Aug-2018</t>
-  </si>
-  <si>
     <t>"Le parfait mélange entre un éclair vanille et une tarte au citron meringuée !"</t>
   </si>
   <si>
     <t>'01-MAY-2015'</t>
   </si>
   <si>
-    <t>01-May-2015</t>
-  </si>
-  <si>
     <t>"Si les dieux faisaient un enfant, il resemblerait à ça !"</t>
   </si>
   <si>
@@ -1139,9 +368,6 @@
     <t>'24-APR-2016'</t>
   </si>
   <si>
-    <t>24-Apr-2016</t>
-  </si>
-  <si>
     <t>"MA-SHA-LLAH !"</t>
   </si>
   <si>
@@ -1166,9 +392,6 @@
     <t>'16-FEB-2021'</t>
   </si>
   <si>
-    <t>16-Feb-2021</t>
-  </si>
-  <si>
     <t>"Excellent jeu ! Très convivial !"</t>
   </si>
   <si>
@@ -1181,9 +404,6 @@
     <t>'02-APR-2022'</t>
   </si>
   <si>
-    <t>02-Apr-2022</t>
-  </si>
-  <si>
     <t>"Pas le jeu de l'année mais plutôt cool !"</t>
   </si>
   <si>
@@ -1196,18 +416,12 @@
     <t>'21-MAY-2021'</t>
   </si>
   <si>
-    <t>21-May-2021</t>
-  </si>
-  <si>
     <t>"Ce jeu est aux jeux de société ce que la tarte au citron meringuée est aux desserts !"</t>
   </si>
   <si>
     <t>'12-APR-2018'</t>
   </si>
   <si>
-    <t>12-Apr-2018</t>
-  </si>
-  <si>
     <t>"Ce jeu est aux jeux de société ce que le réglisse est aux bonbons !"</t>
   </si>
   <si>
@@ -1229,9 +443,6 @@
     <t>'05-APR-2016'</t>
   </si>
   <si>
-    <t>05-Apr-2016</t>
-  </si>
-  <si>
     <t>"pas vrmt pas mal"</t>
   </si>
   <si>
@@ -1244,18 +455,12 @@
     <t>'22-APR-2019'</t>
   </si>
   <si>
-    <t>22-Apr-2019</t>
-  </si>
-  <si>
     <t>"Un indispensable des soirées entre amis !"</t>
   </si>
   <si>
     <t>'15-MAY-2018'</t>
   </si>
   <si>
-    <t>15-May-2018</t>
-  </si>
-  <si>
     <t>"Presque autant déçu que Leon"</t>
   </si>
   <si>
@@ -1301,9 +506,6 @@
     <t>'09-APR-2017'</t>
   </si>
   <si>
-    <t>09-Apr-2017</t>
-  </si>
-  <si>
     <t>"Nul"</t>
   </si>
   <si>
@@ -1316,9 +518,6 @@
     <t>'28-AUG-2016'</t>
   </si>
   <si>
-    <t>28-Aug-2016</t>
-  </si>
-  <si>
     <t>"Comme une envie de me foutre en l'air…"</t>
   </si>
   <si>
@@ -1337,9 +536,6 @@
     <t>'26-AUG-2018'</t>
   </si>
   <si>
-    <t>26-Aug-2018</t>
-  </si>
-  <si>
     <t>"Toujours une valeur sure [EDITEUR] !"</t>
   </si>
   <si>
@@ -1358,9 +554,6 @@
     <t>'18-MAY-2016'</t>
   </si>
   <si>
-    <t>18-May-2016</t>
-  </si>
-  <si>
     <t>"Un bon jeu pour changer des grands classiques !"</t>
   </si>
   <si>
@@ -1391,27 +584,18 @@
     <t>'08-MAY-2018'</t>
   </si>
   <si>
-    <t>08-May-2018</t>
-  </si>
-  <si>
     <t>"Il sort des sentiers battus et ça marche ! Je valide !"</t>
   </si>
   <si>
     <t>'18-DEC-2015'</t>
   </si>
   <si>
-    <t>18-Dec-2015</t>
-  </si>
-  <si>
     <t>"Une formule classique mais bien exécutée !"</t>
   </si>
   <si>
     <t>'11-MAY-2020'</t>
   </si>
   <si>
-    <t>11-May-2020</t>
-  </si>
-  <si>
     <t>"On retrouve bien la patte de [CREATEUR], ce qui nous donne un jeu agréable entre amis !"</t>
   </si>
   <si>
@@ -1439,18 +623,12 @@
     <t>'15-APR-2015'</t>
   </si>
   <si>
-    <t>15-Apr-2015</t>
-  </si>
-  <si>
     <t>"Transcendant"</t>
   </si>
   <si>
     <t>'13-APR-2020'</t>
   </si>
   <si>
-    <t>13-Apr-2020</t>
-  </si>
-  <si>
     <t>"Arrogant"</t>
   </si>
   <si>
@@ -1475,9 +653,6 @@
     <t>'24-APR-2021'</t>
   </si>
   <si>
-    <t>24-Apr-2021</t>
-  </si>
-  <si>
     <t>"Hypocrite"</t>
   </si>
   <si>
@@ -1490,18 +665,12 @@
     <t>'27-FEB-2016'</t>
   </si>
   <si>
-    <t>27-Feb-2016</t>
-  </si>
-  <si>
     <t>"Patient"</t>
   </si>
   <si>
     <t>'11-FEB-2017'</t>
   </si>
   <si>
-    <t>11-Feb-2017</t>
-  </si>
-  <si>
     <t>"Pauvre"</t>
   </si>
   <si>
@@ -1520,18 +689,12 @@
     <t>'09-AUG-2015'</t>
   </si>
   <si>
-    <t>09-Aug-2015</t>
-  </si>
-  <si>
     <t>"Onctueux"</t>
   </si>
   <si>
     <t>'12-APR-2019'</t>
   </si>
   <si>
-    <t>12-Apr-2019</t>
-  </si>
-  <si>
     <t>"Pas cuit"</t>
   </si>
   <si>
@@ -1544,9 +707,6 @@
     <t>'23-MAY-2018'</t>
   </si>
   <si>
-    <t>23-May-2018</t>
-  </si>
-  <si>
     <t>"Allumé"</t>
   </si>
   <si>
@@ -1559,18 +719,12 @@
     <t>'27-DEC-2020'</t>
   </si>
   <si>
-    <t>27-Dec-2020</t>
-  </si>
-  <si>
     <t>"Vivant"</t>
   </si>
   <si>
     <t>'05-APR-2019'</t>
   </si>
   <si>
-    <t>05-Apr-2019</t>
-  </si>
-  <si>
     <t>"Sauvage"</t>
   </si>
   <si>
@@ -1583,18 +737,12 @@
     <t>'01-APR-2021'</t>
   </si>
   <si>
-    <t>01-Apr-2021</t>
-  </si>
-  <si>
     <t>"Innocent"</t>
   </si>
   <si>
     <t>'26-DEC-2019'</t>
   </si>
   <si>
-    <t>26-Dec-2019</t>
-  </si>
-  <si>
     <t>"Super"</t>
   </si>
   <si>
@@ -1619,18 +767,12 @@
     <t>'06-FEB-2021'</t>
   </si>
   <si>
-    <t>06-Feb-2021</t>
-  </si>
-  <si>
     <t>"Aberrant"</t>
   </si>
   <si>
     <t>'16-AUG-2018'</t>
   </si>
   <si>
-    <t>16-Aug-2018</t>
-  </si>
-  <si>
     <t>"Immédiat"</t>
   </si>
   <si>
@@ -1655,9 +797,6 @@
     <t>'06-FEB-2017'</t>
   </si>
   <si>
-    <t>06-Feb-2017</t>
-  </si>
-  <si>
     <t>"Plausible"</t>
   </si>
   <si>
@@ -1670,9 +809,6 @@
     <t>'09-AUG-2020'</t>
   </si>
   <si>
-    <t>09-Aug-2020</t>
-  </si>
-  <si>
     <t>"Distrayant"</t>
   </si>
   <si>
@@ -1685,36 +821,24 @@
     <t>'17-DEC-2018'</t>
   </si>
   <si>
-    <t>17-Dec-2018</t>
-  </si>
-  <si>
     <t>"Très bien ! "</t>
   </si>
   <si>
     <t>'17-DEC-2020'</t>
   </si>
   <si>
-    <t>17-Dec-2020</t>
-  </si>
-  <si>
     <t>"Oubliable"</t>
   </si>
   <si>
     <t>'22-DEC-2020'</t>
   </si>
   <si>
-    <t>22-Dec-2020</t>
-  </si>
-  <si>
     <t>"Nullissime"</t>
   </si>
   <si>
     <t>'13-APR-2019'</t>
   </si>
   <si>
-    <t>13-Apr-2019</t>
-  </si>
-  <si>
     <t>"Génant"</t>
   </si>
   <si>
@@ -1727,9 +851,6 @@
     <t>'07-DEC-2020'</t>
   </si>
   <si>
-    <t>07-Dec-2020</t>
-  </si>
-  <si>
     <t>"Inquiet"</t>
   </si>
   <si>
@@ -1754,18 +875,12 @@
     <t>'10-AUG-2021'</t>
   </si>
   <si>
-    <t>10-Aug-2021</t>
-  </si>
-  <si>
     <t>"Basique"</t>
   </si>
   <si>
     <t>'14-MAY-2019'</t>
   </si>
   <si>
-    <t>14-May-2019</t>
-  </si>
-  <si>
     <t>"Simple"</t>
   </si>
   <si>
@@ -1778,27 +893,18 @@
     <t>'13-FEB-2017'</t>
   </si>
   <si>
-    <t>13-Feb-2017</t>
-  </si>
-  <si>
     <t>"Ludique"</t>
   </si>
   <si>
     <t>'03-AUG-2015'</t>
   </si>
   <si>
-    <t>03-Aug-2015</t>
-  </si>
-  <si>
     <t>"Stylé"</t>
   </si>
   <si>
     <t>'31-AUG-2015'</t>
   </si>
   <si>
-    <t>31-Aug-2015</t>
-  </si>
-  <si>
     <t>"Cosmique"</t>
   </si>
   <si>
@@ -1811,27 +917,18 @@
     <t>'14-FEB-2020'</t>
   </si>
   <si>
-    <t>14-Feb-2020</t>
-  </si>
-  <si>
     <t>"Long"</t>
   </si>
   <si>
     <t>'01-MAY-2022'</t>
   </si>
   <si>
-    <t>01-May-2022</t>
-  </si>
-  <si>
     <t>"Lent"</t>
   </si>
   <si>
     <t>'01-FEB-2018'</t>
   </si>
   <si>
-    <t>01-Feb-2018</t>
-  </si>
-  <si>
     <t>"Court"</t>
   </si>
   <si>
@@ -1844,9 +941,6 @@
     <t>'03-APR-2020'</t>
   </si>
   <si>
-    <t>03-Apr-2020</t>
-  </si>
-  <si>
     <t>"Développé"</t>
   </si>
   <si>
@@ -1859,9 +953,6 @@
     <t>'12-APR-2020'</t>
   </si>
   <si>
-    <t>12-Apr-2020</t>
-  </si>
-  <si>
     <t>"Immersif"</t>
   </si>
   <si>
@@ -1874,18 +965,12 @@
     <t>'18-AUG-2021'</t>
   </si>
   <si>
-    <t>18-Aug-2021</t>
-  </si>
-  <si>
     <t>"Normal"</t>
   </si>
   <si>
     <t>'08-APR-2020'</t>
   </si>
   <si>
-    <t>08-Apr-2020</t>
-  </si>
-  <si>
     <t>"Surprenant"</t>
   </si>
   <si>
@@ -1898,27 +983,18 @@
     <t>'28-AUG-2019'</t>
   </si>
   <si>
-    <t>28-Aug-2019</t>
-  </si>
-  <si>
     <t>"Imaginatif"</t>
   </si>
   <si>
     <t>'18-APR-2019'</t>
   </si>
   <si>
-    <t>18-Apr-2019</t>
-  </si>
-  <si>
     <t>"Créatif"</t>
   </si>
   <si>
     <t>'03-DEC-2021'</t>
   </si>
   <si>
-    <t>03-Dec-2021</t>
-  </si>
-  <si>
     <t>"Solide"</t>
   </si>
   <si>
@@ -1931,27 +1007,18 @@
     <t>'03-AUG-2017'</t>
   </si>
   <si>
-    <t>03-Aug-2017</t>
-  </si>
-  <si>
     <t>"Bienveillant"</t>
   </si>
   <si>
     <t>'12-AUG-2019'</t>
   </si>
   <si>
-    <t>12-Aug-2019</t>
-  </si>
-  <si>
     <t>"Traumatisant"</t>
   </si>
   <si>
     <t>'30-MAY-2022'</t>
   </si>
   <si>
-    <t>30-May-2022</t>
-  </si>
-  <si>
     <t>"Horrible"</t>
   </si>
   <si>
@@ -1961,9 +1028,6 @@
     <t>'18-AUG-2018'</t>
   </si>
   <si>
-    <t>18-Aug-2018</t>
-  </si>
-  <si>
     <t>"Catastrophique"</t>
   </si>
   <si>
@@ -1985,18 +1049,12 @@
     <t>'24-AUG-2015'</t>
   </si>
   <si>
-    <t>24-Aug-2015</t>
-  </si>
-  <si>
     <t>"Pensif"</t>
   </si>
   <si>
     <t>'28-APR-2015'</t>
   </si>
   <si>
-    <t>28-Apr-2015</t>
-  </si>
-  <si>
     <t>"Vendu"</t>
   </si>
   <si>
@@ -2009,27 +1067,18 @@
     <t>'10-AUG-2016'</t>
   </si>
   <si>
-    <t>10-Aug-2016</t>
-  </si>
-  <si>
     <t>"Héroïque"</t>
   </si>
   <si>
     <t>'20-MAY-2018'</t>
   </si>
   <si>
-    <t>20-May-2018</t>
-  </si>
-  <si>
     <t>"Plat"</t>
   </si>
   <si>
     <t>'19-FEB-2017'</t>
   </si>
   <si>
-    <t>19-Feb-2017</t>
-  </si>
-  <si>
     <t>"Fade"</t>
   </si>
   <si>
@@ -2057,36 +1106,24 @@
     <t>'24-MAY-2017'</t>
   </si>
   <si>
-    <t>24-May-2017</t>
-  </si>
-  <si>
     <t>"Chargemeeeeeennnnnntt !! Lalalalala ! Chargemeeeeeeeennntt !!"</t>
   </si>
   <si>
     <t>'24-FEB-2022'</t>
   </si>
   <si>
-    <t>24-Feb-2022</t>
-  </si>
-  <si>
     <t>"Ouverture de porte"</t>
   </si>
   <si>
     <t>'15-DEC-2018'</t>
   </si>
   <si>
-    <t>15-Dec-2018</t>
-  </si>
-  <si>
     <t>"Transition"</t>
   </si>
   <si>
     <t>'22-APR-2016'</t>
   </si>
   <si>
-    <t>22-Apr-2016</t>
-  </si>
-  <si>
     <t>"Un jeu excellent !"</t>
   </si>
   <si>
@@ -2099,27 +1136,18 @@
     <t>'03-AUG-2020'</t>
   </si>
   <si>
-    <t>03-Aug-2020</t>
-  </si>
-  <si>
     <t>"Un jeu amusant !"</t>
   </si>
   <si>
     <t>'01-AUG-2015'</t>
   </si>
   <si>
-    <t>01-Aug-2015</t>
-  </si>
-  <si>
     <t>"Rien à dire, il fait le job."</t>
   </si>
   <si>
     <t>'03-DEC-2015'</t>
   </si>
   <si>
-    <t>03-Dec-2015</t>
-  </si>
-  <si>
     <t>"Un peu déçu par la fin, dommage le début était prometteur…"</t>
   </si>
   <si>
@@ -2132,18 +1160,12 @@
     <t>'01-MAY-2018'</t>
   </si>
   <si>
-    <t>01-May-2018</t>
-  </si>
-  <si>
     <t>"Alors là je dis oui, oui, oui !"</t>
   </si>
   <si>
     <t>'08-MAY-2019'</t>
   </si>
   <si>
-    <t>08-May-2019</t>
-  </si>
-  <si>
     <t>"Mais là je dis non, non, non !"</t>
   </si>
   <si>
@@ -2168,18 +1190,12 @@
     <t>'02-AUG-2019'</t>
   </si>
   <si>
-    <t>02-Aug-2019</t>
-  </si>
-  <si>
     <t>"Je vendrai ma mère pour ce jeu !"</t>
   </si>
   <si>
     <t>'08-APR-2022'</t>
   </si>
   <si>
-    <t>08-Apr-2022</t>
-  </si>
-  <si>
     <t>"Je vendrai mon père pour ce jeu !"</t>
   </si>
   <si>
@@ -2192,27 +1208,18 @@
     <t>'25-FEB-2020'</t>
   </si>
   <si>
-    <t>25-Feb-2020</t>
-  </si>
-  <si>
     <t>"Je vendrai ma sœur pour ce jeu !"</t>
   </si>
   <si>
     <t>'27-APR-2016'</t>
   </si>
   <si>
-    <t>27-Apr-2016</t>
-  </si>
-  <si>
     <t>"Je vendrai mon fils pour ce jeu !"</t>
   </si>
   <si>
     <t>'18-FEB-2021'</t>
   </si>
   <si>
-    <t>18-Feb-2021</t>
-  </si>
-  <si>
     <t>"Je vendrai ma fille pour ce jeu !"</t>
   </si>
   <si>
@@ -2225,9 +1232,6 @@
     <t>'12-DEC-2018'</t>
   </si>
   <si>
-    <t>12-Dec-2018</t>
-  </si>
-  <si>
     <t>"Il vaut pas un rond celui-là…"</t>
   </si>
   <si>
@@ -2237,9 +1241,6 @@
     <t>'27-FEB-2015'</t>
   </si>
   <si>
-    <t>27-Feb-2015</t>
-  </si>
-  <si>
     <t>"Je vendrai mon grand-père pour ce jeu !"</t>
   </si>
   <si>
@@ -2282,9 +1283,6 @@
     <t>'27-MAY-2017'</t>
   </si>
   <si>
-    <t>27-May-2017</t>
-  </si>
-  <si>
     <t>"Ne l'achetez surtout pas !"</t>
   </si>
   <si>
@@ -2297,9 +1295,6 @@
     <t>'03-MAY-2018'</t>
   </si>
   <si>
-    <t>03-May-2018</t>
-  </si>
-  <si>
     <t>"Un classique indémodable"</t>
   </si>
   <si>
@@ -2312,9 +1307,6 @@
     <t>'04-FEB-2018'</t>
   </si>
   <si>
-    <t>04-Feb-2018</t>
-  </si>
-  <si>
     <t>"*applaudissement*"</t>
   </si>
   <si>
@@ -2327,9 +1319,6 @@
     <t>'20-AUG-2018'</t>
   </si>
   <si>
-    <t>20-Aug-2018</t>
-  </si>
-  <si>
     <t>"*smiley énervé*"</t>
   </si>
   <si>
@@ -2342,18 +1331,12 @@
     <t>'04-MAY-2016'</t>
   </si>
   <si>
-    <t>04-May-2016</t>
-  </si>
-  <si>
     <t>"*baleine*"</t>
   </si>
   <si>
     <t>'24-AUG-2021'</t>
   </si>
   <si>
-    <t>24-Aug-2021</t>
-  </si>
-  <si>
     <t>"*hot-dog*"</t>
   </si>
   <si>
@@ -2366,9 +1349,6 @@
     <t>'28-DEC-2016'</t>
   </si>
   <si>
-    <t>28-Dec-2016</t>
-  </si>
-  <si>
     <t>"*smiley satisfait mais qui reste un peu sur sa faim quand même car il aurait aimé un peu plus de possibilité de gameplay mais vu que les dessins sont stylés*"</t>
   </si>
   <si>
@@ -2396,27 +1376,18 @@
     <t>'10-MAY-2021'</t>
   </si>
   <si>
-    <t>10-May-2021</t>
-  </si>
-  <si>
     <t>"3550708"</t>
   </si>
   <si>
     <t>'07-FEB-2016'</t>
   </si>
   <si>
-    <t>07-Feb-2016</t>
-  </si>
-  <si>
     <t>"5508"</t>
   </si>
   <si>
     <t>'16-FEB-2017'</t>
   </si>
   <si>
-    <t>16-Feb-2017</t>
-  </si>
-  <si>
     <t>"370909"</t>
   </si>
   <si>
@@ -2471,9 +1442,6 @@
     <t>'21-DEC-2022'</t>
   </si>
   <si>
-    <t>21-Dec-2022</t>
-  </si>
-  <si>
     <t>"J'adore l'univers ! De plus le gameplay est nerveux et intense ! C'est un grand oui pour moi !"</t>
   </si>
   <si>
@@ -2546,9 +1514,6 @@
     <t>'22-AUG-2018'</t>
   </si>
   <si>
-    <t>22-Aug-2018</t>
-  </si>
-  <si>
     <t>"Bon jeu entre amis, dommage qu'il ne puisse pas y avoir plus de joueurs…"</t>
   </si>
   <si>
@@ -2559,27 +1524,6 @@
   </si>
   <si>
     <t>'03-JUN-2021'</t>
-  </si>
-  <si>
-    <t>id_avis</t>
-  </si>
-  <si>
-    <t>note_avis</t>
-  </si>
-  <si>
-    <t>commentaire</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>id_config</t>
-  </si>
-  <si>
-    <t>id_joueur</t>
-  </si>
-  <si>
-    <t>id_jeu</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +1532,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2615,12 +1559,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2934,54 +1874,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A89540C-440F-43F9-91A1-8E686AC7A555}">
-  <dimension ref="A1:I251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554BF90-C002-4843-AC84-EB706920A8E3}">
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="73.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="86.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>844</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>845</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>848</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>846</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>244</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -2992,25 +1928,19 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>247</v>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>18</v>
@@ -3021,25 +1951,19 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>249</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -3050,25 +1974,19 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>252</v>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>43</v>
@@ -3079,25 +1997,19 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>44623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>254</v>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -3108,25 +2020,19 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>257</v>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -3137,25 +2043,19 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>259</v>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>29</v>
@@ -3166,25 +2066,19 @@
       <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>42206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>261</v>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>23</v>
@@ -3195,25 +2089,19 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>264</v>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>22</v>
@@ -3224,25 +2112,19 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>267</v>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>46</v>
@@ -3253,25 +2135,19 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>269</v>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>31</v>
@@ -3282,25 +2158,19 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>272</v>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>17</v>
@@ -3311,25 +2181,19 @@
       <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>274</v>
+      <c r="C14" t="s">
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -3340,25 +2204,19 @@
       <c r="G14">
         <v>7</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>276</v>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -3369,25 +2227,19 @@
       <c r="G15">
         <v>7</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2">
-        <v>42166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>278</v>
+      <c r="C16" t="s">
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -3398,25 +2250,19 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2">
-        <v>42560</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>280</v>
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -3427,25 +2273,19 @@
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2">
-        <v>44745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>282</v>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>39</v>
@@ -3456,25 +2296,19 @@
       <c r="G18">
         <v>10</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="2">
-        <v>44110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>282</v>
+      <c r="C19" t="s">
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3485,25 +2319,19 @@
       <c r="G19">
         <v>10</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="2">
-        <v>42998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>280</v>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -3514,25 +2342,19 @@
       <c r="G20">
         <v>10</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="2">
-        <v>44352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>286</v>
+      <c r="C21" t="s">
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>33</v>
@@ -3543,25 +2365,19 @@
       <c r="G21">
         <v>11</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>289</v>
+      <c r="C22" t="s">
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -3572,25 +2388,19 @@
       <c r="G22">
         <v>11</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="2">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>291</v>
+      <c r="C23" t="s">
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>35</v>
@@ -3601,25 +2411,19 @@
       <c r="G23">
         <v>12</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="2">
-        <v>43798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>293</v>
+      <c r="C24" t="s">
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -3630,25 +2434,19 @@
       <c r="G24">
         <v>13</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="2">
-        <v>42187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>295</v>
+      <c r="C25" t="s">
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3659,25 +2457,19 @@
       <c r="G25">
         <v>16</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>298</v>
+      <c r="C26" t="s">
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>32</v>
@@ -3688,25 +2480,19 @@
       <c r="G26">
         <v>16</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="2">
-        <v>43474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>300</v>
+      <c r="C27" t="s">
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3717,25 +2503,19 @@
       <c r="G27">
         <v>17</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>303</v>
+      <c r="C28" t="s">
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>35</v>
@@ -3746,25 +2526,19 @@
       <c r="G28">
         <v>18</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="2">
-        <v>43477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>305</v>
+      <c r="C29" t="s">
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>21</v>
@@ -3775,25 +2549,19 @@
       <c r="G29">
         <v>18</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="2">
-        <v>43850</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>307</v>
+      <c r="C30" t="s">
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>24</v>
@@ -3804,25 +2572,19 @@
       <c r="G30">
         <v>18</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>17</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>310</v>
+      <c r="C31" t="s">
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>44</v>
@@ -3833,25 +2595,19 @@
       <c r="G31">
         <v>18</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="2">
-        <v>42915</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>18</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>312</v>
+      <c r="C32" t="s">
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>19</v>
@@ -3862,25 +2618,19 @@
       <c r="G32">
         <v>18</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>13</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>315</v>
+      <c r="C33" t="s">
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="E33">
         <v>17</v>
@@ -3891,25 +2641,19 @@
       <c r="G33">
         <v>18</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>11</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>318</v>
+      <c r="C34" t="s">
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>319</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>41</v>
@@ -3920,25 +2664,19 @@
       <c r="G34">
         <v>18</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>321</v>
+      <c r="C35" t="s">
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <v>27</v>
@@ -3949,25 +2687,19 @@
       <c r="G35">
         <v>18</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2">
-        <v>43907</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>15</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>323</v>
+      <c r="C36" t="s">
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>36</v>
@@ -3978,25 +2710,19 @@
       <c r="G36">
         <v>18</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="2">
-        <v>43741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>325</v>
+      <c r="C37" t="s">
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="E37">
         <v>43</v>
@@ -4007,25 +2733,19 @@
       <c r="G37">
         <v>18</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>17</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>328</v>
+      <c r="C38" t="s">
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -4036,25 +2756,19 @@
       <c r="G38">
         <v>18</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43720</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>330</v>
+      <c r="C39" t="s">
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>27</v>
@@ -4065,25 +2779,19 @@
       <c r="G39">
         <v>19</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>19</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>333</v>
+      <c r="C40" t="s">
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>48</v>
@@ -4094,25 +2802,19 @@
       <c r="G40">
         <v>19</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>336</v>
+      <c r="C41" t="s">
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>337</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -4123,25 +2825,19 @@
       <c r="G41">
         <v>19</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="2">
-        <v>43024</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>338</v>
+      <c r="C42" t="s">
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -4152,25 +2848,19 @@
       <c r="G42">
         <v>21</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>20</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>341</v>
+      <c r="C43" t="s">
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>46</v>
@@ -4181,25 +2871,19 @@
       <c r="G43">
         <v>22</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="2">
-        <v>43367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>343</v>
+      <c r="C44" t="s">
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>44</v>
@@ -4210,25 +2894,19 @@
       <c r="G44">
         <v>26</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="2">
-        <v>42438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>345</v>
+      <c r="C45" t="s">
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>346</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <v>33</v>
@@ -4239,25 +2917,19 @@
       <c r="G45">
         <v>26</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="2">
-        <v>44381</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>347</v>
+      <c r="C46" t="s">
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>348</v>
+        <v>94</v>
       </c>
       <c r="E46">
         <v>17</v>
@@ -4268,25 +2940,19 @@
       <c r="G46">
         <v>26</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="2">
-        <v>44639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>349</v>
+      <c r="C47" t="s">
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="E47">
         <v>24</v>
@@ -4297,25 +2963,19 @@
       <c r="G47">
         <v>26</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="2">
-        <v>44647</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>351</v>
+      <c r="C48" t="s">
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>352</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>21</v>
@@ -4326,25 +2986,19 @@
       <c r="G48">
         <v>26</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="2">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>353</v>
+      <c r="C49" t="s">
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>100</v>
       </c>
       <c r="E49">
         <v>34</v>
@@ -4355,25 +3009,19 @@
       <c r="G49">
         <v>26</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>18</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>356</v>
+      <c r="C50" t="s">
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -4384,25 +3032,19 @@
       <c r="G50">
         <v>27</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" s="2">
-        <v>44723</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>358</v>
+      <c r="C51" t="s">
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>359</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -4413,25 +3055,19 @@
       <c r="G51">
         <v>27</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>17</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>361</v>
+      <c r="C52" t="s">
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -4442,25 +3078,19 @@
       <c r="G52">
         <v>27</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>20</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>364</v>
+      <c r="C53" t="s">
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="E53">
         <v>45</v>
@@ -4471,25 +3101,19 @@
       <c r="G53">
         <v>27</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="2">
-        <v>42210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>366</v>
+      <c r="C54" t="s">
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>367</v>
+        <v>110</v>
       </c>
       <c r="E54">
         <v>21</v>
@@ -4500,25 +3124,19 @@
       <c r="G54">
         <v>27</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>369</v>
+      <c r="C55" t="s">
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="E55">
         <v>8</v>
@@ -4529,25 +3147,19 @@
       <c r="G55">
         <v>27</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="2">
-        <v>43172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>371</v>
+      <c r="C56" t="s">
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>372</v>
+        <v>114</v>
       </c>
       <c r="E56">
         <v>45</v>
@@ -4558,25 +3170,19 @@
       <c r="G56">
         <v>30</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I56" s="2">
-        <v>43118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>14</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>373</v>
+      <c r="C57" t="s">
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>374</v>
+        <v>116</v>
       </c>
       <c r="E57">
         <v>31</v>
@@ -4587,25 +3193,19 @@
       <c r="G57">
         <v>30</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" s="2">
-        <v>42577</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>375</v>
+      <c r="C58" t="s">
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -4616,25 +3216,19 @@
       <c r="G58">
         <v>31</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I58" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>17</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>378</v>
+      <c r="C59" t="s">
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>379</v>
+        <v>120</v>
       </c>
       <c r="E59">
         <v>30</v>
@@ -4645,25 +3239,19 @@
       <c r="G59">
         <v>32</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="2">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>380</v>
+      <c r="C60" t="s">
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>381</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>28</v>
@@ -4674,25 +3262,19 @@
       <c r="G60">
         <v>32</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I60" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>14</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>383</v>
+      <c r="C61" t="s">
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>384</v>
+        <v>124</v>
       </c>
       <c r="E61">
         <v>7</v>
@@ -4703,25 +3285,19 @@
       <c r="G61">
         <v>32</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" s="2">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>18</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>385</v>
+      <c r="C62" t="s">
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="E62">
         <v>21</v>
@@ -4732,25 +3308,19 @@
       <c r="G62">
         <v>33</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>20</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>388</v>
+      <c r="C63" t="s">
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>389</v>
+        <v>128</v>
       </c>
       <c r="E63">
         <v>49</v>
@@ -4761,25 +3331,19 @@
       <c r="G63">
         <v>33</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I63" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>391</v>
+      <c r="C64" t="s">
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="E64">
         <v>44</v>
@@ -4790,25 +3354,19 @@
       <c r="G64">
         <v>33</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I64" s="2">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>393</v>
+      <c r="C65" t="s">
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -4819,25 +3377,19 @@
       <c r="G65">
         <v>33</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" s="2">
-        <v>44270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>14</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>395</v>
+      <c r="C66" t="s">
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="E66">
         <v>21</v>
@@ -4848,25 +3400,19 @@
       <c r="G66">
         <v>41</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I66" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>15</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>396</v>
+      <c r="C67" t="s">
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>135</v>
       </c>
       <c r="E67">
         <v>18</v>
@@ -4877,25 +3423,19 @@
       <c r="G67">
         <v>41</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I67" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>399</v>
+      <c r="C68" t="s">
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>400</v>
+        <v>137</v>
       </c>
       <c r="E68">
         <v>22</v>
@@ -4906,25 +3446,19 @@
       <c r="G68">
         <v>41</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I68" s="2">
-        <v>42652</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>15</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>401</v>
+      <c r="C69" t="s">
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="E69">
         <v>35</v>
@@ -4935,25 +3469,19 @@
       <c r="G69">
         <v>45</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I69" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>18</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>404</v>
+      <c r="C70" t="s">
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>405</v>
+        <v>141</v>
       </c>
       <c r="E70">
         <v>20</v>
@@ -4964,25 +3492,19 @@
       <c r="G70">
         <v>45</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I70" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>407</v>
+      <c r="C71" t="s">
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -4993,25 +3515,19 @@
       <c r="G71">
         <v>48</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I71" s="2">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>10</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>409</v>
+      <c r="C72" t="s">
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>410</v>
+        <v>145</v>
       </c>
       <c r="E72">
         <v>32</v>
@@ -5022,25 +3538,19 @@
       <c r="G72">
         <v>50</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I72" s="2">
-        <v>43757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>336</v>
+      <c r="C73" t="s">
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>411</v>
+        <v>146</v>
       </c>
       <c r="E73">
         <v>9</v>
@@ -5051,25 +3561,19 @@
       <c r="G73">
         <v>50</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I73" s="2">
-        <v>42522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>412</v>
+      <c r="C74" t="s">
+        <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -5080,25 +3584,19 @@
       <c r="G74">
         <v>50</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I74" s="2">
-        <v>43033</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>414</v>
+      <c r="C75" t="s">
+        <v>149</v>
       </c>
       <c r="D75" t="s">
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="E75">
         <v>34</v>
@@ -5109,25 +3607,19 @@
       <c r="G75">
         <v>50</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I75" s="2">
-        <v>44876</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>416</v>
+      <c r="C76" t="s">
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>417</v>
+        <v>152</v>
       </c>
       <c r="E76">
         <v>18</v>
@@ -5138,25 +3630,19 @@
       <c r="G76">
         <v>50</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I76" s="2">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>14</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>418</v>
+      <c r="C77" t="s">
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>419</v>
+        <v>154</v>
       </c>
       <c r="E77">
         <v>43</v>
@@ -5167,25 +3653,19 @@
       <c r="G77">
         <v>51</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" s="2">
-        <v>42542</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>10</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>420</v>
+      <c r="C78" t="s">
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>421</v>
+        <v>156</v>
       </c>
       <c r="E78">
         <v>42</v>
@@ -5196,25 +3676,19 @@
       <c r="G78">
         <v>53</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I78" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>423</v>
+      <c r="C79" t="s">
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>424</v>
+        <v>158</v>
       </c>
       <c r="E79">
         <v>16</v>
@@ -5225,25 +3699,19 @@
       <c r="G79">
         <v>53</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I79" s="2">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>18</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>425</v>
+      <c r="C80" t="s">
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>426</v>
+        <v>160</v>
       </c>
       <c r="E80">
         <v>21</v>
@@ -5254,25 +3722,19 @@
       <c r="G80">
         <v>53</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>428</v>
+      <c r="C81" t="s">
+        <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>429</v>
+        <v>162</v>
       </c>
       <c r="E81">
         <v>40</v>
@@ -5283,25 +3745,19 @@
       <c r="G81">
         <v>53</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81" s="2">
-        <v>43162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>15</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>430</v>
+      <c r="C82" t="s">
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>431</v>
+        <v>164</v>
       </c>
       <c r="E82">
         <v>43</v>
@@ -5312,25 +3768,19 @@
       <c r="G82">
         <v>53</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I82" s="2">
-        <v>42288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>432</v>
+      <c r="C83" t="s">
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>433</v>
+        <v>166</v>
       </c>
       <c r="E83">
         <v>10</v>
@@ -5341,25 +3791,19 @@
       <c r="G83">
         <v>53</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>18</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>435</v>
+      <c r="C84" t="s">
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>436</v>
+        <v>168</v>
       </c>
       <c r="E84">
         <v>46</v>
@@ -5370,25 +3814,19 @@
       <c r="G84">
         <v>53</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I84" s="2">
-        <v>42007</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>17</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>437</v>
+      <c r="C85" t="s">
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>438</v>
+        <v>170</v>
       </c>
       <c r="E85">
         <v>31</v>
@@ -5399,25 +3837,19 @@
       <c r="G85">
         <v>53</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I85" s="2">
-        <v>42035</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>7</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>439</v>
+      <c r="C86" t="s">
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -5428,25 +3860,19 @@
       <c r="G86">
         <v>53</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I86" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>13</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>442</v>
+      <c r="C87" t="s">
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>443</v>
+        <v>174</v>
       </c>
       <c r="E87">
         <v>25</v>
@@ -5457,25 +3883,19 @@
       <c r="G87">
         <v>53</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I87" s="2">
-        <v>43267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>11</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>444</v>
+      <c r="C88" t="s">
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>445</v>
+        <v>176</v>
       </c>
       <c r="E88">
         <v>20</v>
@@ -5486,25 +3906,19 @@
       <c r="G88">
         <v>53</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I88" s="2">
-        <v>44505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>19</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>446</v>
+      <c r="C89" t="s">
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>447</v>
+        <v>178</v>
       </c>
       <c r="E89">
         <v>39</v>
@@ -5515,25 +3929,19 @@
       <c r="G89">
         <v>53</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I89" s="2">
-        <v>42073</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>14</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>448</v>
+      <c r="C90" t="s">
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>449</v>
+        <v>180</v>
       </c>
       <c r="E90">
         <v>34</v>
@@ -5544,25 +3952,19 @@
       <c r="G90">
         <v>53</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I90" s="2">
-        <v>44016</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>12</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>450</v>
+      <c r="C91" t="s">
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -5573,25 +3975,19 @@
       <c r="G91">
         <v>53</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I91" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>16</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>453</v>
+      <c r="C92" t="s">
+        <v>183</v>
       </c>
       <c r="D92" t="s">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="E92">
         <v>26</v>
@@ -5602,25 +3998,19 @@
       <c r="G92">
         <v>53</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I92" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>16</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>456</v>
+      <c r="C93" t="s">
+        <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>457</v>
+        <v>186</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -5631,25 +4021,19 @@
       <c r="G93">
         <v>53</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I93" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>459</v>
+      <c r="C94" t="s">
+        <v>187</v>
       </c>
       <c r="D94" t="s">
-        <v>460</v>
+        <v>188</v>
       </c>
       <c r="E94">
         <v>33</v>
@@ -5660,25 +4044,19 @@
       <c r="G94">
         <v>53</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I94" s="2">
-        <v>42282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>14</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>461</v>
+      <c r="C95" t="s">
+        <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>457</v>
+        <v>186</v>
       </c>
       <c r="E95">
         <v>34</v>
@@ -5689,25 +4067,19 @@
       <c r="G95">
         <v>55</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I95" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>16</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>462</v>
+      <c r="C96" t="s">
+        <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>463</v>
+        <v>191</v>
       </c>
       <c r="E96">
         <v>23</v>
@@ -5718,25 +4090,19 @@
       <c r="G96">
         <v>55</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I96" s="2">
-        <v>42803</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>17</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>464</v>
+      <c r="C97" t="s">
+        <v>192</v>
       </c>
       <c r="D97" t="s">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="E97">
         <v>8</v>
@@ -5747,25 +4113,19 @@
       <c r="G97">
         <v>55</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I97" s="2">
-        <v>42696</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>466</v>
+      <c r="C98" t="s">
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>467</v>
+        <v>195</v>
       </c>
       <c r="E98">
         <v>9</v>
@@ -5776,25 +4136,19 @@
       <c r="G98">
         <v>55</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I98" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>20</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>469</v>
+      <c r="C99" t="s">
+        <v>196</v>
       </c>
       <c r="D99" t="s">
-        <v>470</v>
+        <v>197</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -5805,25 +4159,19 @@
       <c r="G99">
         <v>55</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I99" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>9</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>472</v>
+      <c r="C100" t="s">
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>473</v>
+        <v>199</v>
       </c>
       <c r="E100">
         <v>39</v>
@@ -5834,25 +4182,19 @@
       <c r="G100">
         <v>55</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I100" s="2">
-        <v>43405</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>13</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>474</v>
+      <c r="C101" t="s">
+        <v>200</v>
       </c>
       <c r="D101" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
       <c r="E101">
         <v>28</v>
@@ -5863,25 +4205,19 @@
       <c r="G101">
         <v>55</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I101" s="2">
-        <v>44157</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>15</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>476</v>
+      <c r="C102" t="s">
+        <v>202</v>
       </c>
       <c r="D102" t="s">
-        <v>477</v>
+        <v>203</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -5892,25 +4228,19 @@
       <c r="G102">
         <v>55</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I102" s="2">
-        <v>44861</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>478</v>
+      <c r="C103" t="s">
+        <v>204</v>
       </c>
       <c r="D103" t="s">
-        <v>479</v>
+        <v>205</v>
       </c>
       <c r="E103">
         <v>17</v>
@@ -5921,25 +4251,19 @@
       <c r="G103">
         <v>55</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I103" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>481</v>
+      <c r="C104" t="s">
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>482</v>
+        <v>207</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -5950,25 +4274,19 @@
       <c r="G104">
         <v>55</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I104" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <v>10</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>483</v>
+      <c r="C105" t="s">
+        <v>208</v>
       </c>
       <c r="D105" t="s">
-        <v>484</v>
+        <v>209</v>
       </c>
       <c r="E105">
         <v>35</v>
@@ -5979,25 +4297,19 @@
       <c r="G105">
         <v>55</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I105" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>11</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>486</v>
+      <c r="C106" t="s">
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>487</v>
+        <v>211</v>
       </c>
       <c r="E106">
         <v>31</v>
@@ -6008,25 +4320,19 @@
       <c r="G106">
         <v>55</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I106" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>489</v>
+      <c r="C107" t="s">
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>490</v>
+        <v>213</v>
       </c>
       <c r="E107">
         <v>27</v>
@@ -6037,25 +4343,19 @@
       <c r="G107">
         <v>55</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I107" s="2">
-        <v>43272</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <v>17</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>491</v>
+      <c r="C108" t="s">
+        <v>214</v>
       </c>
       <c r="D108" t="s">
-        <v>492</v>
+        <v>215</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6066,25 +4366,19 @@
       <c r="G108">
         <v>55</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I108" s="2">
-        <v>42552</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <v>12</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>493</v>
+      <c r="C109" t="s">
+        <v>216</v>
       </c>
       <c r="D109" t="s">
-        <v>494</v>
+        <v>217</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -6095,25 +4389,19 @@
       <c r="G109">
         <v>55</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I109" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <v>18</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>496</v>
+      <c r="C110" t="s">
+        <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>497</v>
+        <v>219</v>
       </c>
       <c r="E110">
         <v>48</v>
@@ -6124,25 +4412,19 @@
       <c r="G110">
         <v>55</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I110" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <v>7</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>499</v>
+      <c r="C111" t="s">
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>500</v>
+        <v>221</v>
       </c>
       <c r="E111">
         <v>19</v>
@@ -6153,25 +4435,19 @@
       <c r="G111">
         <v>55</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I111" s="2">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>501</v>
+      <c r="C112" t="s">
+        <v>222</v>
       </c>
       <c r="D112" t="s">
-        <v>502</v>
+        <v>223</v>
       </c>
       <c r="E112">
         <v>45</v>
@@ -6182,25 +4458,19 @@
       <c r="G112">
         <v>55</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I112" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <v>14</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>504</v>
+      <c r="C113" t="s">
+        <v>224</v>
       </c>
       <c r="D113" t="s">
-        <v>505</v>
+        <v>225</v>
       </c>
       <c r="E113">
         <v>41</v>
@@ -6211,25 +4481,19 @@
       <c r="G113">
         <v>55</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I113" s="2">
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <v>14</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>506</v>
+      <c r="C114" t="s">
+        <v>226</v>
       </c>
       <c r="D114" t="s">
-        <v>507</v>
+        <v>227</v>
       </c>
       <c r="E114">
         <v>42</v>
@@ -6240,25 +4504,19 @@
       <c r="G114">
         <v>55</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I114" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <v>16</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>509</v>
+      <c r="C115" t="s">
+        <v>228</v>
       </c>
       <c r="D115" t="s">
-        <v>510</v>
+        <v>229</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -6269,25 +4527,19 @@
       <c r="G115">
         <v>55</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I115" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <v>6</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>512</v>
+      <c r="C116" t="s">
+        <v>230</v>
       </c>
       <c r="D116" t="s">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="E116">
         <v>46</v>
@@ -6298,25 +4550,19 @@
       <c r="G116">
         <v>55</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I116" s="2">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <v>13</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>514</v>
+      <c r="C117" t="s">
+        <v>232</v>
       </c>
       <c r="D117" t="s">
-        <v>515</v>
+        <v>233</v>
       </c>
       <c r="E117">
         <v>38</v>
@@ -6327,25 +4573,19 @@
       <c r="G117">
         <v>55</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I117" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>517</v>
+      <c r="C118" t="s">
+        <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>518</v>
+        <v>235</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -6356,25 +4596,19 @@
       <c r="G118">
         <v>56</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I118" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <v>16</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>520</v>
+      <c r="C119" t="s">
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>521</v>
+        <v>237</v>
       </c>
       <c r="E119">
         <v>26</v>
@@ -6385,25 +4619,19 @@
       <c r="G119">
         <v>56</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I119" s="2">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>522</v>
+      <c r="C120" t="s">
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>523</v>
+        <v>239</v>
       </c>
       <c r="E120">
         <v>42</v>
@@ -6414,25 +4642,19 @@
       <c r="G120">
         <v>56</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I120" s="2">
-        <v>42327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <v>18</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>524</v>
+      <c r="C121" t="s">
+        <v>240</v>
       </c>
       <c r="D121" t="s">
-        <v>525</v>
+        <v>241</v>
       </c>
       <c r="E121">
         <v>40</v>
@@ -6443,25 +4665,19 @@
       <c r="G121">
         <v>56</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I121" s="2">
-        <v>42528</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>526</v>
+      <c r="C122" t="s">
+        <v>242</v>
       </c>
       <c r="D122" t="s">
-        <v>527</v>
+        <v>243</v>
       </c>
       <c r="E122">
         <v>45</v>
@@ -6472,25 +4688,19 @@
       <c r="G122">
         <v>56</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I122" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>529</v>
+      <c r="C123" t="s">
+        <v>244</v>
       </c>
       <c r="D123" t="s">
-        <v>530</v>
+        <v>245</v>
       </c>
       <c r="E123">
         <v>33</v>
@@ -6501,25 +4711,19 @@
       <c r="G123">
         <v>56</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I123" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>532</v>
+      <c r="C124" t="s">
+        <v>246</v>
       </c>
       <c r="D124" t="s">
-        <v>533</v>
+        <v>247</v>
       </c>
       <c r="E124">
         <v>6</v>
@@ -6530,25 +4734,19 @@
       <c r="G124">
         <v>56</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I124" s="2">
-        <v>43918</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
         <v>11</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>534</v>
+      <c r="C125" t="s">
+        <v>248</v>
       </c>
       <c r="D125" t="s">
-        <v>535</v>
+        <v>249</v>
       </c>
       <c r="E125">
         <v>14</v>
@@ -6559,25 +4757,19 @@
       <c r="G125">
         <v>56</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I125" s="2">
-        <v>42562</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <v>17</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>536</v>
+      <c r="C126" t="s">
+        <v>250</v>
       </c>
       <c r="D126" t="s">
-        <v>537</v>
+        <v>251</v>
       </c>
       <c r="E126">
         <v>38</v>
@@ -6588,25 +4780,19 @@
       <c r="G126">
         <v>56</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I126" s="2">
-        <v>44841</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <v>14</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>538</v>
+      <c r="C127" t="s">
+        <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>539</v>
+        <v>253</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -6617,25 +4803,19 @@
       <c r="G127">
         <v>56</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I127" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <v>9</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>541</v>
+      <c r="C128" t="s">
+        <v>254</v>
       </c>
       <c r="D128" t="s">
-        <v>542</v>
+        <v>255</v>
       </c>
       <c r="E128">
         <v>32</v>
@@ -6646,25 +4826,19 @@
       <c r="G128">
         <v>56</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I128" s="2">
-        <v>43910</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <v>13</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>543</v>
+      <c r="C129" t="s">
+        <v>256</v>
       </c>
       <c r="D129" t="s">
-        <v>544</v>
+        <v>257</v>
       </c>
       <c r="E129">
         <v>23</v>
@@ -6675,25 +4849,19 @@
       <c r="G129">
         <v>56</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I129" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
         <v>16</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>546</v>
+      <c r="C130" t="s">
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>547</v>
+        <v>259</v>
       </c>
       <c r="E130">
         <v>35</v>
@@ -6704,25 +4872,19 @@
       <c r="G130">
         <v>56</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I130" s="2">
-        <v>44875</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
         <v>13</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>548</v>
+      <c r="C131" t="s">
+        <v>260</v>
       </c>
       <c r="D131" t="s">
-        <v>549</v>
+        <v>261</v>
       </c>
       <c r="E131">
         <v>37</v>
@@ -6733,25 +4895,19 @@
       <c r="G131">
         <v>56</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I131" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
         <v>17</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>551</v>
+      <c r="C132" t="s">
+        <v>262</v>
       </c>
       <c r="D132" t="s">
-        <v>552</v>
+        <v>263</v>
       </c>
       <c r="E132">
         <v>16</v>
@@ -6762,25 +4918,19 @@
       <c r="G132">
         <v>57</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I132" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
         <v>4</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>554</v>
+      <c r="C133" t="s">
+        <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>555</v>
+        <v>265</v>
       </c>
       <c r="E133">
         <v>34</v>
@@ -6791,25 +4941,19 @@
       <c r="G133">
         <v>57</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I133" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>557</v>
+      <c r="C134" t="s">
+        <v>266</v>
       </c>
       <c r="D134" t="s">
-        <v>558</v>
+        <v>267</v>
       </c>
       <c r="E134">
         <v>22</v>
@@ -6820,25 +4964,19 @@
       <c r="G134">
         <v>57</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I134" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>560</v>
+      <c r="C135" t="s">
+        <v>268</v>
       </c>
       <c r="D135" t="s">
-        <v>561</v>
+        <v>269</v>
       </c>
       <c r="E135">
         <v>3</v>
@@ -6849,25 +4987,19 @@
       <c r="G135">
         <v>57</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I135" s="2">
-        <v>42629</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
         <v>14</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>562</v>
+      <c r="C136" t="s">
+        <v>270</v>
       </c>
       <c r="D136" t="s">
-        <v>563</v>
+        <v>271</v>
       </c>
       <c r="E136">
         <v>45</v>
@@ -6878,25 +5010,19 @@
       <c r="G136">
         <v>57</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I136" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <v>8</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>565</v>
+      <c r="C137" t="s">
+        <v>272</v>
       </c>
       <c r="D137" t="s">
-        <v>566</v>
+        <v>273</v>
       </c>
       <c r="E137">
         <v>39</v>
@@ -6907,25 +5033,19 @@
       <c r="G137">
         <v>57</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I137" s="2">
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>567</v>
+      <c r="C138" t="s">
+        <v>274</v>
       </c>
       <c r="D138" t="s">
-        <v>568</v>
+        <v>275</v>
       </c>
       <c r="E138">
         <v>43</v>
@@ -6936,25 +5056,19 @@
       <c r="G138">
         <v>57</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I138" s="2">
-        <v>44826</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
         <v>19</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>569</v>
+      <c r="C139" t="s">
+        <v>276</v>
       </c>
       <c r="D139" t="s">
-        <v>570</v>
+        <v>277</v>
       </c>
       <c r="E139">
         <v>49</v>
@@ -6965,25 +5079,19 @@
       <c r="G139">
         <v>57</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I139" s="2">
-        <v>44027</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <v>12</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>571</v>
+      <c r="C140" t="s">
+        <v>278</v>
       </c>
       <c r="D140" t="s">
-        <v>572</v>
+        <v>279</v>
       </c>
       <c r="E140">
         <v>10</v>
@@ -6994,25 +5102,19 @@
       <c r="G140">
         <v>57</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I140" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <v>9</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>574</v>
+      <c r="C141" t="s">
+        <v>280</v>
       </c>
       <c r="D141" t="s">
-        <v>575</v>
+        <v>281</v>
       </c>
       <c r="E141">
         <v>42</v>
@@ -7023,25 +5125,19 @@
       <c r="G141">
         <v>57</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I141" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <v>11</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>577</v>
+      <c r="C142" t="s">
+        <v>282</v>
       </c>
       <c r="D142" t="s">
-        <v>578</v>
+        <v>283</v>
       </c>
       <c r="E142">
         <v>50</v>
@@ -7052,25 +5148,19 @@
       <c r="G142">
         <v>57</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I142" s="2">
-        <v>42262</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <v>12</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>579</v>
+      <c r="C143" t="s">
+        <v>284</v>
       </c>
       <c r="D143" t="s">
-        <v>580</v>
+        <v>285</v>
       </c>
       <c r="E143">
         <v>17</v>
@@ -7081,25 +5171,19 @@
       <c r="G143">
         <v>57</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I143" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <v>16</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>582</v>
+      <c r="C144" t="s">
+        <v>286</v>
       </c>
       <c r="D144" t="s">
-        <v>583</v>
+        <v>287</v>
       </c>
       <c r="E144">
         <v>40</v>
@@ -7110,25 +5194,19 @@
       <c r="G144">
         <v>57</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I144" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>585</v>
+      <c r="C145" t="s">
+        <v>288</v>
       </c>
       <c r="D145" t="s">
-        <v>586</v>
+        <v>289</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7139,25 +5217,19 @@
       <c r="G145">
         <v>57</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I145" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <v>19</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>588</v>
+      <c r="C146" t="s">
+        <v>290</v>
       </c>
       <c r="D146" t="s">
-        <v>589</v>
+        <v>291</v>
       </c>
       <c r="E146">
         <v>42</v>
@@ -7168,25 +5240,19 @@
       <c r="G146">
         <v>58</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I146" s="2">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>590</v>
+      <c r="C147" t="s">
+        <v>292</v>
       </c>
       <c r="D147" t="s">
-        <v>591</v>
+        <v>293</v>
       </c>
       <c r="E147">
         <v>3</v>
@@ -7197,25 +5263,19 @@
       <c r="G147">
         <v>58</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I147" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <v>11</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>593</v>
+      <c r="C148" t="s">
+        <v>294</v>
       </c>
       <c r="D148" t="s">
-        <v>594</v>
+        <v>295</v>
       </c>
       <c r="E148">
         <v>19</v>
@@ -7226,25 +5286,19 @@
       <c r="G148">
         <v>58</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I148" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <v>6</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>596</v>
+      <c r="C149" t="s">
+        <v>296</v>
       </c>
       <c r="D149" t="s">
-        <v>597</v>
+        <v>297</v>
       </c>
       <c r="E149">
         <v>38</v>
@@ -7255,25 +5309,19 @@
       <c r="G149">
         <v>58</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I149" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <v>5</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>599</v>
+      <c r="C150" t="s">
+        <v>298</v>
       </c>
       <c r="D150" t="s">
-        <v>600</v>
+        <v>299</v>
       </c>
       <c r="E150">
         <v>50</v>
@@ -7284,25 +5332,19 @@
       <c r="G150">
         <v>58</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I150" s="2">
-        <v>44524</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
         <v>14</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>601</v>
+      <c r="C151" t="s">
+        <v>300</v>
       </c>
       <c r="D151" t="s">
-        <v>602</v>
+        <v>301</v>
       </c>
       <c r="E151">
         <v>3</v>
@@ -7313,25 +5355,19 @@
       <c r="G151">
         <v>58</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I151" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
         <v>15</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>604</v>
+      <c r="C152" t="s">
+        <v>302</v>
       </c>
       <c r="D152" t="s">
-        <v>605</v>
+        <v>303</v>
       </c>
       <c r="E152">
         <v>4</v>
@@ -7342,25 +5378,19 @@
       <c r="G152">
         <v>58</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I152" s="2">
-        <v>43166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>606</v>
+      <c r="C153" t="s">
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>607</v>
+        <v>305</v>
       </c>
       <c r="E153">
         <v>23</v>
@@ -7371,25 +5401,19 @@
       <c r="G153">
         <v>58</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I153" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
         <v>17</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>609</v>
+      <c r="C154" t="s">
+        <v>306</v>
       </c>
       <c r="D154" t="s">
-        <v>610</v>
+        <v>307</v>
       </c>
       <c r="E154">
         <v>35</v>
@@ -7400,25 +5424,19 @@
       <c r="G154">
         <v>58</v>
       </c>
-      <c r="H154" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I154" s="2">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
         <v>18</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>611</v>
+      <c r="C155" t="s">
+        <v>308</v>
       </c>
       <c r="D155" t="s">
-        <v>612</v>
+        <v>309</v>
       </c>
       <c r="E155">
         <v>17</v>
@@ -7429,25 +5447,19 @@
       <c r="G155">
         <v>58</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I155" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
         <v>12</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>614</v>
+      <c r="C156" t="s">
+        <v>310</v>
       </c>
       <c r="D156" t="s">
-        <v>615</v>
+        <v>311</v>
       </c>
       <c r="E156">
         <v>13</v>
@@ -7458,25 +5470,19 @@
       <c r="G156">
         <v>58</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I156" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
         <v>16</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>617</v>
+      <c r="C157" t="s">
+        <v>312</v>
       </c>
       <c r="D157" t="s">
-        <v>618</v>
+        <v>313</v>
       </c>
       <c r="E157">
         <v>49</v>
@@ -7487,25 +5493,19 @@
       <c r="G157">
         <v>58</v>
       </c>
-      <c r="H157" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I157" s="2">
-        <v>44455</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
         <v>18</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>619</v>
+      <c r="C158" t="s">
+        <v>314</v>
       </c>
       <c r="D158" t="s">
-        <v>620</v>
+        <v>315</v>
       </c>
       <c r="E158">
         <v>39</v>
@@ -7516,25 +5516,19 @@
       <c r="G158">
         <v>58</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I158" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
         <v>16</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>622</v>
+      <c r="C159" t="s">
+        <v>316</v>
       </c>
       <c r="D159" t="s">
-        <v>623</v>
+        <v>317</v>
       </c>
       <c r="E159">
         <v>12</v>
@@ -7545,25 +5539,19 @@
       <c r="G159">
         <v>58</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I159" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
         <v>17</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>625</v>
+      <c r="C160" t="s">
+        <v>318</v>
       </c>
       <c r="D160" t="s">
-        <v>626</v>
+        <v>319</v>
       </c>
       <c r="E160">
         <v>37</v>
@@ -7574,25 +5562,19 @@
       <c r="G160">
         <v>58</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I160" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>628</v>
+      <c r="C161" t="s">
+        <v>320</v>
       </c>
       <c r="D161" t="s">
-        <v>629</v>
+        <v>321</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -7603,25 +5585,19 @@
       <c r="G161">
         <v>59</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I161" s="2">
-        <v>44386</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
         <v>11</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>630</v>
+      <c r="C162" t="s">
+        <v>322</v>
       </c>
       <c r="D162" t="s">
-        <v>631</v>
+        <v>323</v>
       </c>
       <c r="E162">
         <v>20</v>
@@ -7632,25 +5608,19 @@
       <c r="G162">
         <v>59</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I162" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>633</v>
+      <c r="C163" t="s">
+        <v>324</v>
       </c>
       <c r="D163" t="s">
-        <v>634</v>
+        <v>325</v>
       </c>
       <c r="E163">
         <v>37</v>
@@ -7661,25 +5631,19 @@
       <c r="G163">
         <v>59</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I163" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>636</v>
+      <c r="C164" t="s">
+        <v>326</v>
       </c>
       <c r="D164" t="s">
-        <v>637</v>
+        <v>327</v>
       </c>
       <c r="E164">
         <v>24</v>
@@ -7690,25 +5654,19 @@
       <c r="G164">
         <v>59</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I164" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
         <v>4</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>639</v>
+      <c r="C165" t="s">
+        <v>328</v>
       </c>
       <c r="D165" t="s">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="E165">
         <v>29</v>
@@ -7719,25 +5677,19 @@
       <c r="G165">
         <v>59</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I165" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
         <v>5</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>640</v>
+      <c r="C166" t="s">
+        <v>329</v>
       </c>
       <c r="D166" t="s">
-        <v>641</v>
+        <v>330</v>
       </c>
       <c r="E166">
         <v>26</v>
@@ -7748,25 +5700,19 @@
       <c r="G166">
         <v>59</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I166" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>643</v>
+      <c r="C167" t="s">
+        <v>331</v>
       </c>
       <c r="D167" t="s">
-        <v>644</v>
+        <v>332</v>
       </c>
       <c r="E167">
         <v>35</v>
@@ -7777,25 +5723,19 @@
       <c r="G167">
         <v>59</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I167" s="2">
-        <v>42017</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>645</v>
+      <c r="C168" t="s">
+        <v>333</v>
       </c>
       <c r="D168" t="s">
-        <v>646</v>
+        <v>334</v>
       </c>
       <c r="E168">
         <v>22</v>
@@ -7806,25 +5746,19 @@
       <c r="G168">
         <v>59</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I168" s="2">
-        <v>44892</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>647</v>
+      <c r="C169" t="s">
+        <v>335</v>
       </c>
       <c r="D169" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="E169">
         <v>46</v>
@@ -7835,25 +5769,19 @@
       <c r="G169">
         <v>59</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I169" s="2">
-        <v>43907</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
         <v>11</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>648</v>
+      <c r="C170" t="s">
+        <v>336</v>
       </c>
       <c r="D170" t="s">
-        <v>649</v>
+        <v>337</v>
       </c>
       <c r="E170">
         <v>45</v>
@@ -7864,25 +5792,19 @@
       <c r="G170">
         <v>59</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I170" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
         <v>9</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>651</v>
+      <c r="C171" t="s">
+        <v>338</v>
       </c>
       <c r="D171" t="s">
-        <v>652</v>
+        <v>339</v>
       </c>
       <c r="E171">
         <v>33</v>
@@ -7893,25 +5815,19 @@
       <c r="G171">
         <v>59</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I171" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>654</v>
+      <c r="C172" t="s">
+        <v>340</v>
       </c>
       <c r="D172" t="s">
-        <v>655</v>
+        <v>341</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -7922,25 +5838,19 @@
       <c r="G172">
         <v>59</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I172" s="2">
-        <v>44479</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
         <v>10</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>656</v>
+      <c r="C173" t="s">
+        <v>342</v>
       </c>
       <c r="D173" t="s">
-        <v>657</v>
+        <v>343</v>
       </c>
       <c r="E173">
         <v>48</v>
@@ -7951,25 +5861,19 @@
       <c r="G173">
         <v>59</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I173" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
         <v>18</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>659</v>
+      <c r="C174" t="s">
+        <v>344</v>
       </c>
       <c r="D174" t="s">
-        <v>660</v>
+        <v>345</v>
       </c>
       <c r="E174">
         <v>31</v>
@@ -7980,25 +5884,19 @@
       <c r="G174">
         <v>59</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I174" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
         <v>8</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>662</v>
+      <c r="C175" t="s">
+        <v>346</v>
       </c>
       <c r="D175" t="s">
-        <v>663</v>
+        <v>347</v>
       </c>
       <c r="E175">
         <v>43</v>
@@ -8009,25 +5907,19 @@
       <c r="G175">
         <v>59</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I175" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
         <v>7</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>665</v>
+      <c r="C176" t="s">
+        <v>348</v>
       </c>
       <c r="D176" t="s">
-        <v>666</v>
+        <v>349</v>
       </c>
       <c r="E176">
         <v>6</v>
@@ -8038,25 +5930,19 @@
       <c r="G176">
         <v>59</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I176" s="2">
-        <v>42688</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
         <v>19</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>667</v>
+      <c r="C177" t="s">
+        <v>350</v>
       </c>
       <c r="D177" t="s">
-        <v>668</v>
+        <v>351</v>
       </c>
       <c r="E177">
         <v>14</v>
@@ -8067,25 +5953,19 @@
       <c r="G177">
         <v>59</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I177" s="2">
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
         <v>13</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>669</v>
+      <c r="C178" t="s">
+        <v>352</v>
       </c>
       <c r="D178" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="E178">
         <v>3</v>
@@ -8096,25 +5976,19 @@
       <c r="G178">
         <v>59</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I178" s="2">
-        <v>42187</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
         <v>9</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>670</v>
+      <c r="C179" t="s">
+        <v>353</v>
       </c>
       <c r="D179" t="s">
-        <v>671</v>
+        <v>354</v>
       </c>
       <c r="E179">
         <v>7</v>
@@ -8125,25 +5999,19 @@
       <c r="G179">
         <v>59</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I179" s="2">
-        <v>44026</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
         <v>13</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>672</v>
+      <c r="C180" t="s">
+        <v>355</v>
       </c>
       <c r="D180" t="s">
-        <v>673</v>
+        <v>356</v>
       </c>
       <c r="E180">
         <v>50</v>
@@ -8154,25 +6022,19 @@
       <c r="G180">
         <v>59</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I180" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
         <v>8</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>675</v>
+      <c r="C181" t="s">
+        <v>357</v>
       </c>
       <c r="D181" t="s">
-        <v>676</v>
+        <v>358</v>
       </c>
       <c r="E181">
         <v>3</v>
@@ -8183,25 +6045,19 @@
       <c r="G181">
         <v>60</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I181" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
         <v>11</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>678</v>
+      <c r="C182" t="s">
+        <v>359</v>
       </c>
       <c r="D182" t="s">
-        <v>679</v>
+        <v>360</v>
       </c>
       <c r="E182">
         <v>31</v>
@@ -8212,25 +6068,19 @@
       <c r="G182">
         <v>60</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I182" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
         <v>14</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>681</v>
+      <c r="C183" t="s">
+        <v>361</v>
       </c>
       <c r="D183" t="s">
-        <v>682</v>
+        <v>362</v>
       </c>
       <c r="E183">
         <v>9</v>
@@ -8241,25 +6091,19 @@
       <c r="G183">
         <v>60</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I183" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
         <v>18</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>684</v>
+      <c r="C184" t="s">
+        <v>363</v>
       </c>
       <c r="D184" t="s">
-        <v>685</v>
+        <v>364</v>
       </c>
       <c r="E184">
         <v>3</v>
@@ -8270,25 +6114,19 @@
       <c r="G184">
         <v>61</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I184" s="2">
-        <v>44115</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
         <v>8</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>686</v>
+      <c r="C185" t="s">
+        <v>365</v>
       </c>
       <c r="D185" t="s">
-        <v>687</v>
+        <v>366</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -8299,25 +6137,19 @@
       <c r="G185">
         <v>61</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I185" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
         <v>15</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>689</v>
+      <c r="C186" t="s">
+        <v>367</v>
       </c>
       <c r="D186" t="s">
-        <v>690</v>
+        <v>368</v>
       </c>
       <c r="E186">
         <v>21</v>
@@ -8328,25 +6160,19 @@
       <c r="G186">
         <v>61</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I186" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>692</v>
+      <c r="C187" t="s">
+        <v>369</v>
       </c>
       <c r="D187" t="s">
-        <v>693</v>
+        <v>370</v>
       </c>
       <c r="E187">
         <v>40</v>
@@ -8357,25 +6183,19 @@
       <c r="G187">
         <v>62</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I187" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>695</v>
+      <c r="C188" t="s">
+        <v>371</v>
       </c>
       <c r="D188" t="s">
-        <v>696</v>
+        <v>372</v>
       </c>
       <c r="E188">
         <v>25</v>
@@ -8386,25 +6206,19 @@
       <c r="G188">
         <v>62</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I188" s="2">
-        <v>43014</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>697</v>
+      <c r="C189" t="s">
+        <v>373</v>
       </c>
       <c r="D189" t="s">
-        <v>698</v>
+        <v>374</v>
       </c>
       <c r="E189">
         <v>30</v>
@@ -8415,25 +6229,19 @@
       <c r="G189">
         <v>64</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I189" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
         <v>18</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>700</v>
+      <c r="C190" t="s">
+        <v>375</v>
       </c>
       <c r="D190" t="s">
-        <v>701</v>
+        <v>376</v>
       </c>
       <c r="E190">
         <v>24</v>
@@ -8444,25 +6252,19 @@
       <c r="G190">
         <v>64</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I190" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
         <v>6</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>703</v>
+      <c r="C191" t="s">
+        <v>377</v>
       </c>
       <c r="D191" t="s">
-        <v>704</v>
+        <v>378</v>
       </c>
       <c r="E191">
         <v>41</v>
@@ -8473,25 +6275,19 @@
       <c r="G191">
         <v>64</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I191" s="2">
-        <v>42941</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
         <v>16</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>705</v>
+      <c r="C192" t="s">
+        <v>379</v>
       </c>
       <c r="D192" t="s">
-        <v>706</v>
+        <v>380</v>
       </c>
       <c r="E192">
         <v>16</v>
@@ -8502,25 +6298,19 @@
       <c r="G192">
         <v>64</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I192" s="2">
-        <v>43017</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
         <v>19</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>707</v>
+      <c r="C193" t="s">
+        <v>381</v>
       </c>
       <c r="D193" t="s">
-        <v>708</v>
+        <v>382</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -8531,25 +6321,19 @@
       <c r="G193">
         <v>65</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I193" s="2">
-        <v>42399</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
         <v>17</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>709</v>
+      <c r="C194" t="s">
+        <v>383</v>
       </c>
       <c r="D194" t="s">
-        <v>710</v>
+        <v>384</v>
       </c>
       <c r="E194">
         <v>21</v>
@@ -8560,25 +6344,19 @@
       <c r="G194">
         <v>65</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I194" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
         <v>20</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>712</v>
+      <c r="C195" t="s">
+        <v>385</v>
       </c>
       <c r="D195" t="s">
-        <v>713</v>
+        <v>386</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -8589,25 +6367,19 @@
       <c r="G195">
         <v>66</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I195" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
         <v>19</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>715</v>
+      <c r="C196" t="s">
+        <v>387</v>
       </c>
       <c r="D196" t="s">
-        <v>716</v>
+        <v>388</v>
       </c>
       <c r="E196">
         <v>26</v>
@@ -8618,25 +6390,19 @@
       <c r="G196">
         <v>66</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I196" s="2">
-        <v>42645</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
         <v>4</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>717</v>
+      <c r="C197" t="s">
+        <v>389</v>
       </c>
       <c r="D197" t="s">
-        <v>718</v>
+        <v>390</v>
       </c>
       <c r="E197">
         <v>29</v>
@@ -8647,25 +6413,19 @@
       <c r="G197">
         <v>66</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I197" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
         <v>15</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>720</v>
+      <c r="C198" t="s">
+        <v>391</v>
       </c>
       <c r="D198" t="s">
-        <v>721</v>
+        <v>392</v>
       </c>
       <c r="E198">
         <v>33</v>
@@ -8676,25 +6436,19 @@
       <c r="G198">
         <v>66</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I198" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>723</v>
+      <c r="C199" t="s">
+        <v>393</v>
       </c>
       <c r="D199" t="s">
-        <v>724</v>
+        <v>394</v>
       </c>
       <c r="E199">
         <v>43</v>
@@ -8705,25 +6459,19 @@
       <c r="G199">
         <v>66</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I199" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
         <v>11</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>726</v>
+      <c r="C200" t="s">
+        <v>395</v>
       </c>
       <c r="D200" t="s">
-        <v>727</v>
+        <v>396</v>
       </c>
       <c r="E200">
         <v>4</v>
@@ -8734,25 +6482,19 @@
       <c r="G200">
         <v>66</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I200" s="2">
-        <v>42822</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
         <v>6</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>728</v>
+      <c r="C201" t="s">
+        <v>397</v>
       </c>
       <c r="D201" t="s">
-        <v>729</v>
+        <v>398</v>
       </c>
       <c r="E201">
         <v>40</v>
@@ -8763,25 +6505,19 @@
       <c r="G201">
         <v>66</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I201" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>731</v>
+      <c r="C202" t="s">
+        <v>399</v>
       </c>
       <c r="D202" t="s">
-        <v>492</v>
+        <v>215</v>
       </c>
       <c r="E202">
         <v>24</v>
@@ -8792,25 +6528,19 @@
       <c r="G202">
         <v>66</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I202" s="2">
-        <v>42552</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
         <v>14</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>732</v>
+      <c r="C203" t="s">
+        <v>400</v>
       </c>
       <c r="D203" t="s">
-        <v>733</v>
+        <v>401</v>
       </c>
       <c r="E203">
         <v>30</v>
@@ -8821,25 +6551,19 @@
       <c r="G203">
         <v>66</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I203" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
         <v>17</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>735</v>
+      <c r="C204" t="s">
+        <v>402</v>
       </c>
       <c r="D204" t="s">
-        <v>736</v>
+        <v>403</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -8850,25 +6574,19 @@
       <c r="G204">
         <v>66</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I204" s="2">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
         <v>17</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>737</v>
+      <c r="C205" t="s">
+        <v>404</v>
       </c>
       <c r="D205" t="s">
-        <v>738</v>
+        <v>405</v>
       </c>
       <c r="E205">
         <v>13</v>
@@ -8879,25 +6597,19 @@
       <c r="G205">
         <v>66</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I205" s="2">
-        <v>42444</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
         <v>10</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>739</v>
+      <c r="C206" t="s">
+        <v>406</v>
       </c>
       <c r="D206" t="s">
-        <v>740</v>
+        <v>407</v>
       </c>
       <c r="E206">
         <v>19</v>
@@ -8908,25 +6620,19 @@
       <c r="G206">
         <v>66</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I206" s="2">
-        <v>43737</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
         <v>18</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>741</v>
+      <c r="C207" t="s">
+        <v>408</v>
       </c>
       <c r="D207" t="s">
-        <v>742</v>
+        <v>409</v>
       </c>
       <c r="E207">
         <v>20</v>
@@ -8937,25 +6643,19 @@
       <c r="G207">
         <v>66</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I207" s="2">
-        <v>44445</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
         <v>18</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>743</v>
+      <c r="C208" t="s">
+        <v>410</v>
       </c>
       <c r="D208" t="s">
-        <v>744</v>
+        <v>411</v>
       </c>
       <c r="E208">
         <v>39</v>
@@ -8966,25 +6666,19 @@
       <c r="G208">
         <v>66</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I208" s="2">
-        <v>43360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
         <v>15</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>745</v>
+      <c r="C209" t="s">
+        <v>412</v>
       </c>
       <c r="D209" t="s">
-        <v>746</v>
+        <v>413</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -8995,25 +6689,19 @@
       <c r="G209">
         <v>66</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I209" s="2">
-        <v>42993</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>747</v>
+      <c r="C210" t="s">
+        <v>414</v>
       </c>
       <c r="D210" t="s">
-        <v>748</v>
+        <v>415</v>
       </c>
       <c r="E210">
         <v>8</v>
@@ -9024,25 +6712,19 @@
       <c r="G210">
         <v>66</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I210" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>750</v>
+      <c r="C211" t="s">
+        <v>416</v>
       </c>
       <c r="D211" t="s">
-        <v>751</v>
+        <v>417</v>
       </c>
       <c r="E211">
         <v>12</v>
@@ -9053,25 +6735,19 @@
       <c r="G211">
         <v>68</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I211" s="2">
-        <v>44638</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
         <v>17</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>752</v>
+      <c r="C212" t="s">
+        <v>418</v>
       </c>
       <c r="D212" t="s">
-        <v>753</v>
+        <v>419</v>
       </c>
       <c r="E212">
         <v>16</v>
@@ -9082,25 +6758,19 @@
       <c r="G212">
         <v>69</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I212" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
         <v>18</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>755</v>
+      <c r="C213" t="s">
+        <v>420</v>
       </c>
       <c r="D213" t="s">
-        <v>756</v>
+        <v>421</v>
       </c>
       <c r="E213">
         <v>22</v>
@@ -9111,25 +6781,19 @@
       <c r="G213">
         <v>69</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I213" s="2">
-        <v>42817</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
         <v>16</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>757</v>
+      <c r="C214" t="s">
+        <v>422</v>
       </c>
       <c r="D214" t="s">
-        <v>758</v>
+        <v>423</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9140,25 +6804,19 @@
       <c r="G214">
         <v>70</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I214" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
         <v>18</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>760</v>
+      <c r="C215" t="s">
+        <v>424</v>
       </c>
       <c r="D215" t="s">
-        <v>761</v>
+        <v>425</v>
       </c>
       <c r="E215">
         <v>29</v>
@@ -9169,25 +6827,19 @@
       <c r="G215">
         <v>70</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I215" s="2">
-        <v>42265</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
         <v>15</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>762</v>
+      <c r="C216" t="s">
+        <v>426</v>
       </c>
       <c r="D216" t="s">
-        <v>763</v>
+        <v>427</v>
       </c>
       <c r="E216">
         <v>3</v>
@@ -9198,25 +6850,19 @@
       <c r="G216">
         <v>70</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I216" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
         <v>4</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>765</v>
+      <c r="C217" t="s">
+        <v>428</v>
       </c>
       <c r="D217" t="s">
-        <v>766</v>
+        <v>429</v>
       </c>
       <c r="E217">
         <v>27</v>
@@ -9227,25 +6873,19 @@
       <c r="G217">
         <v>70</v>
       </c>
-      <c r="H217" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I217" s="2">
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
         <v>8</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>767</v>
+      <c r="C218" t="s">
+        <v>430</v>
       </c>
       <c r="D218" t="s">
-        <v>768</v>
+        <v>431</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -9256,25 +6896,19 @@
       <c r="G218">
         <v>70</v>
       </c>
-      <c r="H218" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I218" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
         <v>2</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>770</v>
+      <c r="C219" t="s">
+        <v>432</v>
       </c>
       <c r="D219" t="s">
-        <v>771</v>
+        <v>433</v>
       </c>
       <c r="E219">
         <v>39</v>
@@ -9285,25 +6919,19 @@
       <c r="G219">
         <v>70</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I219" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
         <v>18</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>773</v>
+      <c r="C220" t="s">
+        <v>434</v>
       </c>
       <c r="D220" t="s">
-        <v>774</v>
+        <v>435</v>
       </c>
       <c r="E220">
         <v>16</v>
@@ -9314,25 +6942,19 @@
       <c r="G220">
         <v>70</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I220" s="2">
-        <v>42550</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
         <v>7</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>775</v>
+      <c r="C221" t="s">
+        <v>436</v>
       </c>
       <c r="D221" t="s">
-        <v>776</v>
+        <v>437</v>
       </c>
       <c r="E221">
         <v>10</v>
@@ -9343,25 +6965,19 @@
       <c r="G221">
         <v>70</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I221" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
         <v>14</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>778</v>
+      <c r="C222" t="s">
+        <v>438</v>
       </c>
       <c r="D222" t="s">
-        <v>779</v>
+        <v>439</v>
       </c>
       <c r="E222">
         <v>19</v>
@@ -9372,25 +6988,19 @@
       <c r="G222">
         <v>70</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I222" s="2">
-        <v>43726</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
         <v>17</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>780</v>
+      <c r="C223" t="s">
+        <v>440</v>
       </c>
       <c r="D223" t="s">
-        <v>781</v>
+        <v>441</v>
       </c>
       <c r="E223">
         <v>12</v>
@@ -9401,25 +7011,19 @@
       <c r="G223">
         <v>72</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I223" s="2">
-        <v>43725</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
         <v>13</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>782</v>
+      <c r="C224" t="s">
+        <v>442</v>
       </c>
       <c r="D224" t="s">
-        <v>783</v>
+        <v>443</v>
       </c>
       <c r="E224">
         <v>35</v>
@@ -9430,25 +7034,19 @@
       <c r="G224">
         <v>72</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I224" s="2">
-        <v>42631</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
         <v>16</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>784</v>
+      <c r="C225" t="s">
+        <v>444</v>
       </c>
       <c r="D225" t="s">
-        <v>589</v>
+        <v>291</v>
       </c>
       <c r="E225">
         <v>40</v>
@@ -9459,25 +7057,19 @@
       <c r="G225">
         <v>72</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I225" s="2">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
         <v>17</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>785</v>
+      <c r="C226" t="s">
+        <v>445</v>
       </c>
       <c r="D226" t="s">
-        <v>786</v>
+        <v>446</v>
       </c>
       <c r="E226">
         <v>21</v>
@@ -9488,25 +7080,19 @@
       <c r="G226">
         <v>73</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I226" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
         <v>7</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>788</v>
+      <c r="C227" t="s">
+        <v>447</v>
       </c>
       <c r="D227" t="s">
-        <v>789</v>
+        <v>448</v>
       </c>
       <c r="E227">
         <v>40</v>
@@ -9517,25 +7103,19 @@
       <c r="G227">
         <v>74</v>
       </c>
-      <c r="H227" s="1">
-        <v>3550708</v>
-      </c>
-      <c r="I227" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
         <v>18</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>791</v>
+      <c r="C228" t="s">
+        <v>449</v>
       </c>
       <c r="D228" t="s">
-        <v>792</v>
+        <v>450</v>
       </c>
       <c r="E228">
         <v>37</v>
@@ -9546,25 +7126,19 @@
       <c r="G228">
         <v>74</v>
       </c>
-      <c r="H228" s="1">
-        <v>5508</v>
-      </c>
-      <c r="I228" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
         <v>11</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>794</v>
+      <c r="C229" t="s">
+        <v>451</v>
       </c>
       <c r="D229" t="s">
-        <v>795</v>
+        <v>452</v>
       </c>
       <c r="E229">
         <v>49</v>
@@ -9575,25 +7149,19 @@
       <c r="G229">
         <v>74</v>
       </c>
-      <c r="H229" s="1">
-        <v>370909</v>
-      </c>
-      <c r="I229" s="2">
-        <v>44576</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
         <v>17</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>796</v>
+      <c r="C230" t="s">
+        <v>453</v>
       </c>
       <c r="D230" t="s">
-        <v>797</v>
+        <v>454</v>
       </c>
       <c r="E230">
         <v>44</v>
@@ -9604,25 +7172,19 @@
       <c r="G230">
         <v>75</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I230" s="2">
-        <v>42809</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
         <v>20</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>798</v>
+      <c r="C231" t="s">
+        <v>455</v>
       </c>
       <c r="D231" t="s">
-        <v>799</v>
+        <v>456</v>
       </c>
       <c r="E231">
         <v>16</v>
@@ -9633,25 +7195,19 @@
       <c r="G231">
         <v>76</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I231" s="2">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>800</v>
+      <c r="C232" t="s">
+        <v>457</v>
       </c>
       <c r="D232" t="s">
-        <v>801</v>
+        <v>458</v>
       </c>
       <c r="E232">
         <v>32</v>
@@ -9662,25 +7218,19 @@
       <c r="G232">
         <v>77</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I232" s="2">
-        <v>43528</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233">
         <v>17</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>802</v>
+      <c r="C233" t="s">
+        <v>459</v>
       </c>
       <c r="D233" t="s">
-        <v>803</v>
+        <v>460</v>
       </c>
       <c r="E233">
         <v>38</v>
@@ -9691,25 +7241,19 @@
       <c r="G233">
         <v>77</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I233" s="2">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234">
         <v>15</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>804</v>
+      <c r="C234" t="s">
+        <v>461</v>
       </c>
       <c r="D234" t="s">
-        <v>805</v>
+        <v>462</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -9720,25 +7264,19 @@
       <c r="G234">
         <v>78</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I234" s="2">
-        <v>42666</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235">
         <v>11</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>806</v>
+      <c r="C235" t="s">
+        <v>463</v>
       </c>
       <c r="D235" t="s">
-        <v>807</v>
+        <v>464</v>
       </c>
       <c r="E235">
         <v>12</v>
@@ -9749,25 +7287,19 @@
       <c r="G235">
         <v>80</v>
       </c>
-      <c r="H235" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I235" s="2">
-        <v>42692</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236">
         <v>20</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>808</v>
+      <c r="C236" t="s">
+        <v>465</v>
       </c>
       <c r="D236" t="s">
-        <v>809</v>
+        <v>466</v>
       </c>
       <c r="E236">
         <v>8</v>
@@ -9778,25 +7310,19 @@
       <c r="G236">
         <v>84</v>
       </c>
-      <c r="H236" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I236" s="2">
-        <v>43550</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237">
         <v>10</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>810</v>
+      <c r="C237" t="s">
+        <v>467</v>
       </c>
       <c r="D237" t="s">
-        <v>811</v>
+        <v>468</v>
       </c>
       <c r="E237">
         <v>39</v>
@@ -9807,25 +7333,19 @@
       <c r="G237">
         <v>84</v>
       </c>
-      <c r="H237" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I237" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238">
         <v>18</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>813</v>
+      <c r="C238" t="s">
+        <v>469</v>
       </c>
       <c r="D238" t="s">
-        <v>814</v>
+        <v>470</v>
       </c>
       <c r="E238">
         <v>18</v>
@@ -9836,25 +7356,19 @@
       <c r="G238">
         <v>84</v>
       </c>
-      <c r="H238" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I238" s="2">
-        <v>43540</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239">
         <v>9</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>815</v>
+      <c r="C239" t="s">
+        <v>471</v>
       </c>
       <c r="D239" t="s">
-        <v>816</v>
+        <v>472</v>
       </c>
       <c r="E239">
         <v>31</v>
@@ -9865,25 +7379,19 @@
       <c r="G239">
         <v>84</v>
       </c>
-      <c r="H239" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I239" s="2">
-        <v>43019</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240">
         <v>17</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>817</v>
+      <c r="C240" t="s">
+        <v>473</v>
       </c>
       <c r="D240" t="s">
-        <v>818</v>
+        <v>474</v>
       </c>
       <c r="E240">
         <v>20</v>
@@ -9894,25 +7402,19 @@
       <c r="G240">
         <v>84</v>
       </c>
-      <c r="H240" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I240" s="2">
-        <v>44811</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241">
         <v>15</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>819</v>
+      <c r="C241" t="s">
+        <v>475</v>
       </c>
       <c r="D241" t="s">
-        <v>820</v>
+        <v>476</v>
       </c>
       <c r="E241">
         <v>48</v>
@@ -9923,25 +7425,19 @@
       <c r="G241">
         <v>87</v>
       </c>
-      <c r="H241" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I241" s="2">
-        <v>42389</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
         <v>15</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>821</v>
+      <c r="C242" t="s">
+        <v>477</v>
       </c>
       <c r="D242" t="s">
-        <v>822</v>
+        <v>478</v>
       </c>
       <c r="E242">
         <v>22</v>
@@ -9952,25 +7448,19 @@
       <c r="G242">
         <v>87</v>
       </c>
-      <c r="H242" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I242" s="2">
-        <v>43003</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
         <v>11</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>823</v>
+      <c r="C243" t="s">
+        <v>479</v>
       </c>
       <c r="D243" t="s">
-        <v>824</v>
+        <v>480</v>
       </c>
       <c r="E243">
         <v>28</v>
@@ -9981,25 +7471,19 @@
       <c r="G243">
         <v>87</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I243" s="2">
-        <v>44467</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
         <v>12</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>825</v>
+      <c r="C244" t="s">
+        <v>481</v>
       </c>
       <c r="D244" t="s">
-        <v>826</v>
+        <v>482</v>
       </c>
       <c r="E244">
         <v>41</v>
@@ -10010,25 +7494,19 @@
       <c r="G244">
         <v>88</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I244" s="2">
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
         <v>11</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>827</v>
+      <c r="C245" t="s">
+        <v>483</v>
       </c>
       <c r="D245" t="s">
-        <v>828</v>
+        <v>484</v>
       </c>
       <c r="E245">
         <v>43</v>
@@ -10039,25 +7517,19 @@
       <c r="G245">
         <v>88</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I245" s="2">
-        <v>43986</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
         <v>10</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>829</v>
+      <c r="C246" t="s">
+        <v>485</v>
       </c>
       <c r="D246" t="s">
-        <v>830</v>
+        <v>486</v>
       </c>
       <c r="E246">
         <v>26</v>
@@ -10068,25 +7540,19 @@
       <c r="G246">
         <v>88</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I246" s="2">
-        <v>42197</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
         <v>9</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>831</v>
+      <c r="C247" t="s">
+        <v>487</v>
       </c>
       <c r="D247" t="s">
-        <v>832</v>
+        <v>488</v>
       </c>
       <c r="E247">
         <v>30</v>
@@ -10097,25 +7563,19 @@
       <c r="G247">
         <v>88</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I247" s="2">
-        <v>42194</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
         <v>17</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>833</v>
+      <c r="C248" t="s">
+        <v>489</v>
       </c>
       <c r="D248" t="s">
-        <v>834</v>
+        <v>490</v>
       </c>
       <c r="E248">
         <v>21</v>
@@ -10126,25 +7586,19 @@
       <c r="G248">
         <v>91</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I248" s="2">
-        <v>44024</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
         <v>7</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>835</v>
+      <c r="C249" t="s">
+        <v>491</v>
       </c>
       <c r="D249" t="s">
-        <v>836</v>
+        <v>492</v>
       </c>
       <c r="E249">
         <v>20</v>
@@ -10155,25 +7609,19 @@
       <c r="G249">
         <v>91</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I249" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
         <v>15</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>838</v>
+      <c r="C250" t="s">
+        <v>493</v>
       </c>
       <c r="D250" t="s">
-        <v>839</v>
+        <v>494</v>
       </c>
       <c r="E250">
         <v>29</v>
@@ -10184,25 +7632,19 @@
       <c r="G250">
         <v>91</v>
       </c>
-      <c r="H250" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I250" s="2">
-        <v>43848</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>840</v>
+      <c r="C251" t="s">
+        <v>495</v>
       </c>
       <c r="D251" t="s">
-        <v>841</v>
+        <v>496</v>
       </c>
       <c r="E251">
         <v>4</v>
@@ -10213,18 +7655,8 @@
       <c r="G251">
         <v>92</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I251" s="2">
-        <v>44350</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L1:M250">
-    <sortCondition ref="M1:M250"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bdd_excel/Avis.xlsx
+++ b/bdd_excel/Avis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A78E9F9-C5DE-DF42-90E8-E08E3D857A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0192813-C828-C44F-A980-4D8EEF9EBA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{FFAC0233-3D28-634B-9D7E-2085D8CE6967}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="495">
   <si>
     <t>id_avis</t>
   </si>
@@ -933,12 +933,6 @@
   </si>
   <si>
     <t>'24-NOV-2021'</t>
-  </si>
-  <si>
-    <t>"Minimal"</t>
-  </si>
-  <si>
-    <t>'03-APR-2020'</t>
   </si>
   <si>
     <t>"Développé"</t>
@@ -1875,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554BF90-C002-4843-AC84-EB706920A8E3}">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5338,7 +5332,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
         <v>300</v>
@@ -5347,10 +5341,10 @@
         <v>301</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F151">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G151">
         <v>58</v>
@@ -5370,10 +5364,10 @@
         <v>303</v>
       </c>
       <c r="E152">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F152">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="G152">
         <v>58</v>
@@ -5384,7 +5378,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
         <v>304</v>
@@ -5393,10 +5387,10 @@
         <v>305</v>
       </c>
       <c r="E153">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F153">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>58</v>
@@ -5407,7 +5401,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
         <v>306</v>
@@ -5416,10 +5410,10 @@
         <v>307</v>
       </c>
       <c r="E154">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F154">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="G154">
         <v>58</v>
@@ -5430,7 +5424,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>308</v>
@@ -5439,10 +5433,10 @@
         <v>309</v>
       </c>
       <c r="E155">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F155">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G155">
         <v>58</v>
@@ -5453,7 +5447,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
         <v>310</v>
@@ -5462,10 +5456,10 @@
         <v>311</v>
       </c>
       <c r="E156">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F156">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G156">
         <v>58</v>
@@ -5476,7 +5470,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C157" t="s">
         <v>312</v>
@@ -5485,10 +5479,10 @@
         <v>313</v>
       </c>
       <c r="E157">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F157">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G157">
         <v>58</v>
@@ -5499,7 +5493,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
         <v>314</v>
@@ -5508,10 +5502,10 @@
         <v>315</v>
       </c>
       <c r="E158">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F158">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>58</v>
@@ -5522,7 +5516,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
         <v>316</v>
@@ -5531,10 +5525,10 @@
         <v>317</v>
       </c>
       <c r="E159">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F159">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G159">
         <v>58</v>
@@ -5545,7 +5539,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
         <v>318</v>
@@ -5554,13 +5548,13 @@
         <v>319</v>
       </c>
       <c r="E160">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F160">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G160">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -5568,7 +5562,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
         <v>320</v>
@@ -5577,10 +5571,10 @@
         <v>321</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F161">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>59</v>
@@ -5591,7 +5585,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C162" t="s">
         <v>322</v>
@@ -5600,10 +5594,10 @@
         <v>323</v>
       </c>
       <c r="E162">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F162">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G162">
         <v>59</v>
@@ -5614,7 +5608,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
         <v>324</v>
@@ -5623,10 +5617,10 @@
         <v>325</v>
       </c>
       <c r="E163">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F163">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G163">
         <v>59</v>
@@ -5637,19 +5631,19 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
         <v>326</v>
       </c>
       <c r="D164" t="s">
-        <v>327</v>
+        <v>118</v>
       </c>
       <c r="E164">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F164">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G164">
         <v>59</v>
@@ -5660,19 +5654,19 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
+        <v>327</v>
+      </c>
+      <c r="D165" t="s">
         <v>328</v>
       </c>
-      <c r="D165" t="s">
-        <v>118</v>
-      </c>
       <c r="E165">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F165">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G165">
         <v>59</v>
@@ -5683,7 +5677,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" t="s">
         <v>329</v>
@@ -5692,10 +5686,10 @@
         <v>330</v>
       </c>
       <c r="E166">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F166">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G166">
         <v>59</v>
@@ -5706,7 +5700,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" t="s">
         <v>331</v>
@@ -5715,10 +5709,10 @@
         <v>332</v>
       </c>
       <c r="E167">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F167">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G167">
         <v>59</v>
@@ -5729,19 +5723,19 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
         <v>333</v>
       </c>
       <c r="D168" t="s">
-        <v>334</v>
+        <v>72</v>
       </c>
       <c r="E168">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F168">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G168">
         <v>59</v>
@@ -5752,16 +5746,16 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
+        <v>334</v>
+      </c>
+      <c r="D169" t="s">
         <v>335</v>
       </c>
-      <c r="D169" t="s">
-        <v>72</v>
-      </c>
       <c r="E169">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F169">
         <v>26</v>
@@ -5775,7 +5769,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
         <v>336</v>
@@ -5784,10 +5778,10 @@
         <v>337</v>
       </c>
       <c r="E170">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F170">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>59</v>
@@ -5798,7 +5792,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C171" t="s">
         <v>338</v>
@@ -5807,10 +5801,10 @@
         <v>339</v>
       </c>
       <c r="E171">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <v>59</v>
@@ -5821,7 +5815,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
         <v>340</v>
@@ -5830,10 +5824,10 @@
         <v>341</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G172">
         <v>59</v>
@@ -5844,7 +5838,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
         <v>342</v>
@@ -5853,10 +5847,10 @@
         <v>343</v>
       </c>
       <c r="E173">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F173">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="G173">
         <v>59</v>
@@ -5867,7 +5861,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>344</v>
@@ -5876,10 +5870,10 @@
         <v>345</v>
       </c>
       <c r="E174">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F174">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G174">
         <v>59</v>
@@ -5890,7 +5884,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>346</v>
@@ -5899,10 +5893,10 @@
         <v>347</v>
       </c>
       <c r="E175">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F175">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G175">
         <v>59</v>
@@ -5913,7 +5907,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C176" t="s">
         <v>348</v>
@@ -5922,10 +5916,10 @@
         <v>349</v>
       </c>
       <c r="E176">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F176">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G176">
         <v>59</v>
@@ -5936,19 +5930,19 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
         <v>350</v>
       </c>
       <c r="D177" t="s">
-        <v>351</v>
+        <v>50</v>
       </c>
       <c r="E177">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F177">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G177">
         <v>59</v>
@@ -5959,19 +5953,19 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
+        <v>351</v>
+      </c>
+      <c r="D178" t="s">
         <v>352</v>
       </c>
-      <c r="D178" t="s">
-        <v>50</v>
-      </c>
       <c r="E178">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F178">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G178">
         <v>59</v>
@@ -5982,7 +5976,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>353</v>
@@ -5991,10 +5985,10 @@
         <v>354</v>
       </c>
       <c r="E179">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F179">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G179">
         <v>59</v>
@@ -6005,7 +5999,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>355</v>
@@ -6014,13 +6008,13 @@
         <v>356</v>
       </c>
       <c r="E180">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F180">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -6028,7 +6022,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
         <v>357</v>
@@ -6037,10 +6031,10 @@
         <v>358</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G181">
         <v>60</v>
@@ -6051,7 +6045,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
         <v>359</v>
@@ -6060,10 +6054,10 @@
         <v>360</v>
       </c>
       <c r="E182">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F182">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="G182">
         <v>60</v>
@@ -6074,7 +6068,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C183" t="s">
         <v>361</v>
@@ -6083,13 +6077,13 @@
         <v>362</v>
       </c>
       <c r="E183">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F183">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="G183">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6097,7 +6091,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>363</v>
@@ -6106,10 +6100,10 @@
         <v>364</v>
       </c>
       <c r="E184">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F184">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G184">
         <v>61</v>
@@ -6120,7 +6114,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
         <v>365</v>
@@ -6129,10 +6123,10 @@
         <v>366</v>
       </c>
       <c r="E185">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F185">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G185">
         <v>61</v>
@@ -6152,13 +6146,13 @@
         <v>368</v>
       </c>
       <c r="E186">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F186">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G186">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6166,7 +6160,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
         <v>369</v>
@@ -6175,10 +6169,10 @@
         <v>370</v>
       </c>
       <c r="E187">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F187">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G187">
         <v>62</v>
@@ -6189,7 +6183,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
         <v>371</v>
@@ -6198,13 +6192,13 @@
         <v>372</v>
       </c>
       <c r="E188">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F188">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G188">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -6212,7 +6206,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
         <v>373</v>
@@ -6221,10 +6215,10 @@
         <v>374</v>
       </c>
       <c r="E189">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F189">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="G189">
         <v>64</v>
@@ -6235,7 +6229,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>375</v>
@@ -6244,10 +6238,10 @@
         <v>376</v>
       </c>
       <c r="E190">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F190">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="G190">
         <v>64</v>
@@ -6258,7 +6252,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
         <v>377</v>
@@ -6267,10 +6261,10 @@
         <v>378</v>
       </c>
       <c r="E191">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F191">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G191">
         <v>64</v>
@@ -6281,7 +6275,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C192" t="s">
         <v>379</v>
@@ -6290,13 +6284,13 @@
         <v>380</v>
       </c>
       <c r="E192">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F192">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G192">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -6304,7 +6298,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
         <v>381</v>
@@ -6313,10 +6307,10 @@
         <v>382</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F193">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G193">
         <v>65</v>
@@ -6327,7 +6321,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C194" t="s">
         <v>383</v>
@@ -6336,13 +6330,13 @@
         <v>384</v>
       </c>
       <c r="E194">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F194">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G194">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -6350,7 +6344,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C195" t="s">
         <v>385</v>
@@ -6359,10 +6353,10 @@
         <v>386</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F195">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G195">
         <v>66</v>
@@ -6373,7 +6367,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
         <v>387</v>
@@ -6382,10 +6376,10 @@
         <v>388</v>
       </c>
       <c r="E196">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F196">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G196">
         <v>66</v>
@@ -6396,7 +6390,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
         <v>389</v>
@@ -6405,7 +6399,7 @@
         <v>390</v>
       </c>
       <c r="E197">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F197">
         <v>99</v>
@@ -6419,7 +6413,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
         <v>391</v>
@@ -6428,10 +6422,10 @@
         <v>392</v>
       </c>
       <c r="E198">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F198">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="G198">
         <v>66</v>
@@ -6442,7 +6436,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
         <v>393</v>
@@ -6451,10 +6445,10 @@
         <v>394</v>
       </c>
       <c r="E199">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F199">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G199">
         <v>66</v>
@@ -6465,7 +6459,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>395</v>
@@ -6474,10 +6468,10 @@
         <v>396</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F200">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G200">
         <v>66</v>
@@ -6488,19 +6482,19 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
         <v>397</v>
       </c>
       <c r="D201" t="s">
-        <v>398</v>
+        <v>215</v>
       </c>
       <c r="E201">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F201">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G201">
         <v>66</v>
@@ -6511,19 +6505,19 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
+        <v>398</v>
+      </c>
+      <c r="D202" t="s">
         <v>399</v>
       </c>
-      <c r="D202" t="s">
-        <v>215</v>
-      </c>
       <c r="E202">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F202">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G202">
         <v>66</v>
@@ -6534,7 +6528,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
         <v>400</v>
@@ -6543,10 +6537,10 @@
         <v>401</v>
       </c>
       <c r="E203">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G203">
         <v>66</v>
@@ -6566,10 +6560,10 @@
         <v>403</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F204">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G204">
         <v>66</v>
@@ -6580,7 +6574,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
         <v>404</v>
@@ -6589,10 +6583,10 @@
         <v>405</v>
       </c>
       <c r="E205">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F205">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G205">
         <v>66</v>
@@ -6603,7 +6597,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C206" t="s">
         <v>406</v>
@@ -6612,10 +6606,10 @@
         <v>407</v>
       </c>
       <c r="E206">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F206">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G206">
         <v>66</v>
@@ -6635,10 +6629,10 @@
         <v>409</v>
       </c>
       <c r="E207">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F207">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="G207">
         <v>66</v>
@@ -6649,7 +6643,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
         <v>410</v>
@@ -6658,10 +6652,10 @@
         <v>411</v>
       </c>
       <c r="E208">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F208">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G208">
         <v>66</v>
@@ -6672,7 +6666,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C209" t="s">
         <v>412</v>
@@ -6681,10 +6675,10 @@
         <v>413</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F209">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G209">
         <v>66</v>
@@ -6695,7 +6689,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>414</v>
@@ -6704,13 +6698,13 @@
         <v>415</v>
       </c>
       <c r="E210">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F210">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G210">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -6718,7 +6712,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
         <v>416</v>
@@ -6727,13 +6721,13 @@
         <v>417</v>
       </c>
       <c r="E211">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F211">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G211">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -6741,7 +6735,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C212" t="s">
         <v>418</v>
@@ -6750,10 +6744,10 @@
         <v>419</v>
       </c>
       <c r="E212">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F212">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G212">
         <v>69</v>
@@ -6764,7 +6758,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
         <v>420</v>
@@ -6773,13 +6767,13 @@
         <v>421</v>
       </c>
       <c r="E213">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G213">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -6787,7 +6781,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C214" t="s">
         <v>422</v>
@@ -6796,10 +6790,10 @@
         <v>423</v>
       </c>
       <c r="E214">
+        <v>29</v>
+      </c>
+      <c r="F214">
         <v>1</v>
-      </c>
-      <c r="F214">
-        <v>55</v>
       </c>
       <c r="G214">
         <v>70</v>
@@ -6810,7 +6804,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
         <v>424</v>
@@ -6819,10 +6813,10 @@
         <v>425</v>
       </c>
       <c r="E215">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G215">
         <v>70</v>
@@ -6833,7 +6827,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C216" t="s">
         <v>426</v>
@@ -6842,10 +6836,10 @@
         <v>427</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F216">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G216">
         <v>70</v>
@@ -6856,7 +6850,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>428</v>
@@ -6865,10 +6859,10 @@
         <v>429</v>
       </c>
       <c r="E217">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F217">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G217">
         <v>70</v>
@@ -6879,7 +6873,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C218" t="s">
         <v>430</v>
@@ -6888,10 +6882,10 @@
         <v>431</v>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F218">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G218">
         <v>70</v>
@@ -6902,7 +6896,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C219" t="s">
         <v>432</v>
@@ -6911,10 +6905,10 @@
         <v>433</v>
       </c>
       <c r="E219">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F219">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G219">
         <v>70</v>
@@ -6925,7 +6919,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>434</v>
@@ -6934,10 +6928,10 @@
         <v>435</v>
       </c>
       <c r="E220">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F220">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G220">
         <v>70</v>
@@ -6948,7 +6942,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C221" t="s">
         <v>436</v>
@@ -6957,10 +6951,10 @@
         <v>437</v>
       </c>
       <c r="E221">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F221">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G221">
         <v>70</v>
@@ -6971,7 +6965,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
         <v>438</v>
@@ -6980,13 +6974,13 @@
         <v>439</v>
       </c>
       <c r="E222">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F222">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="G222">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -6994,7 +6988,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
         <v>440</v>
@@ -7003,10 +6997,10 @@
         <v>441</v>
       </c>
       <c r="E223">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F223">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G223">
         <v>72</v>
@@ -7017,19 +7011,19 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
         <v>442</v>
       </c>
       <c r="D224" t="s">
-        <v>443</v>
+        <v>291</v>
       </c>
       <c r="E224">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F224">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G224">
         <v>72</v>
@@ -7040,22 +7034,22 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
+        <v>443</v>
+      </c>
+      <c r="D225" t="s">
         <v>444</v>
       </c>
-      <c r="D225" t="s">
-        <v>291</v>
-      </c>
       <c r="E225">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F225">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G225">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -7063,7 +7057,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>445</v>
@@ -7072,13 +7066,13 @@
         <v>446</v>
       </c>
       <c r="E226">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F226">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G226">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -7086,7 +7080,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C227" t="s">
         <v>447</v>
@@ -7095,10 +7089,10 @@
         <v>448</v>
       </c>
       <c r="E227">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F227">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G227">
         <v>74</v>
@@ -7109,7 +7103,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C228" t="s">
         <v>449</v>
@@ -7118,10 +7112,10 @@
         <v>450</v>
       </c>
       <c r="E228">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F228">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G228">
         <v>74</v>
@@ -7132,7 +7126,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C229" t="s">
         <v>451</v>
@@ -7141,13 +7135,13 @@
         <v>452</v>
       </c>
       <c r="E229">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F229">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G229">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -7155,7 +7149,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C230" t="s">
         <v>453</v>
@@ -7164,13 +7158,13 @@
         <v>454</v>
       </c>
       <c r="E230">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G230">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -7178,7 +7172,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C231" t="s">
         <v>455</v>
@@ -7187,13 +7181,13 @@
         <v>456</v>
       </c>
       <c r="E231">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F231">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="G231">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -7201,7 +7195,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
         <v>457</v>
@@ -7210,10 +7204,10 @@
         <v>458</v>
       </c>
       <c r="E232">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F232">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G232">
         <v>77</v>
@@ -7224,7 +7218,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
         <v>459</v>
@@ -7233,13 +7227,13 @@
         <v>460</v>
       </c>
       <c r="E233">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G233">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -7247,7 +7241,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C234" t="s">
         <v>461</v>
@@ -7256,13 +7250,13 @@
         <v>462</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F234">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G234">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -7270,7 +7264,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C235" t="s">
         <v>463</v>
@@ -7279,13 +7273,13 @@
         <v>464</v>
       </c>
       <c r="E235">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F235">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G235">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -7293,7 +7287,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
         <v>465</v>
@@ -7302,10 +7296,10 @@
         <v>466</v>
       </c>
       <c r="E236">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F236">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G236">
         <v>84</v>
@@ -7316,7 +7310,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
         <v>467</v>
@@ -7325,10 +7319,10 @@
         <v>468</v>
       </c>
       <c r="E237">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F237">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G237">
         <v>84</v>
@@ -7339,7 +7333,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
         <v>469</v>
@@ -7348,10 +7342,10 @@
         <v>470</v>
       </c>
       <c r="E238">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F238">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G238">
         <v>84</v>
@@ -7362,7 +7356,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
         <v>471</v>
@@ -7371,10 +7365,10 @@
         <v>472</v>
       </c>
       <c r="E239">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F239">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G239">
         <v>84</v>
@@ -7385,7 +7379,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C240" t="s">
         <v>473</v>
@@ -7394,13 +7388,13 @@
         <v>474</v>
       </c>
       <c r="E240">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F240">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G240">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -7417,10 +7411,10 @@
         <v>476</v>
       </c>
       <c r="E241">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F241">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G241">
         <v>87</v>
@@ -7431,7 +7425,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
         <v>477</v>
@@ -7440,10 +7434,10 @@
         <v>478</v>
       </c>
       <c r="E242">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F242">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G242">
         <v>87</v>
@@ -7454,7 +7448,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C243" t="s">
         <v>479</v>
@@ -7463,13 +7457,13 @@
         <v>480</v>
       </c>
       <c r="E243">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F243">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G243">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -7477,7 +7471,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s">
         <v>481</v>
@@ -7486,10 +7480,10 @@
         <v>482</v>
       </c>
       <c r="E244">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F244">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G244">
         <v>88</v>
@@ -7500,7 +7494,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C245" t="s">
         <v>483</v>
@@ -7509,10 +7503,10 @@
         <v>484</v>
       </c>
       <c r="E245">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F245">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G245">
         <v>88</v>
@@ -7523,7 +7517,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
         <v>485</v>
@@ -7532,10 +7526,10 @@
         <v>486</v>
       </c>
       <c r="E246">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F246">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G246">
         <v>88</v>
@@ -7546,7 +7540,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C247" t="s">
         <v>487</v>
@@ -7555,13 +7549,13 @@
         <v>488</v>
       </c>
       <c r="E247">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F247">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G247">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -7569,7 +7563,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>489</v>
@@ -7578,10 +7572,10 @@
         <v>490</v>
       </c>
       <c r="E248">
+        <v>20</v>
+      </c>
+      <c r="F248">
         <v>21</v>
-      </c>
-      <c r="F248">
-        <v>37</v>
       </c>
       <c r="G248">
         <v>91</v>
@@ -7592,7 +7586,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C249" t="s">
         <v>491</v>
@@ -7601,10 +7595,10 @@
         <v>492</v>
       </c>
       <c r="E249">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F249">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G249">
         <v>91</v>
@@ -7615,7 +7609,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C250" t="s">
         <v>493</v>
@@ -7624,35 +7618,12 @@
         <v>494</v>
       </c>
       <c r="E250">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F250">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="G250">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251">
-        <v>3</v>
-      </c>
-      <c r="C251" t="s">
-        <v>495</v>
-      </c>
-      <c r="D251" t="s">
-        <v>496</v>
-      </c>
-      <c r="E251">
-        <v>4</v>
-      </c>
-      <c r="F251">
-        <v>77</v>
-      </c>
-      <c r="G251">
         <v>92</v>
       </c>
     </row>

--- a/bdd_excel/Avis.xlsx
+++ b/bdd_excel/Avis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A78E9F9-C5DE-DF42-90E8-E08E3D857A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D402B2D4-07DA-406F-9E71-21E7FBC65F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{FFAC0233-3D28-634B-9D7E-2085D8CE6967}"/>
+    <workbookView xWindow="5140" yWindow="3150" windowWidth="14400" windowHeight="7270" xr2:uid="{FFAC0233-3D28-634B-9D7E-2085D8CE6967}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="496">
   <si>
     <t>id_avis</t>
   </si>
@@ -47,9 +47,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>id_jeu</t>
-  </si>
-  <si>
     <t>id_config</t>
   </si>
   <si>
@@ -536,15 +533,9 @@
     <t>'26-AUG-2018'</t>
   </si>
   <si>
-    <t>"Toujours une valeur sure [EDITEUR] !"</t>
-  </si>
-  <si>
     <t>'03-JAN-2015'</t>
   </si>
   <si>
-    <t>"Y en a pas bcp des bons jeu de [THEME], mais celui-là en fait partie !"</t>
-  </si>
-  <si>
     <t>'31-JAN-2015'</t>
   </si>
   <si>
@@ -578,9 +569,6 @@
     <t>'04-JUL-2020'</t>
   </si>
   <si>
-    <t>"Le gameplay n'est pas très passionnant… Heureusement que c'est illustré par [ILLUSTRATEUR] !"</t>
-  </si>
-  <si>
     <t>'08-MAY-2018'</t>
   </si>
   <si>
@@ -596,9 +584,6 @@
     <t>'11-MAY-2020'</t>
   </si>
   <si>
-    <t>"On retrouve bien la patte de [CREATEUR], ce qui nous donne un jeu agréable entre amis !"</t>
-  </si>
-  <si>
     <t>'05-OCT-2015'</t>
   </si>
   <si>
@@ -1172,21 +1157,12 @@
     <t>'25-JUL-2017'</t>
   </si>
   <si>
-    <t>"C'est un jeu de niche, qui plaira aux fans des jeux de [MECANIQUE] !"</t>
-  </si>
-  <si>
     <t>'09-OCT-2017'</t>
   </si>
   <si>
-    <t>"J'ai enfin trouvé le digne successeur de [JEU] !"</t>
-  </si>
-  <si>
     <t>'30-JAN-2016'</t>
   </si>
   <si>
-    <t>"Il est cool celui-là ! Tu voudras y jouer [PSEUDO] ?"</t>
-  </si>
-  <si>
     <t>'02-AUG-2019'</t>
   </si>
   <si>
@@ -1370,9 +1346,6 @@
     <t>"A la fois intuitif et complexe, il permet de faire de belles parties entre adeptes !"</t>
   </si>
   <si>
-    <t>"Parfait pour initier de nouveaux joueurs aux jeux de [MECANIQUE] !"</t>
-  </si>
-  <si>
     <t>'10-MAY-2021'</t>
   </si>
   <si>
@@ -1394,15 +1367,9 @@
     <t>'15-JAN-2022'</t>
   </si>
   <si>
-    <t>"Enfin un jeu de [THEME] à la hauteur !"</t>
-  </si>
-  <si>
     <t>'15-MAR-2017'</t>
   </si>
   <si>
-    <t>"[JEU], c'est la vie !"</t>
-  </si>
-  <si>
     <t>'22-JAN-2022'</t>
   </si>
   <si>
@@ -1424,15 +1391,9 @@
     <t>'23-OCT-2016'</t>
   </si>
   <si>
-    <t>"Un peu déçu venant de [CREATEUR] et [CREATEUR], c'est pas leur meilleur..."</t>
-  </si>
-  <si>
     <t>'18-NOV-2016'</t>
   </si>
   <si>
-    <t>"Une collaboration entre [CREATEUR] et [ILLUSTRATEUR] ne pouvait donner qu'un chef d'œuvre !"</t>
-  </si>
-  <si>
     <t>'26-MAR-2019'</t>
   </si>
   <si>
@@ -1454,9 +1415,6 @@
     <t>'11-OCT-2017'</t>
   </si>
   <si>
-    <t>"Et bien ! Je ne suis pas un grand fan des jeux de [MECANIQUE], mais je dois avouer que celui-ci a su me plaire !"</t>
-  </si>
-  <si>
     <t>'07-SEP-2022'</t>
   </si>
   <si>
@@ -1502,9 +1460,6 @@
     <t>'09-JUL-2015'</t>
   </si>
   <si>
-    <t>"Première fois que je teste un jeu de [EDITEUR] : résultat très concluant !"</t>
-  </si>
-  <si>
     <t>'12-JUL-2020'</t>
   </si>
   <si>
@@ -1524,6 +1479,48 @@
   </si>
   <si>
     <t>'03-JUN-2021'</t>
+  </si>
+  <si>
+    <t>"Le gameplay n'est pas très passionnant… Heureusement que c'est illustré par Vincent Dutrait !"</t>
+  </si>
+  <si>
+    <t>"On retrouve bien la patte de Bauza, ce qui nous donne un jeu agréable entre amis !"</t>
+  </si>
+  <si>
+    <t>"Toujours une valeur sure Libellud !"</t>
+  </si>
+  <si>
+    <t>"C'est un jeu de niche, qui plaira aux fans des jeux de bluff !"</t>
+  </si>
+  <si>
+    <t>"Y en a pas bcp des bons jeux policier, mais celui-là en fait partie !"</t>
+  </si>
+  <si>
+    <t>"J'ai enfin trouvé le digne successeur de Abyss !"</t>
+  </si>
+  <si>
+    <t>"Parfait pour initier de nouveaux joueurs aux jeux de construction et de stratégie !"</t>
+  </si>
+  <si>
+    <t>"Enfin un jeu de mythologie à la hauteur !"</t>
+  </si>
+  <si>
+    <t>"Quadropolis, c'est la vie !"</t>
+  </si>
+  <si>
+    <t>"Un peu déçu venant de Gandon et Miramon, c'est pas leur meilleur..."</t>
+  </si>
+  <si>
+    <t>"Une collaboration entre Theo Riviere et Miguel Coimbra ne pouvait donner qu'un chef d'œuvre !"</t>
+  </si>
+  <si>
+    <t>"Et bien ! Je ne suis pas un grand fan des jeux de cartes, mais je dois avouer que celui-ci a su me plaire !"</t>
+  </si>
+  <si>
+    <t>"Première fois que je teste un jeu de Repos Production : résultat très concluant !"</t>
+  </si>
+  <si>
+    <t>"Il est cool celui-là ! Tu voudras y jouer Ultia ?"</t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1556,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1875,22 +1875,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554BF90-C002-4843-AC84-EB706920A8E3}">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C188" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="42.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1902,5757 +1906,5004 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>84</v>
-      </c>
-      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>90</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>86</v>
-      </c>
-      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
       <c r="E6">
         <v>24</v>
       </c>
       <c r="F6">
-        <v>48</v>
-      </c>
-      <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>42</v>
-      </c>
-      <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>65</v>
-      </c>
-      <c r="G8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>23</v>
-      </c>
-      <c r="G9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>41</v>
-      </c>
-      <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
       <c r="E12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>83</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
       <c r="E13">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>98</v>
-      </c>
-      <c r="G14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
       <c r="E16">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
       <c r="E18">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>98</v>
-      </c>
-      <c r="G18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>96</v>
-      </c>
-      <c r="G19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>68</v>
-      </c>
-      <c r="G20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
       <c r="E21">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F22">
-        <v>86</v>
-      </c>
-      <c r="G22">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
       <c r="E23">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F23">
-        <v>73</v>
-      </c>
-      <c r="G23">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
       <c r="E24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>14</v>
-      </c>
-      <c r="G24">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>88</v>
-      </c>
-      <c r="G25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
       <c r="E26">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>65</v>
-      </c>
-      <c r="G26">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
       <c r="E27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>17</v>
       </c>
-      <c r="G27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
         <v>57</v>
       </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
       <c r="E28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
       <c r="E29">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F29">
-        <v>33</v>
-      </c>
-      <c r="G29">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
       <c r="E30">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>26</v>
-      </c>
-      <c r="G30">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
       <c r="E31">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F31">
-        <v>52</v>
-      </c>
-      <c r="G31">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
       <c r="E32">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
       <c r="E33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>65</v>
-      </c>
-      <c r="G33">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>11</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
       <c r="E34">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
         <v>71</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
       </c>
       <c r="E35">
         <v>27</v>
       </c>
       <c r="F35">
-        <v>14</v>
-      </c>
-      <c r="G35">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
         <v>73</v>
       </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
       <c r="E36">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F36">
-        <v>84</v>
-      </c>
-      <c r="G36">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
       <c r="E37">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>9</v>
-      </c>
-      <c r="G37">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>17</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>53</v>
-      </c>
-      <c r="G38">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
         <v>79</v>
       </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
       <c r="E39">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F39">
-        <v>30</v>
-      </c>
-      <c r="G39">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>81</v>
       </c>
-      <c r="D40" t="s">
-        <v>82</v>
-      </c>
       <c r="E40">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F40">
-        <v>89</v>
-      </c>
-      <c r="G40">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
       <c r="E41">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F41">
-        <v>21</v>
-      </c>
-      <c r="G41">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
         <v>85</v>
       </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
       <c r="E42">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
         <v>87</v>
       </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
       <c r="E43">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F43">
-        <v>21</v>
-      </c>
-      <c r="G43">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
         <v>89</v>
       </c>
-      <c r="D44" t="s">
-        <v>90</v>
-      </c>
       <c r="E44">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F44">
-        <v>32</v>
-      </c>
-      <c r="G44">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
         <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>92</v>
       </c>
       <c r="E45">
         <v>33</v>
       </c>
       <c r="F45">
-        <v>27</v>
-      </c>
-      <c r="G45">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
         <v>93</v>
       </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
       <c r="E46">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="D47" t="s">
-        <v>96</v>
-      </c>
       <c r="E47">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F47">
-        <v>101</v>
-      </c>
-      <c r="G47">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
         <v>97</v>
       </c>
-      <c r="D48" t="s">
-        <v>98</v>
-      </c>
       <c r="E48">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F48">
-        <v>53</v>
-      </c>
-      <c r="G48">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
         <v>99</v>
       </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
       <c r="E49">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F49">
-        <v>31</v>
-      </c>
-      <c r="G49">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>18</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
       <c r="E50">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <v>99</v>
-      </c>
-      <c r="G50">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>20</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
         <v>103</v>
       </c>
-      <c r="D51" t="s">
-        <v>104</v>
-      </c>
       <c r="E51">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>13</v>
-      </c>
-      <c r="G51">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>17</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
         <v>105</v>
       </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
       <c r="E52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>20</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
         <v>107</v>
       </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
       <c r="E53">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F53">
-        <v>61</v>
-      </c>
-      <c r="G53">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
         <v>109</v>
       </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
       <c r="E54">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
         <v>111</v>
       </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
       <c r="E55">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F55">
-        <v>23</v>
-      </c>
-      <c r="G55">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
         <v>113</v>
       </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
       <c r="E56">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>14</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
         <v>115</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
       </c>
       <c r="E57">
         <v>31</v>
       </c>
       <c r="F57">
-        <v>13</v>
-      </c>
-      <c r="G57">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
         <v>117</v>
       </c>
-      <c r="D58" t="s">
-        <v>118</v>
-      </c>
       <c r="E58">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F58">
-        <v>11</v>
-      </c>
-      <c r="G58">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>17</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
         <v>119</v>
       </c>
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
       <c r="E59">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F59">
-        <v>11</v>
-      </c>
-      <c r="G59">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
         <v>121</v>
       </c>
-      <c r="D60" t="s">
-        <v>122</v>
-      </c>
       <c r="E60">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F60">
-        <v>103</v>
-      </c>
-      <c r="G60">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>14</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
         <v>123</v>
       </c>
-      <c r="D61" t="s">
-        <v>124</v>
-      </c>
       <c r="E61">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F61">
-        <v>34</v>
-      </c>
-      <c r="G61">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>18</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
         <v>125</v>
       </c>
-      <c r="D62" t="s">
-        <v>126</v>
-      </c>
       <c r="E62">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F62">
-        <v>72</v>
-      </c>
-      <c r="G62">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>20</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
         <v>127</v>
       </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
       <c r="E63">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F63">
-        <v>103</v>
-      </c>
-      <c r="G63">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
         <v>129</v>
       </c>
-      <c r="D64" t="s">
-        <v>130</v>
-      </c>
       <c r="E64">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F64">
-        <v>92</v>
-      </c>
-      <c r="G64">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
         <v>131</v>
       </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
       <c r="E65">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F65">
-        <v>41</v>
-      </c>
-      <c r="G65">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>14</v>
       </c>
-      <c r="C66" t="s">
-        <v>133</v>
+      <c r="C66" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E66">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F66">
-        <v>46</v>
-      </c>
-      <c r="G66">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>15</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" t="s">
         <v>134</v>
       </c>
-      <c r="D67" t="s">
-        <v>135</v>
-      </c>
       <c r="E67">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F67">
-        <v>63</v>
-      </c>
-      <c r="G67">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
         <v>136</v>
       </c>
-      <c r="D68" t="s">
-        <v>137</v>
-      </c>
       <c r="E68">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>104</v>
-      </c>
-      <c r="G68">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>15</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
         <v>138</v>
       </c>
-      <c r="D69" t="s">
-        <v>139</v>
-      </c>
       <c r="E69">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>87</v>
-      </c>
-      <c r="G69">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>18</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" t="s">
         <v>140</v>
       </c>
-      <c r="D70" t="s">
-        <v>141</v>
-      </c>
       <c r="E70">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F70">
-        <v>84</v>
-      </c>
-      <c r="G70">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" t="s">
         <v>142</v>
       </c>
-      <c r="D71" t="s">
-        <v>143</v>
-      </c>
       <c r="E71">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F71">
-        <v>68</v>
-      </c>
-      <c r="G71">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
         <v>144</v>
       </c>
-      <c r="D72" t="s">
-        <v>145</v>
-      </c>
       <c r="E72">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>33</v>
-      </c>
-      <c r="G72">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
-      <c r="C73" t="s">
-        <v>83</v>
+      <c r="C73" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>21</v>
-      </c>
-      <c r="G73">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
         <v>147</v>
       </c>
-      <c r="D74" t="s">
-        <v>148</v>
-      </c>
       <c r="E74">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F74">
-        <v>104</v>
-      </c>
-      <c r="G74">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
         <v>149</v>
       </c>
-      <c r="D75" t="s">
-        <v>150</v>
-      </c>
       <c r="E75">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>32</v>
-      </c>
-      <c r="G75">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
         <v>151</v>
       </c>
-      <c r="D76" t="s">
-        <v>152</v>
-      </c>
       <c r="E76">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F76">
-        <v>30</v>
-      </c>
-      <c r="G76">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>14</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" t="s">
         <v>153</v>
       </c>
-      <c r="D77" t="s">
-        <v>154</v>
-      </c>
       <c r="E77">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F77">
-        <v>23</v>
-      </c>
-      <c r="G77">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>10</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
         <v>155</v>
       </c>
-      <c r="D78" t="s">
-        <v>156</v>
-      </c>
       <c r="E78">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F78">
-        <v>51</v>
-      </c>
-      <c r="G78">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
         <v>157</v>
       </c>
-      <c r="D79" t="s">
-        <v>158</v>
-      </c>
       <c r="E79">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F79">
-        <v>55</v>
-      </c>
-      <c r="G79">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>18</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
         <v>159</v>
       </c>
-      <c r="D80" t="s">
-        <v>160</v>
-      </c>
       <c r="E80">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F80">
-        <v>80</v>
-      </c>
-      <c r="G80">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
         <v>161</v>
       </c>
-      <c r="D81" t="s">
-        <v>162</v>
-      </c>
       <c r="E81">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F81">
-        <v>30</v>
-      </c>
-      <c r="G81">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>15</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
         <v>163</v>
       </c>
-      <c r="D82" t="s">
-        <v>164</v>
-      </c>
       <c r="E82">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F82">
-        <v>39</v>
-      </c>
-      <c r="G82">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" t="s">
         <v>165</v>
       </c>
-      <c r="D83" t="s">
-        <v>166</v>
-      </c>
       <c r="E83">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F83">
-        <v>28</v>
-      </c>
-      <c r="G83">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>18</v>
       </c>
-      <c r="C84" t="s">
-        <v>167</v>
+      <c r="C84" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="D84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E84">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F84">
         <v>53</v>
       </c>
-      <c r="G84">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>17</v>
       </c>
-      <c r="C85" t="s">
-        <v>169</v>
+      <c r="C85" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E85">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F85">
-        <v>76</v>
-      </c>
-      <c r="G85">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>7</v>
       </c>
-      <c r="C86" t="s">
-        <v>171</v>
+      <c r="C86" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F86">
-        <v>88</v>
-      </c>
-      <c r="G86">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>13</v>
       </c>
-      <c r="C87" t="s">
-        <v>173</v>
+      <c r="C87" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E87">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F87">
-        <v>50</v>
-      </c>
-      <c r="G87">
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>11</v>
       </c>
-      <c r="C88" t="s">
-        <v>175</v>
+      <c r="C88" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F88">
-        <v>45</v>
-      </c>
-      <c r="G88">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>19</v>
       </c>
-      <c r="C89" t="s">
-        <v>177</v>
+      <c r="C89" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E89">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F89">
-        <v>44</v>
-      </c>
-      <c r="G89">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>14</v>
       </c>
-      <c r="C90" t="s">
-        <v>179</v>
+      <c r="C90" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E90">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F90">
-        <v>92</v>
-      </c>
-      <c r="G90">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>12</v>
       </c>
-      <c r="C91" t="s">
-        <v>181</v>
+      <c r="C91" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F91">
-        <v>33</v>
-      </c>
-      <c r="G91">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>16</v>
       </c>
-      <c r="C92" t="s">
-        <v>183</v>
+      <c r="C92" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E92">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F92">
-        <v>12</v>
-      </c>
-      <c r="G92">
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>16</v>
       </c>
-      <c r="C93" t="s">
-        <v>185</v>
+      <c r="C93" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F93">
-        <v>46</v>
-      </c>
-      <c r="G93">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>15</v>
       </c>
-      <c r="C94" t="s">
-        <v>187</v>
+      <c r="C94" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E94">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F94">
-        <v>72</v>
-      </c>
-      <c r="G94">
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>14</v>
       </c>
-      <c r="C95" t="s">
-        <v>189</v>
+      <c r="C95" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E95">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>69</v>
-      </c>
-      <c r="G95">
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>16</v>
       </c>
-      <c r="C96" t="s">
-        <v>190</v>
+      <c r="C96" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E96">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>17</v>
       </c>
-      <c r="C97" t="s">
-        <v>192</v>
+      <c r="C97" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F97">
-        <v>104</v>
-      </c>
-      <c r="G97">
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
-      <c r="C98" t="s">
-        <v>194</v>
+      <c r="C98" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F98">
-        <v>23</v>
-      </c>
-      <c r="G98">
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>20</v>
       </c>
-      <c r="C99" t="s">
-        <v>196</v>
+      <c r="C99" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F99">
-        <v>30</v>
-      </c>
-      <c r="G99">
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>9</v>
       </c>
-      <c r="C100" t="s">
-        <v>198</v>
+      <c r="C100" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E100">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F100">
-        <v>20</v>
-      </c>
-      <c r="G100">
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>13</v>
       </c>
-      <c r="C101" t="s">
-        <v>200</v>
+      <c r="C101" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E101">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F101">
-        <v>17</v>
-      </c>
-      <c r="G101">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>15</v>
       </c>
-      <c r="C102" t="s">
-        <v>202</v>
+      <c r="C102" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D102" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F102">
-        <v>40</v>
-      </c>
-      <c r="G102">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="C103" t="s">
-        <v>204</v>
+      <c r="C103" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E103">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F103">
-        <v>74</v>
-      </c>
-      <c r="G103">
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
-      <c r="C104" t="s">
-        <v>206</v>
+      <c r="C104" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F104">
-        <v>74</v>
-      </c>
-      <c r="G104">
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <v>10</v>
       </c>
-      <c r="C105" t="s">
-        <v>208</v>
+      <c r="C105" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E105">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F105">
-        <v>63</v>
-      </c>
-      <c r="G105">
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>11</v>
       </c>
-      <c r="C106" t="s">
-        <v>210</v>
+      <c r="C106" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E106">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>6</v>
-      </c>
-      <c r="G106">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
-        <v>212</v>
+      <c r="C107" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E107">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107">
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <v>17</v>
       </c>
-      <c r="C108" t="s">
-        <v>214</v>
+      <c r="C108" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F108">
-        <v>79</v>
-      </c>
-      <c r="G108">
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <v>12</v>
       </c>
-      <c r="C109" t="s">
-        <v>216</v>
+      <c r="C109" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E109">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F109">
-        <v>86</v>
-      </c>
-      <c r="G109">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <v>18</v>
       </c>
-      <c r="C110" t="s">
-        <v>218</v>
+      <c r="C110" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E110">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F110">
-        <v>24</v>
-      </c>
-      <c r="G110">
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <v>7</v>
       </c>
-      <c r="C111" t="s">
-        <v>220</v>
+      <c r="C111" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E111">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F111">
-        <v>57</v>
-      </c>
-      <c r="G111">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
-      <c r="C112" t="s">
-        <v>222</v>
+      <c r="C112" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E112">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <v>14</v>
       </c>
-      <c r="C113" t="s">
-        <v>224</v>
+      <c r="C113" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E113">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F113">
-        <v>76</v>
-      </c>
-      <c r="G113">
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <v>14</v>
       </c>
-      <c r="C114" t="s">
-        <v>226</v>
+      <c r="C114" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E114">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F114">
-        <v>50</v>
-      </c>
-      <c r="G114">
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <v>16</v>
       </c>
-      <c r="C115" t="s">
-        <v>228</v>
+      <c r="C115" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E115">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F115">
-        <v>98</v>
-      </c>
-      <c r="G115">
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <v>6</v>
       </c>
-      <c r="C116" t="s">
-        <v>230</v>
+      <c r="C116" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E116">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F116">
-        <v>78</v>
-      </c>
-      <c r="G116">
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <v>13</v>
       </c>
-      <c r="C117" t="s">
-        <v>232</v>
+      <c r="C117" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E117">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F117">
-        <v>15</v>
-      </c>
-      <c r="G117">
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
-      <c r="C118" t="s">
-        <v>234</v>
+      <c r="C118" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D118" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F118">
-        <v>71</v>
-      </c>
-      <c r="G118">
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <v>16</v>
       </c>
-      <c r="C119" t="s">
-        <v>236</v>
+      <c r="C119" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="D119" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E119">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F119">
         <v>56</v>
       </c>
-      <c r="G119">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120" t="s">
-        <v>238</v>
+      <c r="C120" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E120">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F120">
-        <v>52</v>
-      </c>
-      <c r="G120">
         <v>56</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <v>18</v>
       </c>
-      <c r="C121" t="s">
-        <v>240</v>
+      <c r="C121" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E121">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F121">
-        <v>8</v>
-      </c>
-      <c r="G121">
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
-      <c r="C122" t="s">
-        <v>242</v>
+      <c r="C122" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E122">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F122">
-        <v>11</v>
-      </c>
-      <c r="G122">
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" t="s">
-        <v>244</v>
+      <c r="C123" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E123">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F123">
-        <v>30</v>
-      </c>
-      <c r="G123">
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" t="s">
-        <v>246</v>
+      <c r="C124" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F124">
-        <v>50</v>
-      </c>
-      <c r="G124">
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
         <v>11</v>
       </c>
-      <c r="C125" t="s">
-        <v>248</v>
+      <c r="C125" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>63</v>
-      </c>
-      <c r="G125">
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <v>17</v>
       </c>
-      <c r="C126" t="s">
-        <v>250</v>
+      <c r="C126" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="D126" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E126">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F126">
-        <v>91</v>
-      </c>
-      <c r="G126">
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <v>14</v>
       </c>
-      <c r="C127" t="s">
-        <v>252</v>
+      <c r="C127" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E127">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F127">
-        <v>37</v>
-      </c>
-      <c r="G127">
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <v>9</v>
       </c>
-      <c r="C128" t="s">
-        <v>254</v>
+      <c r="C128" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E128">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F128">
-        <v>25</v>
-      </c>
-      <c r="G128">
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <v>13</v>
       </c>
-      <c r="C129" t="s">
-        <v>256</v>
+      <c r="C129" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E129">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
         <v>16</v>
       </c>
-      <c r="C130" t="s">
-        <v>258</v>
+      <c r="C130" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="D130" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E130">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F130">
-        <v>2</v>
-      </c>
-      <c r="G130">
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
         <v>13</v>
       </c>
-      <c r="C131" t="s">
-        <v>260</v>
+      <c r="C131" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E131">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F131">
-        <v>2</v>
-      </c>
-      <c r="G131">
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
         <v>17</v>
       </c>
-      <c r="C132" t="s">
-        <v>262</v>
+      <c r="C132" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D132" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E132">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>70</v>
-      </c>
-      <c r="G132">
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
         <v>4</v>
       </c>
-      <c r="C133" t="s">
-        <v>264</v>
+      <c r="C133" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E133">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F133">
-        <v>79</v>
-      </c>
-      <c r="G133">
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
-      <c r="C134" t="s">
-        <v>266</v>
+      <c r="C134" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E134">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F134">
-        <v>91</v>
-      </c>
-      <c r="G134">
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
-      <c r="C135" t="s">
-        <v>268</v>
+      <c r="C135" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F135">
-        <v>2</v>
-      </c>
-      <c r="G135">
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
         <v>14</v>
       </c>
-      <c r="C136" t="s">
-        <v>270</v>
+      <c r="C136" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E136">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>8</v>
-      </c>
-      <c r="G136">
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <v>8</v>
       </c>
-      <c r="C137" t="s">
-        <v>272</v>
+      <c r="C137" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E137">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F137">
-        <v>43</v>
-      </c>
-      <c r="G137">
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
-      <c r="C138" t="s">
-        <v>274</v>
+      <c r="C138" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D138" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E138">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F138">
-        <v>11</v>
-      </c>
-      <c r="G138">
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
         <v>19</v>
       </c>
-      <c r="C139" t="s">
-        <v>276</v>
+      <c r="C139" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E139">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F139">
-        <v>104</v>
-      </c>
-      <c r="G139">
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <v>12</v>
       </c>
-      <c r="C140" t="s">
-        <v>278</v>
+      <c r="C140" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E140">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F140">
-        <v>15</v>
-      </c>
-      <c r="G140">
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <v>9</v>
       </c>
-      <c r="C141" t="s">
-        <v>280</v>
+      <c r="C141" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D141" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E141">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F141">
-        <v>60</v>
-      </c>
-      <c r="G141">
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <v>11</v>
       </c>
-      <c r="C142" t="s">
-        <v>282</v>
+      <c r="C142" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D142" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E142">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F142">
-        <v>11</v>
-      </c>
-      <c r="G142">
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <v>12</v>
       </c>
-      <c r="C143" t="s">
-        <v>284</v>
+      <c r="C143" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="D143" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E143">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F143">
-        <v>89</v>
-      </c>
-      <c r="G143">
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <v>16</v>
       </c>
-      <c r="C144" t="s">
-        <v>286</v>
+      <c r="C144" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D144" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E144">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F144">
-        <v>67</v>
-      </c>
-      <c r="G144">
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145" t="s">
-        <v>288</v>
+      <c r="C145" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D145" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="F145">
-        <v>70</v>
-      </c>
-      <c r="G145">
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <v>19</v>
       </c>
-      <c r="C146" t="s">
-        <v>290</v>
+      <c r="C146" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="D146" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E146">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
-      <c r="C147" t="s">
-        <v>292</v>
+      <c r="C147" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="D147" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F147">
-        <v>27</v>
-      </c>
-      <c r="G147">
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <v>11</v>
       </c>
-      <c r="C148" t="s">
-        <v>294</v>
+      <c r="C148" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D148" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E148">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F148">
-        <v>28</v>
-      </c>
-      <c r="G148">
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <v>6</v>
       </c>
-      <c r="C149" t="s">
-        <v>296</v>
+      <c r="C149" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="D149" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E149">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F149">
-        <v>19</v>
-      </c>
-      <c r="G149">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <v>5</v>
       </c>
-      <c r="C150" t="s">
-        <v>298</v>
+      <c r="C150" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="D150" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E150">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F150">
-        <v>61</v>
-      </c>
-      <c r="G150">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
         <v>14</v>
       </c>
-      <c r="C151" t="s">
-        <v>300</v>
+      <c r="C151" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D151" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F151">
-        <v>15</v>
-      </c>
-      <c r="G151">
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
         <v>15</v>
       </c>
-      <c r="C152" t="s">
-        <v>302</v>
+      <c r="C152" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="D152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E152">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F152">
-        <v>21</v>
-      </c>
-      <c r="G152">
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153" t="s">
-        <v>304</v>
+      <c r="C153" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E153">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F153">
-        <v>102</v>
-      </c>
-      <c r="G153">
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
         <v>17</v>
       </c>
-      <c r="C154" t="s">
-        <v>306</v>
+      <c r="C154" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="D154" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E154">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F154">
-        <v>35</v>
-      </c>
-      <c r="G154">
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
         <v>18</v>
       </c>
-      <c r="C155" t="s">
-        <v>308</v>
+      <c r="C155" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="D155" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E155">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F155">
-        <v>99</v>
-      </c>
-      <c r="G155">
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
         <v>12</v>
       </c>
-      <c r="C156" t="s">
-        <v>310</v>
+      <c r="C156" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="D156" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E156">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F156">
-        <v>66</v>
-      </c>
-      <c r="G156">
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
         <v>16</v>
       </c>
-      <c r="C157" t="s">
-        <v>312</v>
+      <c r="C157" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="D157" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E157">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F157">
-        <v>20</v>
-      </c>
-      <c r="G157">
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
         <v>18</v>
       </c>
-      <c r="C158" t="s">
-        <v>314</v>
+      <c r="C158" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D158" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E158">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F158">
-        <v>29</v>
-      </c>
-      <c r="G158">
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
         <v>16</v>
       </c>
-      <c r="C159" t="s">
-        <v>316</v>
+      <c r="C159" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="D159" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E159">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F159">
-        <v>43</v>
-      </c>
-      <c r="G159">
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
         <v>17</v>
       </c>
-      <c r="C160" t="s">
-        <v>318</v>
+      <c r="C160" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="D160" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E160">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F160">
-        <v>63</v>
-      </c>
-      <c r="G160">
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161" t="s">
-        <v>320</v>
+      <c r="C161" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="D161" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F161">
-        <v>50</v>
-      </c>
-      <c r="G161">
         <v>59</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
         <v>11</v>
       </c>
-      <c r="C162" t="s">
-        <v>322</v>
+      <c r="C162" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="D162" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E162">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F162">
-        <v>48</v>
-      </c>
-      <c r="G162">
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163" t="s">
-        <v>324</v>
+      <c r="C163" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="D163" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E163">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F163">
-        <v>51</v>
-      </c>
-      <c r="G163">
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
-      <c r="C164" t="s">
-        <v>326</v>
+      <c r="C164" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="D164" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E164">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F164">
-        <v>12</v>
-      </c>
-      <c r="G164">
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
         <v>4</v>
       </c>
-      <c r="C165" t="s">
-        <v>328</v>
+      <c r="C165" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="D165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E165">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F165">
-        <v>78</v>
-      </c>
-      <c r="G165">
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
         <v>5</v>
       </c>
-      <c r="C166" t="s">
-        <v>329</v>
+      <c r="C166" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E166">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>57</v>
-      </c>
-      <c r="G166">
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
-      <c r="C167" t="s">
-        <v>331</v>
+      <c r="C167" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="D167" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E167">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F167">
-        <v>16</v>
-      </c>
-      <c r="G167">
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
-      <c r="C168" t="s">
-        <v>333</v>
+      <c r="C168" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="D168" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E168">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F168">
-        <v>7</v>
-      </c>
-      <c r="G168">
         <v>59</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
-      <c r="C169" t="s">
-        <v>335</v>
+      <c r="C169" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="D169" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E169">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F169">
-        <v>26</v>
-      </c>
-      <c r="G169">
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
         <v>11</v>
       </c>
-      <c r="C170" t="s">
-        <v>336</v>
+      <c r="C170" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="D170" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E170">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F170">
-        <v>26</v>
-      </c>
-      <c r="G170">
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
         <v>9</v>
       </c>
-      <c r="C171" t="s">
-        <v>338</v>
+      <c r="C171" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="D171" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E171">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F171">
-        <v>37</v>
-      </c>
-      <c r="G171">
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" t="s">
-        <v>340</v>
+      <c r="C172" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="D172" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
         <v>10</v>
       </c>
-      <c r="C173" t="s">
-        <v>342</v>
+      <c r="C173" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="D173" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E173">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F173">
-        <v>31</v>
-      </c>
-      <c r="G173">
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
         <v>18</v>
       </c>
-      <c r="C174" t="s">
-        <v>344</v>
+      <c r="C174" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="D174" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E174">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F174">
-        <v>91</v>
-      </c>
-      <c r="G174">
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
         <v>8</v>
       </c>
-      <c r="C175" t="s">
-        <v>346</v>
+      <c r="C175" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="D175" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E175">
         <v>43</v>
       </c>
       <c r="F175">
-        <v>95</v>
-      </c>
-      <c r="G175">
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
         <v>7</v>
       </c>
-      <c r="C176" t="s">
-        <v>348</v>
+      <c r="C176" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="D176" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E176">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F176">
-        <v>84</v>
-      </c>
-      <c r="G176">
         <v>59</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
         <v>19</v>
       </c>
-      <c r="C177" t="s">
-        <v>350</v>
+      <c r="C177" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="D177" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E177">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F177">
-        <v>37</v>
-      </c>
-      <c r="G177">
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
         <v>13</v>
       </c>
-      <c r="C178" t="s">
-        <v>352</v>
+      <c r="C178" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="D178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F178">
-        <v>90</v>
-      </c>
-      <c r="G178">
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
         <v>9</v>
       </c>
-      <c r="C179" t="s">
-        <v>353</v>
+      <c r="C179" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="D179" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E179">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F179">
-        <v>104</v>
-      </c>
-      <c r="G179">
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
         <v>13</v>
       </c>
-      <c r="C180" t="s">
-        <v>355</v>
+      <c r="C180" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D180" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E180">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F180">
-        <v>92</v>
-      </c>
-      <c r="G180">
         <v>59</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
         <v>8</v>
       </c>
-      <c r="C181" t="s">
-        <v>357</v>
+      <c r="C181" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D181" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
         <v>11</v>
       </c>
-      <c r="C182" t="s">
-        <v>359</v>
+      <c r="C182" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E182">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F182">
-        <v>20</v>
-      </c>
-      <c r="G182">
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
         <v>14</v>
       </c>
-      <c r="C183" t="s">
-        <v>361</v>
+      <c r="C183" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="D183" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E183">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F183">
-        <v>91</v>
-      </c>
-      <c r="G183">
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
         <v>18</v>
       </c>
-      <c r="C184" t="s">
-        <v>363</v>
+      <c r="C184" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="D184" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E184">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F184">
-        <v>18</v>
-      </c>
-      <c r="G184">
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
         <v>8</v>
       </c>
-      <c r="C185" t="s">
-        <v>365</v>
+      <c r="C185" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="D185" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E185">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F185">
-        <v>54</v>
-      </c>
-      <c r="G185">
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
         <v>15</v>
       </c>
-      <c r="C186" t="s">
-        <v>367</v>
+      <c r="C186" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="D186" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E186">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F186">
-        <v>11</v>
-      </c>
-      <c r="G186">
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187" t="s">
-        <v>369</v>
+      <c r="C187" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="D187" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E187">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F187">
-        <v>40</v>
-      </c>
-      <c r="G187">
         <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188" t="s">
-        <v>371</v>
+      <c r="C188" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D188" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E188">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F188">
-        <v>25</v>
-      </c>
-      <c r="G188">
         <v>62</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189" t="s">
-        <v>373</v>
+      <c r="C189" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="D189" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E189">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F189">
-        <v>51</v>
-      </c>
-      <c r="G189">
         <v>64</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
         <v>18</v>
       </c>
-      <c r="C190" t="s">
-        <v>375</v>
+      <c r="C190" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="D190" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E190">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F190">
-        <v>89</v>
-      </c>
-      <c r="G190">
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
         <v>6</v>
       </c>
-      <c r="C191" t="s">
-        <v>377</v>
+      <c r="C191" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="D191" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E191">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F191">
-        <v>41</v>
-      </c>
-      <c r="G191">
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
         <v>16</v>
       </c>
-      <c r="C192" t="s">
-        <v>379</v>
+      <c r="C192" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="D192" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E192">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F192">
-        <v>82</v>
-      </c>
-      <c r="G192">
         <v>64</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
         <v>19</v>
       </c>
-      <c r="C193" t="s">
-        <v>381</v>
+      <c r="C193" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="D193" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F193">
-        <v>13</v>
-      </c>
-      <c r="G193">
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
         <v>17</v>
       </c>
-      <c r="C194" t="s">
-        <v>383</v>
+      <c r="C194" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="D194" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E194">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F194">
-        <v>59</v>
-      </c>
-      <c r="G194">
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
         <v>20</v>
       </c>
-      <c r="C195" t="s">
-        <v>385</v>
+      <c r="C195" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D195" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F195">
-        <v>38</v>
-      </c>
-      <c r="G195">
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
         <v>19</v>
       </c>
-      <c r="C196" t="s">
-        <v>387</v>
+      <c r="C196" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="D196" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E196">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F196">
-        <v>63</v>
-      </c>
-      <c r="G196">
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
         <v>4</v>
       </c>
-      <c r="C197" t="s">
-        <v>389</v>
+      <c r="C197" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D197" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E197">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F197">
-        <v>99</v>
-      </c>
-      <c r="G197">
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
         <v>15</v>
       </c>
-      <c r="C198" t="s">
-        <v>391</v>
+      <c r="C198" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D198" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E198">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F198">
-        <v>99</v>
-      </c>
-      <c r="G198">
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
-      <c r="C199" t="s">
-        <v>393</v>
+      <c r="C199" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D199" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E199">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F199">
-        <v>24</v>
-      </c>
-      <c r="G199">
         <v>66</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
         <v>11</v>
       </c>
-      <c r="C200" t="s">
-        <v>395</v>
+      <c r="C200" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="D200" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F200">
-        <v>31</v>
-      </c>
-      <c r="G200">
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
         <v>6</v>
       </c>
-      <c r="C201" t="s">
-        <v>397</v>
+      <c r="C201" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D201" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E201">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F201">
-        <v>100</v>
-      </c>
-      <c r="G201">
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
-      <c r="C202" t="s">
-        <v>399</v>
+      <c r="C202" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D202" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E202">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F202">
-        <v>61</v>
-      </c>
-      <c r="G202">
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
         <v>14</v>
       </c>
-      <c r="C203" t="s">
-        <v>400</v>
+      <c r="C203" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="D203" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E203">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F203">
-        <v>82</v>
-      </c>
-      <c r="G203">
         <v>66</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
         <v>17</v>
       </c>
-      <c r="C204" t="s">
-        <v>402</v>
+      <c r="C204" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="D204" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F204">
-        <v>15</v>
-      </c>
-      <c r="G204">
         <v>66</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
         <v>17</v>
       </c>
-      <c r="C205" t="s">
-        <v>404</v>
+      <c r="C205" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="D205" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E205">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F205">
-        <v>7</v>
-      </c>
-      <c r="G205">
         <v>66</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
         <v>10</v>
       </c>
-      <c r="C206" t="s">
-        <v>406</v>
+      <c r="C206" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D206" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E206">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F206">
-        <v>5</v>
-      </c>
-      <c r="G206">
         <v>66</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
         <v>18</v>
       </c>
-      <c r="C207" t="s">
-        <v>408</v>
+      <c r="C207" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D207" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E207">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F207">
-        <v>52</v>
-      </c>
-      <c r="G207">
         <v>66</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
         <v>18</v>
       </c>
-      <c r="C208" t="s">
-        <v>410</v>
+      <c r="C208" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="D208" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E208">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F208">
-        <v>76</v>
-      </c>
-      <c r="G208">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
         <v>15</v>
       </c>
-      <c r="C209" t="s">
-        <v>412</v>
+      <c r="C209" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="D209" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F209">
-        <v>84</v>
-      </c>
-      <c r="G209">
         <v>66</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-      <c r="C210" t="s">
-        <v>414</v>
+      <c r="C210" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="D210" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E210">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F210">
-        <v>50</v>
-      </c>
-      <c r="G210">
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-      <c r="C211" t="s">
-        <v>416</v>
+      <c r="C211" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="D211" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E211">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F211">
-        <v>54</v>
-      </c>
-      <c r="G211">
         <v>68</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
         <v>17</v>
       </c>
-      <c r="C212" t="s">
-        <v>418</v>
+      <c r="C212" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="D212" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E212">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F212">
-        <v>79</v>
-      </c>
-      <c r="G212">
         <v>69</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
         <v>18</v>
       </c>
-      <c r="C213" t="s">
-        <v>420</v>
+      <c r="C213" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="D213" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E213">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F213">
-        <v>80</v>
-      </c>
-      <c r="G213">
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
         <v>16</v>
       </c>
-      <c r="C214" t="s">
-        <v>422</v>
+      <c r="C214" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="D214" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F214">
-        <v>55</v>
-      </c>
-      <c r="G214">
         <v>70</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
         <v>18</v>
       </c>
-      <c r="C215" t="s">
-        <v>424</v>
+      <c r="C215" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="D215" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E215">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F215">
-        <v>0</v>
-      </c>
-      <c r="G215">
         <v>70</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
         <v>15</v>
       </c>
-      <c r="C216" t="s">
-        <v>426</v>
+      <c r="C216" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="D216" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="F216">
-        <v>38</v>
-      </c>
-      <c r="G216">
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
         <v>4</v>
       </c>
-      <c r="C217" t="s">
-        <v>428</v>
+      <c r="C217" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="D217" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E217">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F217">
-        <v>34</v>
-      </c>
-      <c r="G217">
         <v>70</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
         <v>8</v>
       </c>
-      <c r="C218" t="s">
-        <v>430</v>
+      <c r="C218" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="D218" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F218">
-        <v>73</v>
-      </c>
-      <c r="G218">
         <v>70</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
         <v>2</v>
       </c>
-      <c r="C219" t="s">
-        <v>432</v>
+      <c r="C219" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="D219" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E219">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>90</v>
-      </c>
-      <c r="G219">
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
         <v>18</v>
       </c>
-      <c r="C220" t="s">
-        <v>434</v>
+      <c r="C220" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="D220" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E220">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F220">
-        <v>96</v>
-      </c>
-      <c r="G220">
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
         <v>7</v>
       </c>
-      <c r="C221" t="s">
-        <v>436</v>
+      <c r="C221" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="D221" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E221">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F221">
-        <v>100</v>
-      </c>
-      <c r="G221">
         <v>70</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
         <v>14</v>
       </c>
-      <c r="C222" t="s">
-        <v>438</v>
+      <c r="C222" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="D222" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E222">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F222">
-        <v>102</v>
-      </c>
-      <c r="G222">
         <v>70</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
         <v>17</v>
       </c>
-      <c r="C223" t="s">
-        <v>440</v>
+      <c r="C223" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="D223" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E223">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F223">
         <v>72</v>
       </c>
-      <c r="G223">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
         <v>13</v>
       </c>
-      <c r="C224" t="s">
-        <v>442</v>
+      <c r="C224" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="D224" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E224">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F224">
-        <v>86</v>
-      </c>
-      <c r="G224">
         <v>72</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
         <v>16</v>
       </c>
-      <c r="C225" t="s">
-        <v>444</v>
+      <c r="C225" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="D225" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E225">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F225">
-        <v>36</v>
-      </c>
-      <c r="G225">
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
         <v>17</v>
       </c>
-      <c r="C226" t="s">
-        <v>445</v>
+      <c r="C226" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="D226" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E226">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F226">
-        <v>47</v>
-      </c>
-      <c r="G226">
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
         <v>7</v>
       </c>
-      <c r="C227" t="s">
-        <v>447</v>
+      <c r="C227" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="D227" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E227">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F227">
-        <v>78</v>
-      </c>
-      <c r="G227">
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
         <v>18</v>
       </c>
-      <c r="C228" t="s">
-        <v>449</v>
+      <c r="C228" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="D228" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E228">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F228">
-        <v>20</v>
-      </c>
-      <c r="G228">
         <v>74</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
         <v>11</v>
       </c>
-      <c r="C229" t="s">
-        <v>451</v>
+      <c r="C229" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="D229" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E229">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F229">
-        <v>99</v>
-      </c>
-      <c r="G229">
         <v>74</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
         <v>17</v>
       </c>
-      <c r="C230" t="s">
-        <v>453</v>
+      <c r="C230" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="D230" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E230">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F230">
-        <v>103</v>
-      </c>
-      <c r="G230">
         <v>75</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
         <v>20</v>
       </c>
-      <c r="C231" t="s">
-        <v>455</v>
+      <c r="C231" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="D231" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E231">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F231">
-        <v>97</v>
-      </c>
-      <c r="G231">
         <v>76</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232" t="s">
-        <v>457</v>
+      <c r="C232" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="D232" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E232">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F232">
-        <v>48</v>
-      </c>
-      <c r="G232">
         <v>77</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233">
         <v>17</v>
       </c>
-      <c r="C233" t="s">
-        <v>459</v>
+      <c r="C233" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="D233" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E233">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F233">
-        <v>71</v>
-      </c>
-      <c r="G233">
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234">
         <v>15</v>
       </c>
-      <c r="C234" t="s">
-        <v>461</v>
+      <c r="C234" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="D234" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F234">
-        <v>12</v>
-      </c>
-      <c r="G234">
         <v>78</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235">
         <v>11</v>
       </c>
-      <c r="C235" t="s">
-        <v>463</v>
+      <c r="C235" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="D235" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E235">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F235">
-        <v>97</v>
-      </c>
-      <c r="G235">
         <v>80</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236">
         <v>20</v>
       </c>
-      <c r="C236" t="s">
-        <v>465</v>
+      <c r="C236" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="D236" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E236">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F236">
-        <v>68</v>
-      </c>
-      <c r="G236">
         <v>84</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237">
         <v>10</v>
       </c>
-      <c r="C237" t="s">
-        <v>467</v>
+      <c r="C237" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="D237" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E237">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F237">
-        <v>58</v>
-      </c>
-      <c r="G237">
         <v>84</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238">
         <v>18</v>
       </c>
-      <c r="C238" t="s">
-        <v>469</v>
+      <c r="C238" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="D238" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E238">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F238">
-        <v>14</v>
-      </c>
-      <c r="G238">
         <v>84</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239">
         <v>9</v>
       </c>
-      <c r="C239" t="s">
-        <v>471</v>
+      <c r="C239" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="D239" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E239">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F239">
-        <v>11</v>
-      </c>
-      <c r="G239">
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240">
         <v>17</v>
       </c>
-      <c r="C240" t="s">
-        <v>473</v>
+      <c r="C240" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="D240" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E240">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F240">
-        <v>95</v>
-      </c>
-      <c r="G240">
         <v>84</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241">
         <v>15</v>
       </c>
-      <c r="C241" t="s">
-        <v>475</v>
+      <c r="C241" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="D241" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="E241">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F241">
-        <v>69</v>
-      </c>
-      <c r="G241">
         <v>87</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
         <v>15</v>
       </c>
-      <c r="C242" t="s">
-        <v>477</v>
+      <c r="C242" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="D242" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E242">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F242">
-        <v>9</v>
-      </c>
-      <c r="G242">
         <v>87</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
         <v>11</v>
       </c>
-      <c r="C243" t="s">
-        <v>479</v>
+      <c r="C243" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="D243" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E243">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F243">
-        <v>13</v>
-      </c>
-      <c r="G243">
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
         <v>12</v>
       </c>
-      <c r="C244" t="s">
-        <v>481</v>
+      <c r="C244" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="D244" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E244">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F244">
-        <v>16</v>
-      </c>
-      <c r="G244">
         <v>88</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
         <v>11</v>
       </c>
-      <c r="C245" t="s">
-        <v>483</v>
+      <c r="C245" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="D245" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E245">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F245">
-        <v>38</v>
-      </c>
-      <c r="G245">
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
         <v>10</v>
       </c>
-      <c r="C246" t="s">
-        <v>485</v>
+      <c r="C246" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="D246" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E246">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F246">
-        <v>49</v>
-      </c>
-      <c r="G246">
         <v>88</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
         <v>9</v>
       </c>
-      <c r="C247" t="s">
-        <v>487</v>
+      <c r="C247" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="D247" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E247">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F247">
-        <v>65</v>
-      </c>
-      <c r="G247">
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
         <v>17</v>
       </c>
-      <c r="C248" t="s">
-        <v>489</v>
+      <c r="C248" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="D248" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="E248">
         <v>21</v>
       </c>
       <c r="F248">
-        <v>37</v>
-      </c>
-      <c r="G248">
         <v>91</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
         <v>7</v>
       </c>
-      <c r="C249" t="s">
-        <v>491</v>
+      <c r="C249" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="D249" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E249">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F249">
-        <v>21</v>
-      </c>
-      <c r="G249">
         <v>91</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
         <v>15</v>
       </c>
-      <c r="C250" t="s">
-        <v>493</v>
+      <c r="C250" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="D250" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="E250">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F250">
-        <v>17</v>
-      </c>
-      <c r="G250">
         <v>91</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
-      <c r="C251" t="s">
-        <v>495</v>
+      <c r="C251" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D251" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E251">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F251">
-        <v>77</v>
-      </c>
-      <c r="G251">
         <v>92</v>
       </c>
     </row>

--- a/bdd_excel/Avis.xlsx
+++ b/bdd_excel/Avis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D402B2D4-07DA-406F-9E71-21E7FBC65F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA31D2C-AB31-044E-9965-8F16D92BD936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3150" windowWidth="14400" windowHeight="7270" xr2:uid="{FFAC0233-3D28-634B-9D7E-2085D8CE6967}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{FFAC0233-3D28-634B-9D7E-2085D8CE6967}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
   <si>
     <t>id_avis</t>
   </si>
@@ -56,1429 +56,700 @@
     <t>"Incroyable ce jeu ! Probablement le meilleur de l'année ! Je conseille fortement !"</t>
   </si>
   <si>
-    <t>'28-MAY-2020'</t>
-  </si>
-  <si>
     <t>"Quelle déception ! Je l'attendais tellement mais il manque trop de contenu, en 30min on a vite fait le tour..."</t>
   </si>
   <si>
-    <t>'14-JAN-2019'</t>
-  </si>
-  <si>
     <t>"Très sympa à jouer avec des amis !"</t>
   </si>
   <si>
-    <t>'26-AUG-2021'</t>
-  </si>
-  <si>
     <t>"C'est pas le jeu de l'année, mais il saura vous occuper pendant une soirée ou deux !"</t>
   </si>
   <si>
-    <t>'03-MAR-2022'</t>
-  </si>
-  <si>
     <t>"Pas mal !"</t>
   </si>
   <si>
-    <t>'14-APR-2018'</t>
-  </si>
-  <si>
     <t>"Pas bien !"</t>
   </si>
   <si>
-    <t>'21-JAN-2019'</t>
-  </si>
-  <si>
     <t>"G pa kompri lé regle"</t>
   </si>
   <si>
-    <t>'21-JUL-2015'</t>
-  </si>
-  <si>
     <t>"Incroyable  ! Mon jeu préféré !"</t>
   </si>
   <si>
-    <t>'03-APR-2022'</t>
-  </si>
-  <si>
     <t>"Exceptionnel ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
-    <t>'23-DEC-2022'</t>
-  </si>
-  <si>
     <t>"Magistral ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
-    <t>'29-JAN-2020'</t>
-  </si>
-  <si>
     <t>"WOOOOOOOOOOOOOOOOOOOOW ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
-    <t>'27-FEB-2019'</t>
-  </si>
-  <si>
     <t>"Un peu cher pour sa durée de vie mais néanmoins agréable !"</t>
   </si>
   <si>
-    <t>'12-SEP-2020'</t>
-  </si>
-  <si>
     <t>"Parfait pour jouer avec ses enfants !"</t>
   </si>
   <si>
-    <t>'28-JAN-2019'</t>
-  </si>
-  <si>
     <t>"Mon dieu ! Mais quelle horreur ! Ce jeu n'a pour seul objectif de rendre vos enfants violents ! Je suis OUTRÉ !"</t>
   </si>
   <si>
-    <t>'11-JUN-2015'</t>
-  </si>
-  <si>
     <t>"Excellent jeu avec une durée de vie infinie !"</t>
   </si>
   <si>
-    <t>'09-JUL-2016'</t>
-  </si>
-  <si>
     <t>"Oui"</t>
   </si>
   <si>
-    <t>'03-JUL-2022'</t>
-  </si>
-  <si>
     <t>"Non"</t>
   </si>
   <si>
-    <t>'06-OCT-2020'</t>
-  </si>
-  <si>
-    <t>'20-SEP-2017'</t>
-  </si>
-  <si>
-    <t>'05-JUN-2021'</t>
-  </si>
-  <si>
     <t>"enorme c incr com jeu"</t>
   </si>
   <si>
-    <t>'18-FEB-2022'</t>
-  </si>
-  <si>
     <t>"vrmt bien quan ta rien a fair"</t>
   </si>
   <si>
-    <t>'07-JAN-2022'</t>
-  </si>
-  <si>
     <t>"On faisait mieux en 2001…"</t>
   </si>
   <si>
-    <t>'29-NOV-2019'</t>
-  </si>
-  <si>
     <t>"C'est un jeu maudit !"</t>
   </si>
   <si>
-    <t>'02-JUL-2015'</t>
-  </si>
-  <si>
     <t>"Juste une dingz"</t>
   </si>
   <si>
-    <t>'10-FEB-2020'</t>
-  </si>
-  <si>
     <t>"Juste une double dingz"</t>
   </si>
   <si>
-    <t>'09-JAN-2019'</t>
-  </si>
-  <si>
     <t>"Comment on se fait rembourser ?"</t>
   </si>
   <si>
-    <t>'03-MAY-2021'</t>
-  </si>
-  <si>
     <t>"Durée de vie : ++ / Gameplay : - / Equilibrage : - / Design : +"</t>
   </si>
   <si>
-    <t>'12-JAN-2019'</t>
-  </si>
-  <si>
     <t>"Durée de vie : + / Gameplay : ++ / Equilibrage : - / Design : +"</t>
   </si>
   <si>
-    <t>'20-JAN-2020'</t>
-  </si>
-  <si>
     <t>"Durée de vie : -- / Gameplay : + / Equilibrage : - / Design : -"</t>
   </si>
   <si>
-    <t>'27-MAY-2018'</t>
-  </si>
-  <si>
     <t>"Durée de vie : + / Gameplay : + / Equilibrage : + / Design : ++"</t>
   </si>
   <si>
-    <t>'29-JUN-2017'</t>
-  </si>
-  <si>
     <t>"Durée de vie : ++ / Gameplay : ++ / Equilibrage : + / Design : ++"</t>
   </si>
   <si>
-    <t>'06-FEB-2022'</t>
-  </si>
-  <si>
     <t>"Durée de vie : - / Gameplay : + / Equilibrage : -- / Design : +"</t>
   </si>
   <si>
-    <t>'02-DEC-2016'</t>
-  </si>
-  <si>
     <t>"Durée de vie : -- / Gameplay : ++ / Equilibrage : + / Design : -"</t>
   </si>
   <si>
-    <t>'15-APR-2016'</t>
-  </si>
-  <si>
     <t>"Durée de vie : + / Gameplay : -- / Equilibrage : ++ / Design : +"</t>
   </si>
   <si>
-    <t>'17-MAR-2020'</t>
-  </si>
-  <si>
     <t>"Durée de vie : - / Gameplay : + / Equilibrage : + / Design : +"</t>
   </si>
   <si>
-    <t>'03-OCT-2019'</t>
-  </si>
-  <si>
     <t>"Durée de vie : -- / Gameplay : -- / Equilibrage : - / Design : --"</t>
   </si>
   <si>
-    <t>'13-MAY-2016'</t>
-  </si>
-  <si>
     <t>"Durée de vie : ++ / Gameplay : ++ / Equilibrage : - / Design : ++"</t>
   </si>
   <si>
-    <t>'12-SEP-2019'</t>
-  </si>
-  <si>
     <t>"Vraiment pas mal ce petit jeu !"</t>
   </si>
   <si>
-    <t>'18-MAY-2015'</t>
-  </si>
-  <si>
     <t>"Un classique !"</t>
   </si>
   <si>
-    <t>'20-AUG-2020'</t>
-  </si>
-  <si>
     <t>"Bof"</t>
   </si>
   <si>
-    <t>'16-OCT-2017'</t>
-  </si>
-  <si>
     <t>"Un très bon jeu ! Si y en a qui cherchent des gens pour jouer, vous pouvez m'ajouter, mon pseudo c'est Whiskey"</t>
   </si>
   <si>
-    <t>'03-MAY-2016'</t>
-  </si>
-  <si>
     <t>"Il était une école, qui avait tout gagné…"</t>
   </si>
   <si>
-    <t>'24-SEP-2018'</t>
-  </si>
-  <si>
     <t>"Catastrophique ! Une honte de vendre un jeu pareil !"</t>
   </si>
   <si>
-    <t>'09-MAR-2016'</t>
-  </si>
-  <si>
     <t>"Si l'ennui est votre passion, alors n'hésitez pas !"</t>
   </si>
   <si>
-    <t>'04-JUL-2021'</t>
-  </si>
-  <si>
     <t>"Remplir sa fiche d'impôsition est du fun à l'état pur à côté de ça..."</t>
   </si>
   <si>
-    <t>'19-MAR-2022'</t>
-  </si>
-  <si>
     <t>"Wow ! Ils ont dû redoubler d'effort pour réussir à condenser tout ce qui s'oppose à l'amusement en un seul jeu !"</t>
   </si>
   <si>
-    <t>'27-MAR-2022'</t>
-  </si>
-  <si>
     <t>"Ce jeu me rappelle mon fils : j'en voulais pas, il m'a coûté plus cher que ce qu'il m'a rapporté et même si j'en attendais rien, j'ai quand même été déçu…"</t>
   </si>
   <si>
-    <t>'31-OCT-2019'</t>
-  </si>
-  <si>
     <t>"Alors là, j'ai plus les mots…"</t>
   </si>
   <si>
-    <t>'20-FEB-2021'</t>
-  </si>
-  <si>
     <t>"Du pain béni !"</t>
   </si>
   <si>
-    <t>'11-JUN-2022'</t>
-  </si>
-  <si>
     <t>"MASTERCLASS !! Vous devez y jouer !!"</t>
   </si>
   <si>
-    <t>'01-AUG-2018'</t>
-  </si>
-  <si>
     <t>"Le parfait mélange entre un éclair vanille et une tarte au citron meringuée !"</t>
   </si>
   <si>
-    <t>'01-MAY-2015'</t>
-  </si>
-  <si>
     <t>"Si les dieux faisaient un enfant, il resemblerait à ça !"</t>
   </si>
   <si>
-    <t>'25-JUL-2015'</t>
-  </si>
-  <si>
     <t>"Très fun ! Il vaut le détour !"</t>
   </si>
   <si>
-    <t>'24-APR-2016'</t>
-  </si>
-  <si>
     <t>"MA-SHA-LLAH !"</t>
   </si>
   <si>
-    <t>'13-MAR-2018'</t>
-  </si>
-  <si>
     <t>"Ne vaut pas son prix !"</t>
   </si>
   <si>
-    <t>'18-JAN-2018'</t>
-  </si>
-  <si>
     <t>"Le concept est vraiment original ! Dommage que les dessins soient peu travaillés…"</t>
   </si>
   <si>
-    <t>'26-JUL-2016'</t>
-  </si>
-  <si>
     <t>"Les pièces commencent déjà à s'abîmer gravement alors que j'ai acheté le jeu il y a moins de 2 semaines ! C'est honteux !"</t>
   </si>
   <si>
-    <t>'16-FEB-2021'</t>
-  </si>
-  <si>
     <t>"Excellent jeu ! Très convivial !"</t>
   </si>
   <si>
-    <t>'07-MAR-2021'</t>
-  </si>
-  <si>
     <t>"Les dessins sont beaux mais c'est tout…"</t>
   </si>
   <si>
-    <t>'02-APR-2022'</t>
-  </si>
-  <si>
     <t>"Pas le jeu de l'année mais plutôt cool !"</t>
   </si>
   <si>
-    <t>'09-JUL-2017'</t>
-  </si>
-  <si>
     <t>"Ce jeu est aux jeux de société ce que Père Fouras est à Fort Boyard ! "</t>
   </si>
   <si>
-    <t>'21-MAY-2021'</t>
-  </si>
-  <si>
     <t>"Ce jeu est aux jeux de société ce que la tarte au citron meringuée est aux desserts !"</t>
   </si>
   <si>
-    <t>'12-APR-2018'</t>
-  </si>
-  <si>
     <t>"Ce jeu est aux jeux de société ce que le réglisse est aux bonbons !"</t>
   </si>
   <si>
-    <t>'04-OCT-2020'</t>
-  </si>
-  <si>
     <t>"Ce jeu est aux jeux de société ce que le chou est aux légumes !"</t>
   </si>
   <si>
-    <t>'15-MAR-2021'</t>
-  </si>
-  <si>
     <t>"pas mal"</t>
   </si>
   <si>
     <t>"vrmt pas mal"</t>
   </si>
   <si>
-    <t>'05-APR-2016'</t>
-  </si>
-  <si>
     <t>"pas vrmt pas mal"</t>
   </si>
   <si>
-    <t>'09-OCT-2016'</t>
-  </si>
-  <si>
     <t>"Un bon petit jeu"</t>
   </si>
   <si>
-    <t>'22-APR-2019'</t>
-  </si>
-  <si>
     <t>"Un indispensable des soirées entre amis !"</t>
   </si>
   <si>
-    <t>'15-MAY-2018'</t>
-  </si>
-  <si>
     <t>"Presque autant déçu que Leon"</t>
   </si>
   <si>
-    <t>'18-OCT-2016'</t>
-  </si>
-  <si>
     <t>"Moyen"</t>
   </si>
   <si>
-    <t>'19-OCT-2019'</t>
-  </si>
-  <si>
-    <t>'01-JUN-2016'</t>
-  </si>
-  <si>
     <t>"Dans la moyenne"</t>
   </si>
   <si>
-    <t>'25-OCT-2017'</t>
-  </si>
-  <si>
     <t>"Médiane"</t>
   </si>
   <si>
-    <t>'11-NOV-2022'</t>
-  </si>
-  <si>
     <t>"Meh"</t>
   </si>
   <si>
-    <t>'01-OCT-2020'</t>
-  </si>
-  <si>
     <t>"Ça ne vaut pas un bon vieux Takenoko mais ça fait quand même l'affaire"</t>
   </si>
   <si>
-    <t>'21-JUN-2016'</t>
-  </si>
-  <si>
     <t>"J'ai vu mieux, j'ai vu pire…"</t>
   </si>
   <si>
-    <t>'09-APR-2017'</t>
-  </si>
-  <si>
     <t>"Nul"</t>
   </si>
   <si>
-    <t>'01-JUN-2018'</t>
-  </si>
-  <si>
     <t>"Grave bien !"</t>
   </si>
   <si>
-    <t>'28-AUG-2016'</t>
-  </si>
-  <si>
     <t>"Comme une envie de me foutre en l'air…"</t>
   </si>
   <si>
-    <t>'03-MAR-2018'</t>
-  </si>
-  <si>
     <t>"Plutôt original, il en vaut le détour !"</t>
   </si>
   <si>
-    <t>'11-OCT-2015'</t>
-  </si>
-  <si>
     <t>"Sûrement l'un des meilleurs dans ce domaine"</t>
   </si>
   <si>
-    <t>'26-AUG-2018'</t>
-  </si>
-  <si>
-    <t>'03-JAN-2015'</t>
-  </si>
-  <si>
-    <t>'31-JAN-2015'</t>
-  </si>
-  <si>
     <t>"Bcp trop de règles compliquées qui rendent le jeu incompréhensible !"</t>
   </si>
   <si>
-    <t>'18-MAY-2016'</t>
-  </si>
-  <si>
     <t>"Un bon jeu pour changer des grands classiques !"</t>
   </si>
   <si>
-    <t>'16-JUN-2018'</t>
-  </si>
-  <si>
     <t>"J'aime bien le concept mais à acheter en promo car la durée de vie est limitée"</t>
   </si>
   <si>
-    <t>'05-NOV-2021'</t>
-  </si>
-  <si>
     <t>"Excellent en tout point ! Un must-have !"</t>
   </si>
   <si>
-    <t>'10-MAR-2015'</t>
-  </si>
-  <si>
     <t>"Même si le design est un peu élémentaire, il vaut le coup !"</t>
   </si>
   <si>
-    <t>'04-JUL-2020'</t>
-  </si>
-  <si>
-    <t>'08-MAY-2018'</t>
-  </si>
-  <si>
     <t>"Il sort des sentiers battus et ça marche ! Je valide !"</t>
   </si>
   <si>
-    <t>'18-DEC-2015'</t>
-  </si>
-  <si>
     <t>"Une formule classique mais bien exécutée !"</t>
   </si>
   <si>
-    <t>'11-MAY-2020'</t>
-  </si>
-  <si>
-    <t>'05-OCT-2015'</t>
-  </si>
-  <si>
     <t>"Moelleux"</t>
   </si>
   <si>
     <t>"Galbé"</t>
   </si>
   <si>
-    <t>'09-MAR-2017'</t>
-  </si>
-  <si>
     <t>"Eclairé"</t>
   </si>
   <si>
-    <t>'22-NOV-2016'</t>
-  </si>
-  <si>
     <t>"Obscur"</t>
   </si>
   <si>
-    <t>'15-APR-2015'</t>
-  </si>
-  <si>
     <t>"Transcendant"</t>
   </si>
   <si>
-    <t>'13-APR-2020'</t>
-  </si>
-  <si>
     <t>"Arrogant"</t>
   </si>
   <si>
-    <t>'01-NOV-2018'</t>
-  </si>
-  <si>
     <t>"Curieux"</t>
   </si>
   <si>
-    <t>'22-NOV-2020'</t>
-  </si>
-  <si>
     <t>"Mignon"</t>
   </si>
   <si>
-    <t>'27-OCT-2022'</t>
-  </si>
-  <si>
     <t>"Froid"</t>
   </si>
   <si>
-    <t>'24-APR-2021'</t>
-  </si>
-  <si>
     <t>"Hypocrite"</t>
   </si>
   <si>
-    <t>'28-JUL-2021'</t>
-  </si>
-  <si>
     <t>"Egal"</t>
   </si>
   <si>
-    <t>'27-FEB-2016'</t>
-  </si>
-  <si>
     <t>"Patient"</t>
   </si>
   <si>
-    <t>'11-FEB-2017'</t>
-  </si>
-  <si>
     <t>"Pauvre"</t>
   </si>
   <si>
-    <t>'21-JUN-2018'</t>
-  </si>
-  <si>
     <t>"Sincère"</t>
   </si>
   <si>
-    <t>'01-JUL-2016'</t>
-  </si>
-  <si>
     <t>"Timide"</t>
   </si>
   <si>
-    <t>'09-AUG-2015'</t>
-  </si>
-  <si>
     <t>"Onctueux"</t>
   </si>
   <si>
-    <t>'12-APR-2019'</t>
-  </si>
-  <si>
     <t>"Pas cuit"</t>
   </si>
   <si>
-    <t>'01-NOV-2020'</t>
-  </si>
-  <si>
     <t>"Trop cuit"</t>
   </si>
   <si>
-    <t>'23-MAY-2018'</t>
-  </si>
-  <si>
     <t>"Allumé"</t>
   </si>
   <si>
-    <t>'05-JAN-2018'</t>
-  </si>
-  <si>
     <t>"Vibrant"</t>
   </si>
   <si>
-    <t>'27-DEC-2020'</t>
-  </si>
-  <si>
     <t>"Vivant"</t>
   </si>
   <si>
-    <t>'05-APR-2019'</t>
-  </si>
-  <si>
     <t>"Sauvage"</t>
   </si>
   <si>
-    <t>'27-NOV-2020'</t>
-  </si>
-  <si>
     <t>"Assaisonné"</t>
   </si>
   <si>
-    <t>'01-APR-2021'</t>
-  </si>
-  <si>
     <t>"Innocent"</t>
   </si>
   <si>
-    <t>'26-DEC-2019'</t>
-  </si>
-  <si>
     <t>"Super"</t>
   </si>
   <si>
-    <t>'28-JAN-2020'</t>
-  </si>
-  <si>
     <t>"Indiscernable"</t>
   </si>
   <si>
-    <t>'19-NOV-2015'</t>
-  </si>
-  <si>
     <t>"Invincible"</t>
   </si>
   <si>
-    <t>'07-JUN-2016'</t>
-  </si>
-  <si>
     <t>"Artérielle"</t>
   </si>
   <si>
-    <t>'06-FEB-2021'</t>
-  </si>
-  <si>
     <t>"Aberrant"</t>
   </si>
   <si>
-    <t>'16-AUG-2018'</t>
-  </si>
-  <si>
     <t>"Immédiat"</t>
   </si>
   <si>
-    <t>'28-MAR-2020'</t>
-  </si>
-  <si>
     <t>"Sanguin"</t>
   </si>
   <si>
-    <t>'11-JUL-2016'</t>
-  </si>
-  <si>
     <t>"Oxygéné"</t>
   </si>
   <si>
-    <t>'07-OCT-2022'</t>
-  </si>
-  <si>
     <t>"Aéré"</t>
   </si>
   <si>
-    <t>'06-FEB-2017'</t>
-  </si>
-  <si>
     <t>"Plausible"</t>
   </si>
   <si>
-    <t>'20-MAR-2020'</t>
-  </si>
-  <si>
     <t>"Occupant"</t>
   </si>
   <si>
-    <t>'09-AUG-2020'</t>
-  </si>
-  <si>
     <t>"Distrayant"</t>
   </si>
   <si>
-    <t>'10-NOV-2022'</t>
-  </si>
-  <si>
     <t>"Demonstratif"</t>
   </si>
   <si>
-    <t>'17-DEC-2018'</t>
-  </si>
-  <si>
     <t>"Très bien ! "</t>
   </si>
   <si>
-    <t>'17-DEC-2020'</t>
-  </si>
-  <si>
     <t>"Oubliable"</t>
   </si>
   <si>
-    <t>'22-DEC-2020'</t>
-  </si>
-  <si>
     <t>"Nullissime"</t>
   </si>
   <si>
-    <t>'13-APR-2019'</t>
-  </si>
-  <si>
     <t>"Génant"</t>
   </si>
   <si>
-    <t>'16-SEP-2016'</t>
-  </si>
-  <si>
     <t>"Aiguisé"</t>
   </si>
   <si>
-    <t>'07-DEC-2020'</t>
-  </si>
-  <si>
     <t>"Inquiet"</t>
   </si>
   <si>
-    <t>'15-NOV-2018'</t>
-  </si>
-  <si>
     <t>"Grossier"</t>
   </si>
   <si>
-    <t>'22-SEP-2022'</t>
-  </si>
-  <si>
     <t>"Monstreux"</t>
   </si>
   <si>
-    <t>'15-JUL-2020'</t>
-  </si>
-  <si>
     <t>"Lucide"</t>
   </si>
   <si>
-    <t>'10-AUG-2021'</t>
-  </si>
-  <si>
     <t>"Basique"</t>
   </si>
   <si>
-    <t>'14-MAY-2019'</t>
-  </si>
-  <si>
     <t>"Simple"</t>
   </si>
   <si>
-    <t>'15-SEP-2015'</t>
-  </si>
-  <si>
     <t>"Académique"</t>
   </si>
   <si>
-    <t>'13-FEB-2017'</t>
-  </si>
-  <si>
     <t>"Ludique"</t>
   </si>
   <si>
-    <t>'03-AUG-2015'</t>
-  </si>
-  <si>
     <t>"Stylé"</t>
   </si>
   <si>
-    <t>'31-AUG-2015'</t>
-  </si>
-  <si>
     <t>"Cosmique"</t>
   </si>
   <si>
-    <t>'08-OCT-2020'</t>
-  </si>
-  <si>
     <t>"Rapide"</t>
   </si>
   <si>
-    <t>'14-FEB-2020'</t>
-  </si>
-  <si>
     <t>"Long"</t>
   </si>
   <si>
-    <t>'01-MAY-2022'</t>
-  </si>
-  <si>
     <t>"Lent"</t>
   </si>
   <si>
-    <t>'01-FEB-2018'</t>
-  </si>
-  <si>
     <t>"Court"</t>
   </si>
   <si>
-    <t>'24-NOV-2021'</t>
-  </si>
-  <si>
     <t>"Minimal"</t>
   </si>
   <si>
-    <t>'03-APR-2020'</t>
-  </si>
-  <si>
     <t>"Développé"</t>
   </si>
   <si>
-    <t>'07-MAR-2018'</t>
-  </si>
-  <si>
     <t>"Beau"</t>
   </si>
   <si>
-    <t>'12-APR-2020'</t>
-  </si>
-  <si>
     <t>"Immersif"</t>
   </si>
   <si>
-    <t>'09-SEP-2020'</t>
-  </si>
-  <si>
     <t>"Intuitif"</t>
   </si>
   <si>
-    <t>'18-AUG-2021'</t>
-  </si>
-  <si>
     <t>"Normal"</t>
   </si>
   <si>
-    <t>'08-APR-2020'</t>
-  </si>
-  <si>
     <t>"Surprenant"</t>
   </si>
   <si>
-    <t>'16-SEP-2021'</t>
-  </si>
-  <si>
     <t>"Génial"</t>
   </si>
   <si>
-    <t>'28-AUG-2019'</t>
-  </si>
-  <si>
     <t>"Imaginatif"</t>
   </si>
   <si>
-    <t>'18-APR-2019'</t>
-  </si>
-  <si>
     <t>"Créatif"</t>
   </si>
   <si>
-    <t>'03-DEC-2021'</t>
-  </si>
-  <si>
     <t>"Solide"</t>
   </si>
   <si>
-    <t>'09-JUL-2021'</t>
-  </si>
-  <si>
     <t>"Ponctuel"</t>
   </si>
   <si>
-    <t>'03-AUG-2017'</t>
-  </si>
-  <si>
     <t>"Bienveillant"</t>
   </si>
   <si>
-    <t>'12-AUG-2019'</t>
-  </si>
-  <si>
     <t>"Traumatisant"</t>
   </si>
   <si>
-    <t>'30-MAY-2022'</t>
-  </si>
-  <si>
     <t>"Horrible"</t>
   </si>
   <si>
     <t>"Affreux"</t>
   </si>
   <si>
-    <t>'18-AUG-2018'</t>
-  </si>
-  <si>
     <t>"Catastrophique"</t>
   </si>
   <si>
-    <t>'13-JAN-2015'</t>
-  </si>
-  <si>
     <t>"Désastreux"</t>
   </si>
   <si>
-    <t>'27-NOV-2022'</t>
-  </si>
-  <si>
     <t>"Ecoeurant"</t>
   </si>
   <si>
     <t>"Assidu"</t>
   </si>
   <si>
-    <t>'24-AUG-2015'</t>
-  </si>
-  <si>
     <t>"Pensif"</t>
   </si>
   <si>
-    <t>'28-APR-2015'</t>
-  </si>
-  <si>
     <t>"Vendu"</t>
   </si>
   <si>
-    <t>'10-OCT-2021'</t>
-  </si>
-  <si>
     <t>"Terminé"</t>
   </si>
   <si>
-    <t>'10-AUG-2016'</t>
-  </si>
-  <si>
     <t>"Héroïque"</t>
   </si>
   <si>
-    <t>'20-MAY-2018'</t>
-  </si>
-  <si>
     <t>"Plat"</t>
   </si>
   <si>
-    <t>'19-FEB-2017'</t>
-  </si>
-  <si>
     <t>"Fade"</t>
   </si>
   <si>
-    <t>'14-NOV-2016'</t>
-  </si>
-  <si>
     <t>"Gastronomique"</t>
   </si>
   <si>
-    <t>'12-MAR-2015'</t>
-  </si>
-  <si>
     <t>"Féodal"</t>
   </si>
   <si>
     <t>"Visible"</t>
   </si>
   <si>
-    <t>'14-JUL-2020'</t>
-  </si>
-  <si>
     <t>"Efficace"</t>
   </si>
   <si>
-    <t>'24-MAY-2017'</t>
-  </si>
-  <si>
     <t>"Chargemeeeeeennnnnntt !! Lalalalala ! Chargemeeeeeeeennntt !!"</t>
   </si>
   <si>
-    <t>'24-FEB-2022'</t>
-  </si>
-  <si>
     <t>"Ouverture de porte"</t>
   </si>
   <si>
-    <t>'15-DEC-2018'</t>
-  </si>
-  <si>
     <t>"Transition"</t>
   </si>
   <si>
-    <t>'22-APR-2016'</t>
-  </si>
-  <si>
     <t>"Un jeu excellent !"</t>
   </si>
   <si>
-    <t>'11-OCT-2020'</t>
-  </si>
-  <si>
     <t>"Un jeu mauvais !"</t>
   </si>
   <si>
-    <t>'03-AUG-2020'</t>
-  </si>
-  <si>
     <t>"Un jeu amusant !"</t>
   </si>
   <si>
-    <t>'01-AUG-2015'</t>
-  </si>
-  <si>
     <t>"Rien à dire, il fait le job."</t>
   </si>
   <si>
-    <t>'03-DEC-2015'</t>
-  </si>
-  <si>
     <t>"Un peu déçu par la fin, dommage le début était prometteur…"</t>
   </si>
   <si>
-    <t>'06-OCT-2017'</t>
-  </si>
-  <si>
     <t>"Très compliqué au premier abord mais la courbe de progression est très satisfaisante !"</t>
   </si>
   <si>
-    <t>'01-MAY-2018'</t>
-  </si>
-  <si>
     <t>"Alors là je dis oui, oui, oui !"</t>
   </si>
   <si>
-    <t>'08-MAY-2019'</t>
-  </si>
-  <si>
     <t>"Mais là je dis non, non, non !"</t>
   </si>
   <si>
-    <t>'25-JUL-2017'</t>
-  </si>
-  <si>
-    <t>'09-OCT-2017'</t>
-  </si>
-  <si>
-    <t>'30-JAN-2016'</t>
-  </si>
-  <si>
-    <t>'02-AUG-2019'</t>
-  </si>
-  <si>
     <t>"Je vendrai ma mère pour ce jeu !"</t>
   </si>
   <si>
-    <t>'08-APR-2022'</t>
-  </si>
-  <si>
     <t>"Je vendrai mon père pour ce jeu !"</t>
   </si>
   <si>
-    <t>'02-OCT-2016'</t>
-  </si>
-  <si>
     <t>"Je vendrai mon frère pour ce jeu !"</t>
   </si>
   <si>
-    <t>'25-FEB-2020'</t>
-  </si>
-  <si>
     <t>"Je vendrai ma sœur pour ce jeu !"</t>
   </si>
   <si>
-    <t>'27-APR-2016'</t>
-  </si>
-  <si>
     <t>"Je vendrai mon fils pour ce jeu !"</t>
   </si>
   <si>
-    <t>'18-FEB-2021'</t>
-  </si>
-  <si>
     <t>"Je vendrai ma fille pour ce jeu !"</t>
   </si>
   <si>
-    <t>'28-MAR-2017'</t>
-  </si>
-  <si>
     <t>"Je vendrai mon oncle pour ce jeu !"</t>
   </si>
   <si>
-    <t>'12-DEC-2018'</t>
-  </si>
-  <si>
     <t>"Il vaut pas un rond celui-là…"</t>
   </si>
   <si>
     <t>"Je vendrai ma tante pour ce jeu !"</t>
   </si>
   <si>
-    <t>'27-FEB-2015'</t>
-  </si>
-  <si>
     <t>"Je vendrai mon grand-père pour ce jeu !"</t>
   </si>
   <si>
-    <t>'04-SEP-2016'</t>
-  </si>
-  <si>
     <t>"Je vendrai ma grand-mère pour ce jeu !"</t>
   </si>
   <si>
-    <t>'15-MAR-2016'</t>
-  </si>
-  <si>
     <t>"Je vendrai ma femme pour ce jeu !"</t>
   </si>
   <si>
-    <t>'29-SEP-2019'</t>
-  </si>
-  <si>
     <t>"Je vendrai mon meilleur ami pour ce jeu !"</t>
   </si>
   <si>
-    <t>'06-SEP-2021'</t>
-  </si>
-  <si>
     <t>"Je vendrai mon chien pour ce jeu !"</t>
   </si>
   <si>
-    <t>'17-SEP-2018'</t>
-  </si>
-  <si>
     <t>"J'ai plus grand-chose à vendre, mais il est vraiment bien !"</t>
   </si>
   <si>
-    <t>'15-SEP-2017'</t>
-  </si>
-  <si>
     <t>"Nul ! Faut être beaucoup pour jouer mais je suis tout seul…"</t>
   </si>
   <si>
-    <t>'27-MAY-2017'</t>
-  </si>
-  <si>
     <t>"Ne l'achetez surtout pas !"</t>
   </si>
   <si>
-    <t>'18-MAR-2022'</t>
-  </si>
-  <si>
     <t>"Vrmt raffraichissant ! Ça devrait être une inspiration pour les prochains jeux !"</t>
   </si>
   <si>
-    <t>'03-MAY-2018'</t>
-  </si>
-  <si>
     <t>"Un classique indémodable"</t>
   </si>
   <si>
-    <t>'23-MAR-2017'</t>
-  </si>
-  <si>
     <t>"*pouce en l'air*"</t>
   </si>
   <si>
-    <t>'04-FEB-2018'</t>
-  </si>
-  <si>
     <t>"*applaudissement*"</t>
   </si>
   <si>
-    <t>'18-SEP-2015'</t>
-  </si>
-  <si>
     <t>"*smiley content*"</t>
   </si>
   <si>
-    <t>'20-AUG-2018'</t>
-  </si>
-  <si>
     <t>"*smiley énervé*"</t>
   </si>
   <si>
-    <t>'27-JAN-2019'</t>
-  </si>
-  <si>
     <t>"*smiley déçu*"</t>
   </si>
   <si>
-    <t>'04-MAY-2016'</t>
-  </si>
-  <si>
     <t>"*baleine*"</t>
   </si>
   <si>
-    <t>'24-AUG-2021'</t>
-  </si>
-  <si>
     <t>"*hot-dog*"</t>
   </si>
   <si>
-    <t>'29-JUN-2016'</t>
-  </si>
-  <si>
     <t>"*pouce vers le bas*"</t>
   </si>
   <si>
-    <t>'28-DEC-2016'</t>
-  </si>
-  <si>
     <t>"*smiley satisfait mais qui reste un peu sur sa faim quand même car il aurait aimé un peu plus de possibilité de gameplay mais vu que les dessins sont stylés*"</t>
   </si>
   <si>
-    <t>'18-SEP-2019'</t>
-  </si>
-  <si>
     <t>"Très convivial, parfait pour les dimanche en famille !"</t>
   </si>
   <si>
-    <t>'17-SEP-2019'</t>
-  </si>
-  <si>
     <t>"Un peu trop compliqué pour les novices du genre."</t>
   </si>
   <si>
-    <t>'18-SEP-2016'</t>
-  </si>
-  <si>
     <t>"A la fois intuitif et complexe, il permet de faire de belles parties entre adeptes !"</t>
   </si>
   <si>
-    <t>'10-MAY-2021'</t>
-  </si>
-  <si>
     <t>"3550708"</t>
   </si>
   <si>
-    <t>'07-FEB-2016'</t>
-  </si>
-  <si>
     <t>"5508"</t>
   </si>
   <si>
-    <t>'16-FEB-2017'</t>
-  </si>
-  <si>
     <t>"370909"</t>
   </si>
   <si>
-    <t>'15-JAN-2022'</t>
-  </si>
-  <si>
-    <t>'15-MAR-2017'</t>
-  </si>
-  <si>
-    <t>'22-JAN-2022'</t>
-  </si>
-  <si>
     <t>"B***** de m**** ! C'est quoi cette m**** p***** ! Bande d'e****** remboursez moi !"</t>
   </si>
   <si>
-    <t>'04-MAR-2019'</t>
-  </si>
-  <si>
     <t>"Toujours un plaisir d'y jouer avec mes amies du club de tricot !"</t>
   </si>
   <si>
-    <t>'16-JUN-2022'</t>
-  </si>
-  <si>
     <t>"Jsuis pas sur davoir tout compris mais ca a lair plutot cool"</t>
   </si>
   <si>
-    <t>'23-OCT-2016'</t>
-  </si>
-  <si>
-    <t>'18-NOV-2016'</t>
-  </si>
-  <si>
-    <t>'26-MAR-2019'</t>
-  </si>
-  <si>
     <t>"Je ne sais pas pour les autres configurations, mais y jouer à 4 rendait le jeu assez lent…"</t>
   </si>
   <si>
-    <t>'21-DEC-2022'</t>
-  </si>
-  <si>
     <t>"J'adore l'univers ! De plus le gameplay est nerveux et intense ! C'est un grand oui pour moi !"</t>
   </si>
   <si>
-    <t>'16-MAR-2019'</t>
-  </si>
-  <si>
     <t>"C'est tellement dommage ! Le concept de base était grave intéressant, mais on s'y perd trop avec tous les attributs et les objets en plus ! On passe plus de temps à essayer de comprendre ce qu'il se passe qu'à jouer..."</t>
   </si>
   <si>
-    <t>'11-OCT-2017'</t>
-  </si>
-  <si>
-    <t>'07-SEP-2022'</t>
-  </si>
-  <si>
     <t>"Un jeu intuitif, facile à prendre en main et compréhensible"</t>
   </si>
   <si>
-    <t>'20-JAN-2016'</t>
-  </si>
-  <si>
     <t>"Un jeu rapide, vif et véloce"</t>
   </si>
   <si>
-    <t>'25-SEP-2017'</t>
-  </si>
-  <si>
     <t>"Un jeu difficile, complexe et compliqué"</t>
   </si>
   <si>
-    <t>'28-SEP-2021'</t>
-  </si>
-  <si>
     <t>"Easy"</t>
   </si>
   <si>
-    <t>'30-JUN-2022'</t>
-  </si>
-  <si>
     <t>"ez"</t>
   </si>
   <si>
-    <t>'04-JUN-2020'</t>
-  </si>
-  <si>
     <t>"trop facil com jeu"</t>
   </si>
   <si>
-    <t>'12-JUL-2015'</t>
-  </si>
-  <si>
     <t>"vous aver pa plus dificil ?"</t>
   </si>
   <si>
-    <t>'09-JUL-2015'</t>
-  </si>
-  <si>
-    <t>'12-JUL-2020'</t>
-  </si>
-  <si>
     <t>"A part si vous n'avez rien d'autre, à éviter"</t>
   </si>
   <si>
-    <t>'22-AUG-2018'</t>
-  </si>
-  <si>
     <t>"Bon jeu entre amis, dommage qu'il ne puisse pas y avoir plus de joueurs…"</t>
   </si>
   <si>
-    <t>'18-JAN-2020'</t>
-  </si>
-  <si>
     <t>"Si vous tenez à votre santé mental, votre temps et votre argent, n'y jouez pas !"</t>
-  </si>
-  <si>
-    <t>'03-JUN-2021'</t>
   </si>
   <si>
     <t>"Le gameplay n'est pas très passionnant… Heureusement que c'est illustré par Vincent Dutrait !"</t>
@@ -1527,10 +798,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="171" formatCode="\'yyyy\-mm\-dd\'"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,11 +838,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1875,19 +1161,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554BF90-C002-4843-AC84-EB706920A8E3}">
-  <dimension ref="A1:F251"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C188" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="42.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1917,8 +1204,8 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="5">
+        <v>42805</v>
       </c>
       <c r="E2">
         <v>48</v>
@@ -1926,8 +1213,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1935,10 +1225,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44795</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -1946,8 +1236,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1955,10 +1248,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44691</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -1966,8 +1259,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1975,10 +1271,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42620</v>
       </c>
       <c r="E5">
         <v>46</v>
@@ -1986,8 +1282,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1995,10 +1294,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44072</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -2006,8 +1305,11 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2015,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44794</v>
       </c>
       <c r="E7">
         <v>26</v>
@@ -2026,8 +1328,11 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2035,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44445</v>
       </c>
       <c r="E8">
         <v>24</v>
@@ -2046,8 +1351,11 @@
       <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2055,10 +1363,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43871</v>
       </c>
       <c r="E9">
         <v>52</v>
@@ -2066,8 +1374,11 @@
       <c r="F9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2075,10 +1386,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>42196</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2086,8 +1397,11 @@
       <c r="F10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2095,10 +1409,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44309</v>
       </c>
       <c r="E11">
         <v>45</v>
@@ -2106,8 +1420,11 @@
       <c r="F11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2115,10 +1432,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44464</v>
       </c>
       <c r="E12">
         <v>24</v>
@@ -2126,8 +1443,11 @@
       <c r="F12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2135,10 +1455,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>42262</v>
       </c>
       <c r="E13">
         <v>48</v>
@@ -2146,8 +1466,11 @@
       <c r="F13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2155,10 +1478,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44715</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -2166,8 +1489,11 @@
       <c r="F14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2175,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="5">
+        <v>42609</v>
       </c>
       <c r="E15">
         <v>22</v>
@@ -2186,8 +1512,11 @@
       <c r="F15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2195,10 +1524,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43279</v>
       </c>
       <c r="E16">
         <v>37</v>
@@ -2206,8 +1535,11 @@
       <c r="F16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2215,10 +1547,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="D17" s="5">
+        <v>42080</v>
       </c>
       <c r="E17">
         <v>27</v>
@@ -2226,8 +1558,11 @@
       <c r="F17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2235,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43722</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2246,8 +1581,11 @@
       <c r="F18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2255,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43654</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -2266,8 +1604,11 @@
       <c r="F19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2275,10 +1616,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42489</v>
       </c>
       <c r="E20">
         <v>44</v>
@@ -2286,8 +1627,11 @@
       <c r="F20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2295,10 +1639,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43500</v>
       </c>
       <c r="E21">
         <v>41</v>
@@ -2306,8 +1650,11 @@
       <c r="F21">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2315,10 +1662,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="5">
+        <v>42573</v>
       </c>
       <c r="E22">
         <v>57</v>
@@ -2326,8 +1673,11 @@
       <c r="F22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2335,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43142</v>
       </c>
       <c r="E23">
         <v>27</v>
@@ -2346,8 +1696,11 @@
       <c r="F23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2355,10 +1708,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44185</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2366,8 +1719,11 @@
       <c r="F24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2375,10 +1731,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44496</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2386,8 +1742,11 @@
       <c r="F25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2395,10 +1754,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43068</v>
       </c>
       <c r="E26">
         <v>44</v>
@@ -2406,8 +1765,11 @@
       <c r="F26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2415,10 +1777,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44412</v>
       </c>
       <c r="E27">
         <v>12</v>
@@ -2426,8 +1788,11 @@
       <c r="F27">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2435,10 +1800,10 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="5">
+        <v>42820</v>
       </c>
       <c r="E28">
         <v>43</v>
@@ -2446,8 +1811,11 @@
       <c r="F28">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2455,10 +1823,10 @@
         <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44085</v>
       </c>
       <c r="E29">
         <v>62</v>
@@ -2466,8 +1834,11 @@
       <c r="F29">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2475,10 +1846,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="D30" s="5">
+        <v>42770</v>
       </c>
       <c r="E30">
         <v>34</v>
@@ -2486,8 +1857,11 @@
       <c r="F30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2495,10 +1869,10 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="5">
+        <v>43510</v>
       </c>
       <c r="E31">
         <v>47</v>
@@ -2506,8 +1880,11 @@
       <c r="F31">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2515,10 +1892,10 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="D32" s="5">
+        <v>43476</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2526,8 +1903,11 @@
       <c r="F32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2535,10 +1915,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44650</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2546,8 +1926,11 @@
       <c r="F33">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2555,10 +1938,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="D34" s="5">
+        <v>42247</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -2566,8 +1949,11 @@
       <c r="F34">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2575,10 +1961,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44876</v>
       </c>
       <c r="E35">
         <v>27</v>
@@ -2586,8 +1972,11 @@
       <c r="F35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2595,10 +1984,10 @@
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
+        <v>38</v>
+      </c>
+      <c r="D36" s="5">
+        <v>42892</v>
       </c>
       <c r="E36">
         <v>23</v>
@@ -2606,8 +1995,11 @@
       <c r="F36">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2615,10 +2007,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="D37" s="5">
+        <v>42250</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2626,8 +2018,11 @@
       <c r="F37">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2635,10 +2030,10 @@
         <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="D38" s="5">
+        <v>44882</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2646,8 +2041,11 @@
       <c r="F38">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2655,10 +2053,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="D39" s="5">
+        <v>44806</v>
       </c>
       <c r="E39">
         <v>33</v>
@@ -2666,8 +2064,11 @@
       <c r="F39">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2675,10 +2076,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="D40" s="5">
+        <v>42023</v>
       </c>
       <c r="E40">
         <v>18</v>
@@ -2686,8 +2087,11 @@
       <c r="F40">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2695,10 +2099,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="D41" s="5">
+        <v>42667</v>
       </c>
       <c r="E41">
         <v>37</v>
@@ -2706,8 +2110,11 @@
       <c r="F41">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2715,10 +2122,10 @@
         <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="D42" s="5">
+        <v>44901</v>
       </c>
       <c r="E42">
         <v>19</v>
@@ -2726,8 +2133,11 @@
       <c r="F42">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2735,10 +2145,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="D43" s="5">
+        <v>43058</v>
       </c>
       <c r="E43">
         <v>11</v>
@@ -2746,8 +2156,11 @@
       <c r="F43">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2755,10 +2168,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>89</v>
+        <v>46</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44490</v>
       </c>
       <c r="E44">
         <v>63</v>
@@ -2766,8 +2179,11 @@
       <c r="F44">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2775,10 +2191,10 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="D45" s="5">
+        <v>44812</v>
       </c>
       <c r="E45">
         <v>33</v>
@@ -2786,8 +2202,11 @@
       <c r="F45">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G45" s="3"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2795,10 +2214,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="D46" s="5">
+        <v>44567</v>
       </c>
       <c r="E46">
         <v>9</v>
@@ -2806,8 +2225,11 @@
       <c r="F46">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2815,10 +2237,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" t="s">
-        <v>95</v>
+        <v>49</v>
+      </c>
+      <c r="D47" s="5">
+        <v>44384</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2826,8 +2248,11 @@
       <c r="F47">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2835,10 +2260,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="D48" s="5">
+        <v>44488</v>
       </c>
       <c r="E48">
         <v>39</v>
@@ -2846,8 +2271,11 @@
       <c r="F48">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2855,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" t="s">
-        <v>99</v>
+        <v>51</v>
+      </c>
+      <c r="D49" s="5">
+        <v>42570</v>
       </c>
       <c r="E49">
         <v>53</v>
@@ -2866,8 +2294,11 @@
       <c r="F49">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2875,10 +2306,10 @@
         <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
+        <v>52</v>
+      </c>
+      <c r="D50" s="5">
+        <v>44266</v>
       </c>
       <c r="E50">
         <v>13</v>
@@ -2886,8 +2317,11 @@
       <c r="F50">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2895,10 +2329,10 @@
         <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" t="s">
-        <v>103</v>
+        <v>53</v>
+      </c>
+      <c r="D51" s="5">
+        <v>42434</v>
       </c>
       <c r="E51">
         <v>13</v>
@@ -2906,8 +2340,11 @@
       <c r="F51">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2915,10 +2352,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" t="s">
-        <v>105</v>
+        <v>54</v>
+      </c>
+      <c r="D52" s="5">
+        <v>44047</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -2926,8 +2363,11 @@
       <c r="F52">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2935,10 +2375,10 @@
         <v>20</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="D53" s="5">
+        <v>42032</v>
       </c>
       <c r="E53">
         <v>64</v>
@@ -2946,8 +2386,11 @@
       <c r="F53">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" s="3"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2955,10 +2398,10 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" t="s">
-        <v>109</v>
+        <v>56</v>
+      </c>
+      <c r="D54" s="5">
+        <v>44735</v>
       </c>
       <c r="E54">
         <v>37</v>
@@ -2966,8 +2409,11 @@
       <c r="F54">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2975,10 +2421,10 @@
         <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" t="s">
-        <v>111</v>
+        <v>57</v>
+      </c>
+      <c r="D55" s="5">
+        <v>43322</v>
       </c>
       <c r="E55">
         <v>43</v>
@@ -2986,8 +2432,11 @@
       <c r="F55">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2995,10 +2444,10 @@
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" t="s">
-        <v>113</v>
+        <v>58</v>
+      </c>
+      <c r="D56" s="5">
+        <v>42094</v>
       </c>
       <c r="E56">
         <v>43</v>
@@ -3006,8 +2455,11 @@
       <c r="F56">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3015,10 +2467,10 @@
         <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>115</v>
+        <v>59</v>
+      </c>
+      <c r="D57" s="5">
+        <v>42537</v>
       </c>
       <c r="E57">
         <v>31</v>
@@ -3026,8 +2478,11 @@
       <c r="F57">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3035,10 +2490,10 @@
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" t="s">
-        <v>117</v>
+        <v>60</v>
+      </c>
+      <c r="D58" s="5">
+        <v>42688</v>
       </c>
       <c r="E58">
         <v>63</v>
@@ -3046,8 +2501,11 @@
       <c r="F58">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3055,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" t="s">
-        <v>119</v>
+        <v>61</v>
+      </c>
+      <c r="D59" s="5">
+        <v>44030</v>
       </c>
       <c r="E59">
         <v>38</v>
@@ -3066,8 +2524,11 @@
       <c r="F59">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3075,10 +2536,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" t="s">
-        <v>121</v>
+        <v>62</v>
+      </c>
+      <c r="D60" s="5">
+        <v>42409</v>
       </c>
       <c r="E60">
         <v>57</v>
@@ -3086,8 +2547,11 @@
       <c r="F60">
         <v>32</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3095,10 +2559,10 @@
         <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" t="s">
-        <v>123</v>
+        <v>63</v>
+      </c>
+      <c r="D61" s="5">
+        <v>43194</v>
       </c>
       <c r="E61">
         <v>27</v>
@@ -3106,8 +2570,11 @@
       <c r="F61">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3115,10 +2582,10 @@
         <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" t="s">
-        <v>125</v>
+        <v>64</v>
+      </c>
+      <c r="D62" s="5">
+        <v>43764</v>
       </c>
       <c r="E62">
         <v>18</v>
@@ -3126,8 +2593,11 @@
       <c r="F62">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3135,10 +2605,10 @@
         <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" t="s">
-        <v>127</v>
+        <v>65</v>
+      </c>
+      <c r="D63" s="5">
+        <v>43509</v>
       </c>
       <c r="E63">
         <v>63</v>
@@ -3146,8 +2616,11 @@
       <c r="F63">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G63" s="3"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3155,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
+        <v>66</v>
+      </c>
+      <c r="D64" s="5">
+        <v>43389</v>
       </c>
       <c r="E64">
         <v>46</v>
@@ -3166,8 +2639,11 @@
       <c r="F64">
         <v>33</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3175,10 +2651,10 @@
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>131</v>
+        <v>67</v>
+      </c>
+      <c r="D65" s="5">
+        <v>44313</v>
       </c>
       <c r="E65">
         <v>51</v>
@@ -3186,8 +2662,11 @@
       <c r="F65">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="3"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3195,10 +2674,10 @@
         <v>14</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="D66" s="5">
+        <v>42097</v>
       </c>
       <c r="E66">
         <v>54</v>
@@ -3206,8 +2685,11 @@
       <c r="F66">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" s="3"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3215,10 +2697,10 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" t="s">
-        <v>134</v>
+        <v>69</v>
+      </c>
+      <c r="D67" s="5">
+        <v>43594</v>
       </c>
       <c r="E67">
         <v>31</v>
@@ -3226,8 +2708,11 @@
       <c r="F67">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67" s="3"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3235,10 +2720,10 @@
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
+        <v>70</v>
+      </c>
+      <c r="D68" s="5">
+        <v>42874</v>
       </c>
       <c r="E68">
         <v>16</v>
@@ -3246,8 +2731,11 @@
       <c r="F68">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" s="3"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3255,10 +2743,10 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" t="s">
-        <v>138</v>
+        <v>71</v>
+      </c>
+      <c r="D69" s="5">
+        <v>44635</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -3266,8 +2754,11 @@
       <c r="F69">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69" s="3"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3275,10 +2766,10 @@
         <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" t="s">
-        <v>140</v>
+        <v>72</v>
+      </c>
+      <c r="D70" s="5">
+        <v>44080</v>
       </c>
       <c r="E70">
         <v>22</v>
@@ -3286,8 +2777,11 @@
       <c r="F70">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70" s="3"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3295,10 +2789,10 @@
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" t="s">
-        <v>142</v>
+        <v>73</v>
+      </c>
+      <c r="D71" s="5">
+        <v>43709</v>
       </c>
       <c r="E71">
         <v>39</v>
@@ -3306,8 +2800,11 @@
       <c r="F71">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71" s="3"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3315,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" t="s">
-        <v>144</v>
+        <v>74</v>
+      </c>
+      <c r="D72" s="5">
+        <v>43081</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -3326,8 +2823,11 @@
       <c r="F72">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3335,10 +2835,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="D73" s="5">
+        <v>43444</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -3346,8 +2846,11 @@
       <c r="F73">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" s="3"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3355,10 +2858,10 @@
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" t="s">
-        <v>147</v>
+        <v>75</v>
+      </c>
+      <c r="D74" s="5">
+        <v>42899</v>
       </c>
       <c r="E74">
         <v>54</v>
@@ -3366,8 +2869,11 @@
       <c r="F74">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3375,10 +2881,10 @@
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" t="s">
-        <v>149</v>
+        <v>76</v>
+      </c>
+      <c r="D75" s="5">
+        <v>43714</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -3386,8 +2892,11 @@
       <c r="F75">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3395,10 +2904,10 @@
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="D76" s="5">
+        <v>43870</v>
       </c>
       <c r="E76">
         <v>27</v>
@@ -3406,8 +2915,11 @@
       <c r="F76">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3415,10 +2927,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" t="s">
-        <v>153</v>
+        <v>78</v>
+      </c>
+      <c r="D77" s="5">
+        <v>42871</v>
       </c>
       <c r="E77">
         <v>23</v>
@@ -3426,8 +2938,11 @@
       <c r="F77">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3435,10 +2950,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" t="s">
-        <v>155</v>
+        <v>79</v>
+      </c>
+      <c r="D78" s="5">
+        <v>42944</v>
       </c>
       <c r="E78">
         <v>33</v>
@@ -3446,8 +2961,11 @@
       <c r="F78">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3455,10 +2973,10 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" t="s">
-        <v>157</v>
+        <v>80</v>
+      </c>
+      <c r="D79" s="5">
+        <v>43998</v>
       </c>
       <c r="E79">
         <v>45</v>
@@ -3466,8 +2984,11 @@
       <c r="F79">
         <v>53</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3475,10 +2996,10 @@
         <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" t="s">
-        <v>159</v>
+        <v>81</v>
+      </c>
+      <c r="D80" s="5">
+        <v>42624</v>
       </c>
       <c r="E80">
         <v>49</v>
@@ -3486,8 +3007,11 @@
       <c r="F80">
         <v>53</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3495,10 +3019,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" t="s">
-        <v>161</v>
+        <v>82</v>
+      </c>
+      <c r="D81" s="5">
+        <v>43053</v>
       </c>
       <c r="E81">
         <v>18</v>
@@ -3506,8 +3030,11 @@
       <c r="F81">
         <v>53</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3515,10 +3042,10 @@
         <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" t="s">
-        <v>163</v>
+        <v>83</v>
+      </c>
+      <c r="D82" s="5">
+        <v>44606</v>
       </c>
       <c r="E82">
         <v>56</v>
@@ -3526,8 +3053,11 @@
       <c r="F82">
         <v>53</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3535,10 +3065,10 @@
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D83" t="s">
-        <v>165</v>
+        <v>84</v>
+      </c>
+      <c r="D83" s="5">
+        <v>42914</v>
       </c>
       <c r="E83">
         <v>27</v>
@@ -3546,8 +3076,11 @@
       <c r="F83">
         <v>53</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83" s="3"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3555,10 +3088,10 @@
         <v>18</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D84" t="s">
-        <v>166</v>
+        <v>241</v>
+      </c>
+      <c r="D84" s="5">
+        <v>43156</v>
       </c>
       <c r="E84">
         <v>23</v>
@@ -3566,8 +3099,11 @@
       <c r="F84">
         <v>53</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G84" s="3"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3575,10 +3111,10 @@
         <v>17</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D85" t="s">
-        <v>167</v>
+        <v>243</v>
+      </c>
+      <c r="D85" s="5">
+        <v>42337</v>
       </c>
       <c r="E85">
         <v>34</v>
@@ -3586,8 +3122,11 @@
       <c r="F85">
         <v>53</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G85" s="3"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3595,10 +3134,10 @@
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" t="s">
-        <v>169</v>
+        <v>85</v>
+      </c>
+      <c r="D86" s="5">
+        <v>44890</v>
       </c>
       <c r="E86">
         <v>53</v>
@@ -3606,8 +3145,11 @@
       <c r="F86">
         <v>53</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G86" s="3"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3615,10 +3157,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" t="s">
-        <v>171</v>
+        <v>86</v>
+      </c>
+      <c r="D87" s="5">
+        <v>44606</v>
       </c>
       <c r="E87">
         <v>53</v>
@@ -3626,8 +3168,11 @@
       <c r="F87">
         <v>53</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G87" s="3"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3635,10 +3180,10 @@
         <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D88" t="s">
-        <v>173</v>
+        <v>87</v>
+      </c>
+      <c r="D88" s="5">
+        <v>44785</v>
       </c>
       <c r="E88">
         <v>63</v>
@@ -3646,8 +3191,11 @@
       <c r="F88">
         <v>53</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88" s="3"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3655,10 +3203,10 @@
         <v>19</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" t="s">
-        <v>175</v>
+        <v>88</v>
+      </c>
+      <c r="D89" s="5">
+        <v>43996</v>
       </c>
       <c r="E89">
         <v>11</v>
@@ -3666,8 +3214,11 @@
       <c r="F89">
         <v>53</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3675,10 +3226,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D90" t="s">
-        <v>177</v>
+        <v>89</v>
+      </c>
+      <c r="D90" s="5">
+        <v>42627</v>
       </c>
       <c r="E90">
         <v>37</v>
@@ -3686,8 +3237,11 @@
       <c r="F90">
         <v>53</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G90" s="3"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3695,10 +3249,10 @@
         <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D91" t="s">
-        <v>178</v>
+        <v>239</v>
+      </c>
+      <c r="D91" s="5">
+        <v>44732</v>
       </c>
       <c r="E91">
         <v>17</v>
@@ -3706,8 +3260,11 @@
       <c r="F91">
         <v>53</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G91" s="3"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3715,10 +3272,10 @@
         <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" t="s">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="D92" s="5">
+        <v>44861</v>
       </c>
       <c r="E92">
         <v>30</v>
@@ -3726,8 +3283,11 @@
       <c r="F92">
         <v>53</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92" s="3"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3735,10 +3295,10 @@
         <v>16</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" t="s">
-        <v>182</v>
+        <v>91</v>
+      </c>
+      <c r="D93" s="5">
+        <v>42129</v>
       </c>
       <c r="E93">
         <v>37</v>
@@ -3746,8 +3306,11 @@
       <c r="F93">
         <v>53</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G93" s="3"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3755,10 +3318,10 @@
         <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D94" t="s">
-        <v>183</v>
+        <v>240</v>
+      </c>
+      <c r="D94" s="5">
+        <v>43599</v>
       </c>
       <c r="E94">
         <v>28</v>
@@ -3766,8 +3329,11 @@
       <c r="F94">
         <v>53</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94" s="3"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3775,10 +3341,10 @@
         <v>14</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" t="s">
-        <v>182</v>
+        <v>92</v>
+      </c>
+      <c r="D95" s="5">
+        <v>44905</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -3786,8 +3352,11 @@
       <c r="F95">
         <v>55</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3795,10 +3364,10 @@
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D96" t="s">
-        <v>186</v>
+        <v>93</v>
+      </c>
+      <c r="D96" s="5">
+        <v>43343</v>
       </c>
       <c r="E96">
         <v>33</v>
@@ -3806,8 +3375,11 @@
       <c r="F96">
         <v>55</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96" s="3"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3815,10 +3387,10 @@
         <v>17</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" t="s">
-        <v>188</v>
+        <v>94</v>
+      </c>
+      <c r="D97" s="5">
+        <v>43504</v>
       </c>
       <c r="E97">
         <v>63</v>
@@ -3826,8 +3398,11 @@
       <c r="F97">
         <v>55</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97" s="3"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3835,10 +3410,10 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" t="s">
-        <v>190</v>
+        <v>95</v>
+      </c>
+      <c r="D98" s="5">
+        <v>44108</v>
       </c>
       <c r="E98">
         <v>50</v>
@@ -3846,8 +3421,11 @@
       <c r="F98">
         <v>55</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98" s="3"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3855,10 +3433,10 @@
         <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" t="s">
-        <v>192</v>
+        <v>96</v>
+      </c>
+      <c r="D99" s="5">
+        <v>43689</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -3866,8 +3444,11 @@
       <c r="F99">
         <v>55</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3875,10 +3456,10 @@
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D100" t="s">
-        <v>194</v>
+        <v>97</v>
+      </c>
+      <c r="D100" s="5">
+        <v>42436</v>
       </c>
       <c r="E100">
         <v>58</v>
@@ -3886,8 +3467,11 @@
       <c r="F100">
         <v>55</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" s="3"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3895,10 +3479,10 @@
         <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D101" t="s">
-        <v>196</v>
+        <v>98</v>
+      </c>
+      <c r="D101" s="5">
+        <v>43006</v>
       </c>
       <c r="E101">
         <v>40</v>
@@ -3906,8 +3490,11 @@
       <c r="F101">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101" s="3"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3915,10 +3502,10 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" t="s">
-        <v>198</v>
+        <v>99</v>
+      </c>
+      <c r="D102" s="5">
+        <v>43409</v>
       </c>
       <c r="E102">
         <v>42</v>
@@ -3926,8 +3513,11 @@
       <c r="F102">
         <v>55</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" s="3"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3935,10 +3525,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" t="s">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="D103" s="5">
+        <v>44925</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3946,8 +3536,11 @@
       <c r="F103">
         <v>55</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" s="3"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3955,10 +3548,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D104" t="s">
-        <v>202</v>
+        <v>101</v>
+      </c>
+      <c r="D104" s="5">
+        <v>42629</v>
       </c>
       <c r="E104">
         <v>17</v>
@@ -3966,8 +3559,11 @@
       <c r="F104">
         <v>55</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104" s="3"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3975,10 +3571,10 @@
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105" t="s">
-        <v>204</v>
+        <v>102</v>
+      </c>
+      <c r="D105" s="5">
+        <v>42898</v>
       </c>
       <c r="E105">
         <v>36</v>
@@ -3986,8 +3582,11 @@
       <c r="F105">
         <v>55</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105" s="3"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3995,10 +3594,10 @@
         <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D106" t="s">
-        <v>206</v>
+        <v>103</v>
+      </c>
+      <c r="D106" s="5">
+        <v>44042</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -4006,8 +3605,11 @@
       <c r="F106">
         <v>55</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106" s="3"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4015,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" t="s">
-        <v>208</v>
+        <v>104</v>
+      </c>
+      <c r="D107" s="5">
+        <v>43155</v>
       </c>
       <c r="E107">
         <v>32</v>
@@ -4026,8 +3628,11 @@
       <c r="F107">
         <v>55</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107" s="3"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4035,10 +3640,10 @@
         <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" t="s">
-        <v>210</v>
+        <v>105</v>
+      </c>
+      <c r="D108" s="5">
+        <v>44188</v>
       </c>
       <c r="E108">
         <v>55</v>
@@ -4046,8 +3651,11 @@
       <c r="F108">
         <v>55</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108" s="3"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4055,10 +3663,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D109" t="s">
-        <v>212</v>
+        <v>106</v>
+      </c>
+      <c r="D109" s="5">
+        <v>44234</v>
       </c>
       <c r="E109">
         <v>42</v>
@@ -4066,8 +3674,11 @@
       <c r="F109">
         <v>55</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109" s="3"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4075,10 +3686,10 @@
         <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D110" t="s">
-        <v>214</v>
+        <v>107</v>
+      </c>
+      <c r="D110" s="5">
+        <v>44212</v>
       </c>
       <c r="E110">
         <v>6</v>
@@ -4086,8 +3697,11 @@
       <c r="F110">
         <v>55</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110" s="3"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4095,10 +3709,10 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D111" t="s">
-        <v>216</v>
+        <v>108</v>
+      </c>
+      <c r="D111" s="5">
+        <v>42784</v>
       </c>
       <c r="E111">
         <v>51</v>
@@ -4106,8 +3720,11 @@
       <c r="F111">
         <v>55</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111" s="3"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4115,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" t="s">
-        <v>218</v>
+        <v>109</v>
+      </c>
+      <c r="D112" s="5">
+        <v>42652</v>
       </c>
       <c r="E112">
         <v>46</v>
@@ -4126,8 +3743,11 @@
       <c r="F112">
         <v>55</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112" s="3"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4135,10 +3755,10 @@
         <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" t="s">
-        <v>220</v>
+        <v>110</v>
+      </c>
+      <c r="D113" s="5">
+        <v>42443</v>
       </c>
       <c r="E113">
         <v>5</v>
@@ -4146,8 +3766,11 @@
       <c r="F113">
         <v>55</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113" s="3"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4155,10 +3778,10 @@
         <v>14</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D114" t="s">
-        <v>222</v>
+        <v>111</v>
+      </c>
+      <c r="D114" s="5">
+        <v>42510</v>
       </c>
       <c r="E114">
         <v>35</v>
@@ -4166,8 +3789,11 @@
       <c r="F114">
         <v>55</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114" s="3"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4175,10 +3801,10 @@
         <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D115" t="s">
-        <v>224</v>
+        <v>112</v>
+      </c>
+      <c r="D115" s="5">
+        <v>44122</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -4186,8 +3812,11 @@
       <c r="F115">
         <v>55</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115" s="3"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4195,10 +3824,10 @@
         <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D116" t="s">
-        <v>226</v>
+        <v>113</v>
+      </c>
+      <c r="D116" s="5">
+        <v>43662</v>
       </c>
       <c r="E116">
         <v>37</v>
@@ -4206,8 +3835,11 @@
       <c r="F116">
         <v>55</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116" s="3"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4215,10 +3847,10 @@
         <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D117" t="s">
-        <v>228</v>
+        <v>114</v>
+      </c>
+      <c r="D117" s="5">
+        <v>42049</v>
       </c>
       <c r="E117">
         <v>41</v>
@@ -4226,8 +3858,11 @@
       <c r="F117">
         <v>55</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4235,10 +3870,10 @@
         <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D118" t="s">
-        <v>230</v>
+        <v>115</v>
+      </c>
+      <c r="D118" s="5">
+        <v>43417</v>
       </c>
       <c r="E118">
         <v>43</v>
@@ -4246,8 +3881,11 @@
       <c r="F118">
         <v>56</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118" s="3"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4255,10 +3893,10 @@
         <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D119" t="s">
-        <v>232</v>
+        <v>116</v>
+      </c>
+      <c r="D119" s="5">
+        <v>43731</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -4266,8 +3904,11 @@
       <c r="F119">
         <v>56</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119" s="3"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4275,10 +3916,10 @@
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D120" t="s">
-        <v>234</v>
+        <v>117</v>
+      </c>
+      <c r="D120" s="5">
+        <v>42434</v>
       </c>
       <c r="E120">
         <v>28</v>
@@ -4286,8 +3927,11 @@
       <c r="F120">
         <v>56</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120" s="3"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4295,10 +3939,10 @@
         <v>18</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D121" t="s">
-        <v>236</v>
+        <v>118</v>
+      </c>
+      <c r="D121" s="5">
+        <v>44832</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -4306,8 +3950,11 @@
       <c r="F121">
         <v>56</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121" s="3"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4315,10 +3962,10 @@
         <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D122" t="s">
-        <v>238</v>
+        <v>119</v>
+      </c>
+      <c r="D122" s="5">
+        <v>44048</v>
       </c>
       <c r="E122">
         <v>40</v>
@@ -4326,8 +3973,11 @@
       <c r="F122">
         <v>56</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122" s="3"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4335,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D123" t="s">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="D123" s="5">
+        <v>43909</v>
       </c>
       <c r="E123">
         <v>30</v>
@@ -4346,8 +3996,11 @@
       <c r="F123">
         <v>56</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4355,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D124" t="s">
-        <v>242</v>
+        <v>121</v>
+      </c>
+      <c r="D124" s="5">
+        <v>42669</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -4366,8 +4019,11 @@
       <c r="F124">
         <v>56</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124" s="3"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4375,10 +4031,10 @@
         <v>11</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D125" t="s">
-        <v>244</v>
+        <v>122</v>
+      </c>
+      <c r="D125" s="5">
+        <v>43999</v>
       </c>
       <c r="E125">
         <v>9</v>
@@ -4386,8 +4042,11 @@
       <c r="F125">
         <v>56</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125" s="3"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4395,10 +4054,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D126" t="s">
-        <v>246</v>
+        <v>123</v>
+      </c>
+      <c r="D126" s="5">
+        <v>42074</v>
       </c>
       <c r="E126">
         <v>48</v>
@@ -4406,8 +4065,11 @@
       <c r="F126">
         <v>56</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126" s="3"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4415,10 +4077,10 @@
         <v>14</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D127" t="s">
-        <v>248</v>
+        <v>124</v>
+      </c>
+      <c r="D127" s="5">
+        <v>42393</v>
       </c>
       <c r="E127">
         <v>20</v>
@@ -4426,8 +4088,11 @@
       <c r="F127">
         <v>56</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127" s="3"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4435,10 +4100,10 @@
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D128" t="s">
-        <v>250</v>
+        <v>125</v>
+      </c>
+      <c r="D128" s="5">
+        <v>42947</v>
       </c>
       <c r="E128">
         <v>36</v>
@@ -4446,8 +4111,11 @@
       <c r="F128">
         <v>56</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128" s="3"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4455,10 +4123,10 @@
         <v>13</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D129" t="s">
-        <v>252</v>
+        <v>126</v>
+      </c>
+      <c r="D129" s="5">
+        <v>43869</v>
       </c>
       <c r="E129">
         <v>52</v>
@@ -4466,8 +4134,11 @@
       <c r="F129">
         <v>56</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129" s="3"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4475,10 +4146,10 @@
         <v>16</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D130" t="s">
-        <v>254</v>
+        <v>127</v>
+      </c>
+      <c r="D130" s="5">
+        <v>42975</v>
       </c>
       <c r="E130">
         <v>42</v>
@@ -4486,8 +4157,11 @@
       <c r="F130">
         <v>56</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130" s="3"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4495,10 +4169,10 @@
         <v>13</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D131" t="s">
-        <v>256</v>
+        <v>128</v>
+      </c>
+      <c r="D131" s="5">
+        <v>43410</v>
       </c>
       <c r="E131">
         <v>27</v>
@@ -4506,8 +4180,11 @@
       <c r="F131">
         <v>56</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131" s="3"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4515,10 +4192,10 @@
         <v>17</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D132" t="s">
-        <v>258</v>
+        <v>129</v>
+      </c>
+      <c r="D132" s="5">
+        <v>43990</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -4526,8 +4203,11 @@
       <c r="F132">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132" s="3"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4535,10 +4215,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D133" t="s">
-        <v>260</v>
+        <v>130</v>
+      </c>
+      <c r="D133" s="5">
+        <v>44813</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -4546,8 +4226,11 @@
       <c r="F133">
         <v>57</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133" s="3"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4555,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D134" t="s">
-        <v>262</v>
+        <v>131</v>
+      </c>
+      <c r="D134" s="5">
+        <v>44674</v>
       </c>
       <c r="E134">
         <v>53</v>
@@ -4566,8 +4249,11 @@
       <c r="F134">
         <v>57</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134" s="3"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4575,10 +4261,10 @@
         <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D135" t="s">
-        <v>264</v>
+        <v>132</v>
+      </c>
+      <c r="D135" s="5">
+        <v>43660</v>
       </c>
       <c r="E135">
         <v>29</v>
@@ -4586,8 +4272,11 @@
       <c r="F135">
         <v>57</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135" s="3"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4595,10 +4284,10 @@
         <v>14</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D136" t="s">
-        <v>266</v>
+        <v>133</v>
+      </c>
+      <c r="D136" s="5">
+        <v>43380</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -4606,8 +4295,11 @@
       <c r="F136">
         <v>57</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136" s="3"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4615,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D137" t="s">
-        <v>268</v>
+        <v>134</v>
+      </c>
+      <c r="D137" s="5">
+        <v>42320</v>
       </c>
       <c r="E137">
         <v>63</v>
@@ -4626,8 +4318,11 @@
       <c r="F137">
         <v>57</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137" s="3"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4635,10 +4330,10 @@
         <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D138" t="s">
-        <v>270</v>
+        <v>135</v>
+      </c>
+      <c r="D138" s="5">
+        <v>43194</v>
       </c>
       <c r="E138">
         <v>51</v>
@@ -4646,8 +4341,11 @@
       <c r="F138">
         <v>57</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138" s="3"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4655,10 +4353,10 @@
         <v>19</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D139" t="s">
-        <v>272</v>
+        <v>136</v>
+      </c>
+      <c r="D139" s="5">
+        <v>44645</v>
       </c>
       <c r="E139">
         <v>35</v>
@@ -4666,8 +4364,11 @@
       <c r="F139">
         <v>57</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139" s="3"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4675,10 +4376,10 @@
         <v>12</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D140" t="s">
-        <v>274</v>
+        <v>137</v>
+      </c>
+      <c r="D140" s="5">
+        <v>42326</v>
       </c>
       <c r="E140">
         <v>52</v>
@@ -4686,8 +4387,11 @@
       <c r="F140">
         <v>57</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140" s="3"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4695,10 +4399,10 @@
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D141" t="s">
-        <v>276</v>
+        <v>138</v>
+      </c>
+      <c r="D141" s="5">
+        <v>43919</v>
       </c>
       <c r="E141">
         <v>18</v>
@@ -4706,8 +4410,11 @@
       <c r="F141">
         <v>57</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141" s="3"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4715,10 +4422,10 @@
         <v>11</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D142" t="s">
-        <v>278</v>
+        <v>139</v>
+      </c>
+      <c r="D142" s="5">
+        <v>42707</v>
       </c>
       <c r="E142">
         <v>7</v>
@@ -4726,8 +4433,11 @@
       <c r="F142">
         <v>57</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142" s="3"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4735,10 +4445,10 @@
         <v>12</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D143" t="s">
-        <v>280</v>
+        <v>140</v>
+      </c>
+      <c r="D143" s="5">
+        <v>42661</v>
       </c>
       <c r="E143">
         <v>39</v>
@@ -4746,8 +4456,11 @@
       <c r="F143">
         <v>57</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143" s="3"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4755,10 +4468,10 @@
         <v>16</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D144" t="s">
-        <v>282</v>
+        <v>141</v>
+      </c>
+      <c r="D144" s="5">
+        <v>44612</v>
       </c>
       <c r="E144">
         <v>34</v>
@@ -4766,8 +4479,11 @@
       <c r="F144">
         <v>57</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144" s="3"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4775,10 +4491,10 @@
         <v>16</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D145" t="s">
-        <v>284</v>
+        <v>142</v>
+      </c>
+      <c r="D145" s="5">
+        <v>43729</v>
       </c>
       <c r="E145">
         <v>54</v>
@@ -4786,8 +4502,11 @@
       <c r="F145">
         <v>57</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145" s="3"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4795,10 +4514,10 @@
         <v>19</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D146" t="s">
-        <v>286</v>
+        <v>143</v>
+      </c>
+      <c r="D146" s="5">
+        <v>42945</v>
       </c>
       <c r="E146">
         <v>34</v>
@@ -4806,8 +4525,11 @@
       <c r="F146">
         <v>58</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146" s="3"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4815,10 +4537,10 @@
         <v>11</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D147" t="s">
-        <v>288</v>
+        <v>144</v>
+      </c>
+      <c r="D147" s="5">
+        <v>42490</v>
       </c>
       <c r="E147">
         <v>59</v>
@@ -4826,8 +4548,11 @@
       <c r="F147">
         <v>58</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147" s="3"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4835,10 +4560,10 @@
         <v>11</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D148" t="s">
-        <v>290</v>
+        <v>145</v>
+      </c>
+      <c r="D148" s="5">
+        <v>43045</v>
       </c>
       <c r="E148">
         <v>57</v>
@@ -4846,8 +4571,11 @@
       <c r="F148">
         <v>58</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148" s="3"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4855,10 +4583,10 @@
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D149" t="s">
-        <v>292</v>
+        <v>146</v>
+      </c>
+      <c r="D149" s="5">
+        <v>43792</v>
       </c>
       <c r="E149">
         <v>17</v>
@@ -4866,8 +4594,11 @@
       <c r="F149">
         <v>58</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149" s="3"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4875,10 +4606,10 @@
         <v>5</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D150" t="s">
-        <v>294</v>
+        <v>147</v>
+      </c>
+      <c r="D150" s="5">
+        <v>42909</v>
       </c>
       <c r="E150">
         <v>12</v>
@@ -4886,8 +4617,11 @@
       <c r="F150">
         <v>58</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150" s="3"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4895,10 +4629,10 @@
         <v>14</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D151" t="s">
-        <v>296</v>
+        <v>148</v>
+      </c>
+      <c r="D151" s="5">
+        <v>43290</v>
       </c>
       <c r="E151">
         <v>31</v>
@@ -4906,8 +4640,11 @@
       <c r="F151">
         <v>58</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151" s="3"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4915,10 +4652,10 @@
         <v>15</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D152" t="s">
-        <v>298</v>
+        <v>149</v>
+      </c>
+      <c r="D152" s="5">
+        <v>43881</v>
       </c>
       <c r="E152">
         <v>44</v>
@@ -4926,8 +4663,11 @@
       <c r="F152">
         <v>58</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152" s="3"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4935,10 +4675,10 @@
         <v>15</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D153" t="s">
-        <v>300</v>
+        <v>150</v>
+      </c>
+      <c r="D153" s="5">
+        <v>43073</v>
       </c>
       <c r="E153">
         <v>25</v>
@@ -4946,8 +4686,11 @@
       <c r="F153">
         <v>58</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153" s="3"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4955,10 +4698,10 @@
         <v>17</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D154" t="s">
-        <v>302</v>
+        <v>151</v>
+      </c>
+      <c r="D154" s="5">
+        <v>44276</v>
       </c>
       <c r="E154">
         <v>46</v>
@@ -4966,8 +4709,11 @@
       <c r="F154">
         <v>58</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154" s="3"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4975,10 +4721,10 @@
         <v>18</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D155" t="s">
-        <v>304</v>
+        <v>152</v>
+      </c>
+      <c r="D155" s="5">
+        <v>43747</v>
       </c>
       <c r="E155">
         <v>38</v>
@@ -4986,8 +4732,11 @@
       <c r="F155">
         <v>58</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155" s="3"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4995,10 +4744,10 @@
         <v>12</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D156" t="s">
-        <v>306</v>
+        <v>153</v>
+      </c>
+      <c r="D156" s="5">
+        <v>42707</v>
       </c>
       <c r="E156">
         <v>12</v>
@@ -5006,8 +4755,11 @@
       <c r="F156">
         <v>58</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156" s="3"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5015,10 +4767,10 @@
         <v>16</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D157" t="s">
-        <v>308</v>
+        <v>154</v>
+      </c>
+      <c r="D157" s="5">
+        <v>44921</v>
       </c>
       <c r="E157">
         <v>45</v>
@@ -5026,8 +4778,11 @@
       <c r="F157">
         <v>58</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157" s="3"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5035,10 +4790,10 @@
         <v>18</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D158" t="s">
-        <v>310</v>
+        <v>155</v>
+      </c>
+      <c r="D158" s="5">
+        <v>44635</v>
       </c>
       <c r="E158">
         <v>17</v>
@@ -5046,8 +4801,11 @@
       <c r="F158">
         <v>58</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158" s="3"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5055,10 +4813,10 @@
         <v>16</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D159" t="s">
-        <v>312</v>
+        <v>156</v>
+      </c>
+      <c r="D159" s="5">
+        <v>44777</v>
       </c>
       <c r="E159">
         <v>45</v>
@@ -5066,8 +4824,11 @@
       <c r="F159">
         <v>58</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159" s="3"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5075,10 +4836,10 @@
         <v>17</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D160" t="s">
-        <v>314</v>
+        <v>157</v>
+      </c>
+      <c r="D160" s="5">
+        <v>44085</v>
       </c>
       <c r="E160">
         <v>29</v>
@@ -5086,8 +4847,11 @@
       <c r="F160">
         <v>58</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160" s="3"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5095,10 +4859,10 @@
         <v>14</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D161" t="s">
-        <v>316</v>
+        <v>158</v>
+      </c>
+      <c r="D161" s="5">
+        <v>44428</v>
       </c>
       <c r="E161">
         <v>33</v>
@@ -5106,8 +4870,11 @@
       <c r="F161">
         <v>59</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161" s="3"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5115,10 +4882,10 @@
         <v>11</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D162" t="s">
-        <v>318</v>
+        <v>159</v>
+      </c>
+      <c r="D162" s="5">
+        <v>44245</v>
       </c>
       <c r="E162">
         <v>59</v>
@@ -5126,8 +4893,11 @@
       <c r="F162">
         <v>59</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162" s="3"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5135,10 +4905,10 @@
         <v>15</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D163" t="s">
-        <v>320</v>
+        <v>160</v>
+      </c>
+      <c r="D163" s="5">
+        <v>44770</v>
       </c>
       <c r="E163">
         <v>24</v>
@@ -5146,8 +4916,11 @@
       <c r="F163">
         <v>59</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163" s="3"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5155,10 +4928,10 @@
         <v>3</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D164" t="s">
-        <v>322</v>
+        <v>161</v>
+      </c>
+      <c r="D164" s="5">
+        <v>42414</v>
       </c>
       <c r="E164">
         <v>16</v>
@@ -5166,8 +4939,11 @@
       <c r="F164">
         <v>59</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164" s="3"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5175,10 +4951,10 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D165" t="s">
-        <v>117</v>
+        <v>162</v>
+      </c>
+      <c r="D165" s="5">
+        <v>43056</v>
       </c>
       <c r="E165">
         <v>38</v>
@@ -5186,8 +4962,11 @@
       <c r="F165">
         <v>59</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165" s="3"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5195,10 +4974,10 @@
         <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D166" t="s">
-        <v>325</v>
+        <v>163</v>
+      </c>
+      <c r="D166" s="5">
+        <v>42834</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -5206,8 +4985,11 @@
       <c r="F166">
         <v>59</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166" s="3"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5215,10 +4997,10 @@
         <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D167" t="s">
-        <v>327</v>
+        <v>164</v>
+      </c>
+      <c r="D167" s="5">
+        <v>44185</v>
       </c>
       <c r="E167">
         <v>50</v>
@@ -5226,8 +5008,11 @@
       <c r="F167">
         <v>59</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167" s="3"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5235,10 +5020,10 @@
         <v>3</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D168" t="s">
-        <v>329</v>
+        <v>165</v>
+      </c>
+      <c r="D168" s="5">
+        <v>44543</v>
       </c>
       <c r="E168">
         <v>12</v>
@@ -5246,8 +5031,11 @@
       <c r="F168">
         <v>59</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168" s="3"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5255,10 +5043,10 @@
         <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D169" t="s">
-        <v>71</v>
+        <v>166</v>
+      </c>
+      <c r="D169" s="5">
+        <v>43250</v>
       </c>
       <c r="E169">
         <v>52</v>
@@ -5266,8 +5054,11 @@
       <c r="F169">
         <v>59</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169" s="3"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5275,10 +5066,10 @@
         <v>11</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D170" t="s">
-        <v>332</v>
+        <v>167</v>
+      </c>
+      <c r="D170" s="5">
+        <v>43425</v>
       </c>
       <c r="E170">
         <v>20</v>
@@ -5286,8 +5077,11 @@
       <c r="F170">
         <v>59</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170" s="3"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5295,10 +5089,10 @@
         <v>9</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D171" t="s">
-        <v>334</v>
+        <v>168</v>
+      </c>
+      <c r="D171" s="5">
+        <v>44679</v>
       </c>
       <c r="E171">
         <v>25</v>
@@ -5306,8 +5100,11 @@
       <c r="F171">
         <v>59</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171" s="3"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5315,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D172" t="s">
-        <v>336</v>
+        <v>169</v>
+      </c>
+      <c r="D172" s="5">
+        <v>43380</v>
       </c>
       <c r="E172">
         <v>41</v>
@@ -5326,8 +5123,11 @@
       <c r="F172">
         <v>59</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172" s="3"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5335,10 +5135,10 @@
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D173" t="s">
-        <v>338</v>
+        <v>170</v>
+      </c>
+      <c r="D173" s="5">
+        <v>42275</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -5346,8 +5146,11 @@
       <c r="F173">
         <v>59</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173" s="3"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5355,10 +5158,10 @@
         <v>18</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D174" t="s">
-        <v>340</v>
+        <v>171</v>
+      </c>
+      <c r="D174" s="5">
+        <v>44553</v>
       </c>
       <c r="E174">
         <v>46</v>
@@ -5366,8 +5169,11 @@
       <c r="F174">
         <v>59</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174" s="3"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5375,10 +5181,10 @@
         <v>8</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D175" t="s">
-        <v>342</v>
+        <v>172</v>
+      </c>
+      <c r="D175" s="5">
+        <v>43672</v>
       </c>
       <c r="E175">
         <v>43</v>
@@ -5386,8 +5192,11 @@
       <c r="F175">
         <v>59</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175" s="3"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5395,10 +5204,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D176" t="s">
-        <v>344</v>
+        <v>173</v>
+      </c>
+      <c r="D176" s="5">
+        <v>42622</v>
       </c>
       <c r="E176">
         <v>33</v>
@@ -5406,8 +5215,11 @@
       <c r="F176">
         <v>59</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176" s="3"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5415,10 +5227,10 @@
         <v>19</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D177" t="s">
-        <v>346</v>
+        <v>174</v>
+      </c>
+      <c r="D177" s="5">
+        <v>43976</v>
       </c>
       <c r="E177">
         <v>11</v>
@@ -5426,8 +5238,11 @@
       <c r="F177">
         <v>59</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177" s="3"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5435,10 +5250,10 @@
         <v>13</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D178" t="s">
-        <v>49</v>
+        <v>175</v>
+      </c>
+      <c r="D178" s="5">
+        <v>43005</v>
       </c>
       <c r="E178">
         <v>7</v>
@@ -5446,8 +5261,11 @@
       <c r="F178">
         <v>59</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178" s="3"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5455,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D179" t="s">
-        <v>349</v>
+        <v>176</v>
+      </c>
+      <c r="D179" s="5">
+        <v>43677</v>
       </c>
       <c r="E179">
         <v>37</v>
@@ -5466,8 +5284,11 @@
       <c r="F179">
         <v>59</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179" s="3"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5475,10 +5296,10 @@
         <v>13</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D180" t="s">
-        <v>351</v>
+        <v>177</v>
+      </c>
+      <c r="D180" s="5">
+        <v>42550</v>
       </c>
       <c r="E180">
         <v>58</v>
@@ -5486,8 +5307,11 @@
       <c r="F180">
         <v>59</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G180" s="3"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5495,10 +5319,10 @@
         <v>8</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D181" t="s">
-        <v>353</v>
+        <v>178</v>
+      </c>
+      <c r="D181" s="5">
+        <v>43337</v>
       </c>
       <c r="E181">
         <v>59</v>
@@ -5506,8 +5330,11 @@
       <c r="F181">
         <v>60</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181" s="3"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5515,10 +5342,10 @@
         <v>11</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D182" t="s">
-        <v>355</v>
+        <v>179</v>
+      </c>
+      <c r="D182" s="5">
+        <v>44177</v>
       </c>
       <c r="E182">
         <v>26</v>
@@ -5526,8 +5353,11 @@
       <c r="F182">
         <v>60</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182" s="3"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5535,10 +5365,10 @@
         <v>14</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D183" t="s">
-        <v>357</v>
+        <v>180</v>
+      </c>
+      <c r="D183" s="5">
+        <v>42540</v>
       </c>
       <c r="E183">
         <v>46</v>
@@ -5546,8 +5376,11 @@
       <c r="F183">
         <v>60</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183" s="3"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5555,10 +5388,10 @@
         <v>18</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D184" t="s">
-        <v>359</v>
+        <v>181</v>
+      </c>
+      <c r="D184" s="5">
+        <v>44816</v>
       </c>
       <c r="E184">
         <v>14</v>
@@ -5566,8 +5399,11 @@
       <c r="F184">
         <v>61</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184" s="3"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5575,10 +5411,10 @@
         <v>8</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D185" t="s">
-        <v>361</v>
+        <v>182</v>
+      </c>
+      <c r="D185" s="5">
+        <v>42502</v>
       </c>
       <c r="E185">
         <v>9</v>
@@ -5586,8 +5422,11 @@
       <c r="F185">
         <v>61</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185" s="3"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5595,10 +5434,10 @@
         <v>15</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D186" t="s">
-        <v>363</v>
+        <v>183</v>
+      </c>
+      <c r="D186" s="5">
+        <v>42101</v>
       </c>
       <c r="E186">
         <v>32</v>
@@ -5606,8 +5445,11 @@
       <c r="F186">
         <v>61</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186" s="3"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5615,10 +5457,10 @@
         <v>15</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D187" t="s">
-        <v>365</v>
+        <v>184</v>
+      </c>
+      <c r="D187" s="5">
+        <v>42898</v>
       </c>
       <c r="E187">
         <v>61</v>
@@ -5626,8 +5468,11 @@
       <c r="F187">
         <v>62</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G187" s="3"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5635,10 +5480,10 @@
         <v>12</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D188" t="s">
-        <v>367</v>
+        <v>185</v>
+      </c>
+      <c r="D188" s="5">
+        <v>42521</v>
       </c>
       <c r="E188">
         <v>46</v>
@@ -5646,8 +5491,11 @@
       <c r="F188">
         <v>62</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G188" s="3"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5655,10 +5503,10 @@
         <v>15</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D189" t="s">
-        <v>369</v>
+        <v>186</v>
+      </c>
+      <c r="D189" s="5">
+        <v>42688</v>
       </c>
       <c r="E189">
         <v>8</v>
@@ -5666,8 +5514,11 @@
       <c r="F189">
         <v>64</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189" s="3"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5675,10 +5526,10 @@
         <v>18</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D190" t="s">
-        <v>371</v>
+        <v>187</v>
+      </c>
+      <c r="D190" s="5">
+        <v>42854</v>
       </c>
       <c r="E190">
         <v>47</v>
@@ -5686,8 +5537,11 @@
       <c r="F190">
         <v>64</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190" s="3"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5695,10 +5549,10 @@
         <v>6</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D191" t="s">
-        <v>373</v>
+        <v>188</v>
+      </c>
+      <c r="D191" s="5">
+        <v>43210</v>
       </c>
       <c r="E191">
         <v>59</v>
@@ -5706,8 +5560,11 @@
       <c r="F191">
         <v>64</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G191" s="3"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5715,10 +5572,10 @@
         <v>16</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D192" t="s">
-        <v>374</v>
+        <v>242</v>
+      </c>
+      <c r="D192" s="5">
+        <v>42803</v>
       </c>
       <c r="E192">
         <v>17</v>
@@ -5726,8 +5583,11 @@
       <c r="F192">
         <v>64</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192" s="3"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5735,10 +5595,10 @@
         <v>19</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D193" t="s">
-        <v>375</v>
+        <v>244</v>
+      </c>
+      <c r="D193" s="5">
+        <v>42332</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -5746,8 +5606,11 @@
       <c r="F193">
         <v>65</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193" s="3"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5755,10 +5618,10 @@
         <v>17</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D194" t="s">
-        <v>376</v>
+        <v>252</v>
+      </c>
+      <c r="D194" s="5">
+        <v>44450</v>
       </c>
       <c r="E194">
         <v>60</v>
@@ -5766,8 +5629,11 @@
       <c r="F194">
         <v>65</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194" s="3"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5775,10 +5641,10 @@
         <v>20</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D195" t="s">
-        <v>378</v>
+        <v>189</v>
+      </c>
+      <c r="D195" s="5">
+        <v>42992</v>
       </c>
       <c r="E195">
         <v>28</v>
@@ -5786,8 +5652,11 @@
       <c r="F195">
         <v>66</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195" s="3"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5795,10 +5664,10 @@
         <v>19</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D196" t="s">
-        <v>380</v>
+        <v>190</v>
+      </c>
+      <c r="D196" s="5">
+        <v>42581</v>
       </c>
       <c r="E196">
         <v>23</v>
@@ -5806,8 +5675,11 @@
       <c r="F196">
         <v>66</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196" s="3"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5815,10 +5687,10 @@
         <v>4</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D197" t="s">
-        <v>382</v>
+        <v>191</v>
+      </c>
+      <c r="D197" s="5">
+        <v>43626</v>
       </c>
       <c r="E197">
         <v>5</v>
@@ -5826,8 +5698,11 @@
       <c r="F197">
         <v>66</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197" s="3"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5835,10 +5710,10 @@
         <v>15</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D198" t="s">
-        <v>384</v>
+        <v>192</v>
+      </c>
+      <c r="D198" s="5">
+        <v>44326</v>
       </c>
       <c r="E198">
         <v>61</v>
@@ -5846,8 +5721,11 @@
       <c r="F198">
         <v>66</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198" s="3"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5855,10 +5733,10 @@
         <v>2</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D199" t="s">
-        <v>386</v>
+        <v>193</v>
+      </c>
+      <c r="D199" s="5">
+        <v>43890</v>
       </c>
       <c r="E199">
         <v>56</v>
@@ -5866,8 +5744,11 @@
       <c r="F199">
         <v>66</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199" s="3"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5875,10 +5756,10 @@
         <v>11</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D200" t="s">
-        <v>388</v>
+        <v>194</v>
+      </c>
+      <c r="D200" s="5">
+        <v>43351</v>
       </c>
       <c r="E200">
         <v>59</v>
@@ -5886,8 +5767,11 @@
       <c r="F200">
         <v>66</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200" s="3"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5895,10 +5779,10 @@
         <v>6</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D201" t="s">
-        <v>390</v>
+        <v>195</v>
+      </c>
+      <c r="D201" s="5">
+        <v>42981</v>
       </c>
       <c r="E201">
         <v>12</v>
@@ -5906,8 +5790,11 @@
       <c r="F201">
         <v>66</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G201" s="3"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5915,10 +5802,10 @@
         <v>3</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D202" t="s">
-        <v>210</v>
+        <v>196</v>
+      </c>
+      <c r="D202" s="5">
+        <v>43578</v>
       </c>
       <c r="E202">
         <v>13</v>
@@ -5926,8 +5813,11 @@
       <c r="F202">
         <v>66</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G202" s="3"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5935,10 +5825,10 @@
         <v>14</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D203" t="s">
-        <v>393</v>
+        <v>197</v>
+      </c>
+      <c r="D203" s="5">
+        <v>42361</v>
       </c>
       <c r="E203">
         <v>37</v>
@@ -5946,8 +5836,11 @@
       <c r="F203">
         <v>66</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G203" s="3"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5955,10 +5848,10 @@
         <v>17</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D204" t="s">
-        <v>395</v>
+        <v>198</v>
+      </c>
+      <c r="D204" s="5">
+        <v>44371</v>
       </c>
       <c r="E204">
         <v>32</v>
@@ -5966,8 +5859,11 @@
       <c r="F204">
         <v>66</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G204" s="3"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5975,10 +5871,10 @@
         <v>17</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D205" t="s">
-        <v>397</v>
+        <v>199</v>
+      </c>
+      <c r="D205" s="5">
+        <v>42693</v>
       </c>
       <c r="E205">
         <v>10</v>
@@ -5986,8 +5882,11 @@
       <c r="F205">
         <v>66</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G205" s="3"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5995,10 +5894,10 @@
         <v>10</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D206" t="s">
-        <v>399</v>
+        <v>200</v>
+      </c>
+      <c r="D206" s="5">
+        <v>42199</v>
       </c>
       <c r="E206">
         <v>37</v>
@@ -6006,8 +5905,11 @@
       <c r="F206">
         <v>66</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G206" s="3"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6015,10 +5917,10 @@
         <v>18</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D207" t="s">
-        <v>401</v>
+        <v>201</v>
+      </c>
+      <c r="D207" s="5">
+        <v>43757</v>
       </c>
       <c r="E207">
         <v>21</v>
@@ -6026,8 +5928,11 @@
       <c r="F207">
         <v>66</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G207" s="3"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6035,10 +5940,10 @@
         <v>18</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D208" t="s">
-        <v>403</v>
+        <v>202</v>
+      </c>
+      <c r="D208" s="5">
+        <v>42788</v>
       </c>
       <c r="E208">
         <v>25</v>
@@ -6046,8 +5951,11 @@
       <c r="F208">
         <v>66</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G208" s="3"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6055,10 +5963,10 @@
         <v>15</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D209" t="s">
-        <v>405</v>
+        <v>203</v>
+      </c>
+      <c r="D209" s="5">
+        <v>42826</v>
       </c>
       <c r="E209">
         <v>21</v>
@@ -6066,8 +5974,11 @@
       <c r="F209">
         <v>66</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G209" s="3"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6075,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D210" t="s">
-        <v>407</v>
+        <v>204</v>
+      </c>
+      <c r="D210" s="5">
+        <v>43926</v>
       </c>
       <c r="E210">
         <v>56</v>
@@ -6086,8 +5997,11 @@
       <c r="F210">
         <v>66</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G210" s="3"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6095,10 +6009,10 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D211" t="s">
-        <v>409</v>
+        <v>205</v>
+      </c>
+      <c r="D211" s="5">
+        <v>43001</v>
       </c>
       <c r="E211">
         <v>30</v>
@@ -6106,8 +6020,11 @@
       <c r="F211">
         <v>68</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G211" s="3"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6115,10 +6032,10 @@
         <v>17</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D212" t="s">
-        <v>411</v>
+        <v>206</v>
+      </c>
+      <c r="D212" s="5">
+        <v>44905</v>
       </c>
       <c r="E212">
         <v>13</v>
@@ -6126,8 +6043,11 @@
       <c r="F212">
         <v>69</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G212" s="3"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6135,10 +6055,10 @@
         <v>18</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D213" t="s">
-        <v>413</v>
+        <v>207</v>
+      </c>
+      <c r="D213" s="5">
+        <v>42849</v>
       </c>
       <c r="E213">
         <v>25</v>
@@ -6146,8 +6066,11 @@
       <c r="F213">
         <v>69</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G213" s="3"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6155,10 +6078,10 @@
         <v>16</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D214" t="s">
-        <v>415</v>
+        <v>208</v>
+      </c>
+      <c r="D214" s="5">
+        <v>44111</v>
       </c>
       <c r="E214">
         <v>14</v>
@@ -6166,8 +6089,11 @@
       <c r="F214">
         <v>70</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G214" s="3"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6175,10 +6101,10 @@
         <v>18</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D215" t="s">
-        <v>417</v>
+        <v>209</v>
+      </c>
+      <c r="D215" s="5">
+        <v>43596</v>
       </c>
       <c r="E215">
         <v>36</v>
@@ -6186,8 +6112,11 @@
       <c r="F215">
         <v>70</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G215" s="3"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6195,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D216" t="s">
-        <v>419</v>
+        <v>210</v>
+      </c>
+      <c r="D216" s="5">
+        <v>44846</v>
       </c>
       <c r="E216">
         <v>58</v>
@@ -6206,8 +6135,11 @@
       <c r="F216">
         <v>70</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G216" s="3"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6215,10 +6147,10 @@
         <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D217" t="s">
-        <v>421</v>
+        <v>211</v>
+      </c>
+      <c r="D217" s="5">
+        <v>44646</v>
       </c>
       <c r="E217">
         <v>41</v>
@@ -6226,8 +6158,11 @@
       <c r="F217">
         <v>70</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G217" s="3"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6235,10 +6170,10 @@
         <v>8</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D218" t="s">
-        <v>423</v>
+        <v>212</v>
+      </c>
+      <c r="D218" s="5">
+        <v>43165</v>
       </c>
       <c r="E218">
         <v>30</v>
@@ -6246,8 +6181,11 @@
       <c r="F218">
         <v>70</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G218" s="3"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6255,10 +6193,10 @@
         <v>2</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D219" t="s">
-        <v>425</v>
+        <v>213</v>
+      </c>
+      <c r="D219" s="5">
+        <v>44300</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -6266,8 +6204,11 @@
       <c r="F219">
         <v>70</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G219" s="3"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6275,10 +6216,10 @@
         <v>18</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D220" t="s">
-        <v>427</v>
+        <v>214</v>
+      </c>
+      <c r="D220" s="5">
+        <v>44560</v>
       </c>
       <c r="E220">
         <v>54</v>
@@ -6286,8 +6227,11 @@
       <c r="F220">
         <v>70</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G220" s="3"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6295,10 +6239,10 @@
         <v>7</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D221" t="s">
-        <v>429</v>
+        <v>215</v>
+      </c>
+      <c r="D221" s="5">
+        <v>44668</v>
       </c>
       <c r="E221">
         <v>31</v>
@@ -6306,8 +6250,11 @@
       <c r="F221">
         <v>70</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="G221" s="3"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6315,10 +6262,10 @@
         <v>14</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D222" t="s">
-        <v>431</v>
+        <v>216</v>
+      </c>
+      <c r="D222" s="5">
+        <v>44511</v>
       </c>
       <c r="E222">
         <v>27</v>
@@ -6326,8 +6273,11 @@
       <c r="F222">
         <v>70</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G222" s="3"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6335,10 +6285,10 @@
         <v>17</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D223" t="s">
-        <v>433</v>
+        <v>217</v>
+      </c>
+      <c r="D223" s="5">
+        <v>42592</v>
       </c>
       <c r="E223">
         <v>55</v>
@@ -6346,8 +6296,11 @@
       <c r="F223">
         <v>72</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G223" s="3"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6355,10 +6308,10 @@
         <v>13</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D224" t="s">
-        <v>435</v>
+        <v>218</v>
+      </c>
+      <c r="D224" s="5">
+        <v>44422</v>
       </c>
       <c r="E224">
         <v>42</v>
@@ -6366,8 +6319,11 @@
       <c r="F224">
         <v>72</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G224" s="3"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6375,10 +6331,10 @@
         <v>16</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D225" t="s">
-        <v>286</v>
+        <v>219</v>
+      </c>
+      <c r="D225" s="5">
+        <v>43016</v>
       </c>
       <c r="E225">
         <v>43</v>
@@ -6386,8 +6342,11 @@
       <c r="F225">
         <v>72</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G225" s="3"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6395,10 +6354,10 @@
         <v>17</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D226" t="s">
-        <v>437</v>
+        <v>245</v>
+      </c>
+      <c r="D226" s="5">
+        <v>42941</v>
       </c>
       <c r="E226">
         <v>60</v>
@@ -6406,8 +6365,11 @@
       <c r="F226">
         <v>73</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G226" s="3"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6415,10 +6377,10 @@
         <v>7</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D227" t="s">
-        <v>439</v>
+        <v>220</v>
+      </c>
+      <c r="D227" s="5">
+        <v>44316</v>
       </c>
       <c r="E227">
         <v>53</v>
@@ -6426,8 +6388,11 @@
       <c r="F227">
         <v>74</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G227" s="3"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="5"/>
+    </row>
+    <row r="228" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6435,10 +6400,10 @@
         <v>18</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D228" t="s">
-        <v>441</v>
+        <v>221</v>
+      </c>
+      <c r="D228" s="5">
+        <v>43877</v>
       </c>
       <c r="E228">
         <v>23</v>
@@ -6446,8 +6411,11 @@
       <c r="F228">
         <v>74</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G228" s="3"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6455,10 +6423,10 @@
         <v>11</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D229" t="s">
-        <v>443</v>
+        <v>222</v>
+      </c>
+      <c r="D229" s="5">
+        <v>44412</v>
       </c>
       <c r="E229">
         <v>41</v>
@@ -6466,8 +6434,11 @@
       <c r="F229">
         <v>74</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G229" s="3"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="5"/>
+    </row>
+    <row r="230" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6475,10 +6446,10 @@
         <v>17</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D230" t="s">
-        <v>444</v>
+        <v>246</v>
+      </c>
+      <c r="D230" s="5">
+        <v>44503</v>
       </c>
       <c r="E230">
         <v>30</v>
@@ -6486,8 +6457,11 @@
       <c r="F230">
         <v>75</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G230" s="3"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6495,10 +6469,10 @@
         <v>20</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D231" t="s">
-        <v>445</v>
+        <v>247</v>
+      </c>
+      <c r="D231" s="5">
+        <v>43506</v>
       </c>
       <c r="E231">
         <v>12</v>
@@ -6506,8 +6480,11 @@
       <c r="F231">
         <v>76</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G231" s="3"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="5"/>
+    </row>
+    <row r="232" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6515,10 +6492,10 @@
         <v>0</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D232" t="s">
-        <v>447</v>
+        <v>223</v>
+      </c>
+      <c r="D232" s="5">
+        <v>44055</v>
       </c>
       <c r="E232">
         <v>15</v>
@@ -6526,8 +6503,11 @@
       <c r="F232">
         <v>77</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G232" s="3"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6535,10 +6515,10 @@
         <v>17</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D233" t="s">
-        <v>449</v>
+        <v>224</v>
+      </c>
+      <c r="D233" s="5">
+        <v>43706</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -6546,8 +6526,11 @@
       <c r="F233">
         <v>77</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G233" s="3"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="5"/>
+    </row>
+    <row r="234" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6555,10 +6538,10 @@
         <v>15</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D234" t="s">
-        <v>451</v>
+        <v>225</v>
+      </c>
+      <c r="D234" s="5">
+        <v>44540</v>
       </c>
       <c r="E234">
         <v>49</v>
@@ -6566,8 +6549,11 @@
       <c r="F234">
         <v>78</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G234" s="3"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6575,10 +6561,10 @@
         <v>11</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D235" t="s">
-        <v>452</v>
+        <v>248</v>
+      </c>
+      <c r="D235" s="5">
+        <v>42304</v>
       </c>
       <c r="E235">
         <v>11</v>
@@ -6586,8 +6572,11 @@
       <c r="F235">
         <v>80</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G235" s="3"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="5"/>
+    </row>
+    <row r="236" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6595,10 +6584,10 @@
         <v>20</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D236" t="s">
-        <v>453</v>
+        <v>249</v>
+      </c>
+      <c r="D236" s="5">
+        <v>44493</v>
       </c>
       <c r="E236">
         <v>62</v>
@@ -6606,8 +6595,11 @@
       <c r="F236">
         <v>84</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G236" s="3"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6615,10 +6607,10 @@
         <v>10</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D237" t="s">
-        <v>455</v>
+        <v>226</v>
+      </c>
+      <c r="D237" s="5">
+        <v>44506</v>
       </c>
       <c r="E237">
         <v>7</v>
@@ -6626,8 +6618,11 @@
       <c r="F237">
         <v>84</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G237" s="3"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="5"/>
+    </row>
+    <row r="238" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6635,10 +6630,10 @@
         <v>18</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D238" t="s">
-        <v>457</v>
+        <v>227</v>
+      </c>
+      <c r="D238" s="5">
+        <v>44369</v>
       </c>
       <c r="E238">
         <v>47</v>
@@ -6646,8 +6641,11 @@
       <c r="F238">
         <v>84</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="G238" s="3"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6655,10 +6653,10 @@
         <v>9</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D239" t="s">
-        <v>459</v>
+        <v>228</v>
+      </c>
+      <c r="D239" s="5">
+        <v>42886</v>
       </c>
       <c r="E239">
         <v>52</v>
@@ -6666,8 +6664,11 @@
       <c r="F239">
         <v>84</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G239" s="3"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="5"/>
+    </row>
+    <row r="240" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6675,10 +6676,10 @@
         <v>17</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D240" t="s">
-        <v>460</v>
+        <v>250</v>
+      </c>
+      <c r="D240" s="5">
+        <v>44647</v>
       </c>
       <c r="E240">
         <v>4</v>
@@ -6686,8 +6687,11 @@
       <c r="F240">
         <v>84</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G240" s="3"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="5"/>
+    </row>
+    <row r="241" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6695,10 +6699,10 @@
         <v>15</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D241" t="s">
-        <v>462</v>
+        <v>229</v>
+      </c>
+      <c r="D241" s="5">
+        <v>42011</v>
       </c>
       <c r="E241">
         <v>24</v>
@@ -6706,8 +6710,11 @@
       <c r="F241">
         <v>87</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G241" s="3"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="5"/>
+    </row>
+    <row r="242" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6715,10 +6722,10 @@
         <v>15</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D242" t="s">
-        <v>464</v>
+        <v>230</v>
+      </c>
+      <c r="D242" s="5">
+        <v>44504</v>
       </c>
       <c r="E242">
         <v>31</v>
@@ -6726,8 +6733,11 @@
       <c r="F242">
         <v>87</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G242" s="3"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="5"/>
+    </row>
+    <row r="243" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6735,10 +6745,10 @@
         <v>11</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D243" t="s">
-        <v>466</v>
+        <v>231</v>
+      </c>
+      <c r="D243" s="5">
+        <v>42283</v>
       </c>
       <c r="E243">
         <v>54</v>
@@ -6746,8 +6756,11 @@
       <c r="F243">
         <v>87</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G243" s="3"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="5"/>
+    </row>
+    <row r="244" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6755,10 +6768,10 @@
         <v>12</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D244" t="s">
-        <v>468</v>
+        <v>232</v>
+      </c>
+      <c r="D244" s="5">
+        <v>44048</v>
       </c>
       <c r="E244">
         <v>52</v>
@@ -6766,8 +6779,11 @@
       <c r="F244">
         <v>88</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G244" s="3"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="5"/>
+    </row>
+    <row r="245" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6775,10 +6791,10 @@
         <v>11</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D245" t="s">
-        <v>470</v>
+        <v>233</v>
+      </c>
+      <c r="D245" s="5">
+        <v>43919</v>
       </c>
       <c r="E245">
         <v>9</v>
@@ -6786,8 +6802,11 @@
       <c r="F245">
         <v>88</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G245" s="3"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="5"/>
+    </row>
+    <row r="246" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6795,10 +6814,10 @@
         <v>10</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D246" t="s">
-        <v>472</v>
+        <v>234</v>
+      </c>
+      <c r="D246" s="5">
+        <v>44732</v>
       </c>
       <c r="E246">
         <v>64</v>
@@ -6806,8 +6825,11 @@
       <c r="F246">
         <v>88</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G246" s="3"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="5"/>
+    </row>
+    <row r="247" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6815,10 +6837,10 @@
         <v>9</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D247" t="s">
-        <v>474</v>
+        <v>235</v>
+      </c>
+      <c r="D247" s="5">
+        <v>43008</v>
       </c>
       <c r="E247">
         <v>40</v>
@@ -6826,8 +6848,11 @@
       <c r="F247">
         <v>88</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G247" s="3"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="5"/>
+    </row>
+    <row r="248" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6835,10 +6860,10 @@
         <v>17</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D248" t="s">
-        <v>475</v>
+        <v>251</v>
+      </c>
+      <c r="D248" s="5">
+        <v>43263</v>
       </c>
       <c r="E248">
         <v>21</v>
@@ -6846,8 +6871,11 @@
       <c r="F248">
         <v>91</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G248" s="3"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="5"/>
+    </row>
+    <row r="249" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6855,10 +6883,10 @@
         <v>7</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D249" t="s">
-        <v>477</v>
+        <v>236</v>
+      </c>
+      <c r="D249" s="5">
+        <v>44195</v>
       </c>
       <c r="E249">
         <v>48</v>
@@ -6866,8 +6894,11 @@
       <c r="F249">
         <v>91</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G249" s="3"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="5"/>
+    </row>
+    <row r="250" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6875,10 +6906,10 @@
         <v>15</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D250" t="s">
-        <v>479</v>
+        <v>237</v>
+      </c>
+      <c r="D250" s="5">
+        <v>44407</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -6886,8 +6917,11 @@
       <c r="F250">
         <v>91</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="G250" s="3"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="5"/>
+    </row>
+    <row r="251" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6895,10 +6929,10 @@
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D251" t="s">
-        <v>481</v>
+        <v>238</v>
+      </c>
+      <c r="D251" s="5">
+        <v>42979</v>
       </c>
       <c r="E251">
         <v>19</v>
@@ -6906,6 +6940,9 @@
       <c r="F251">
         <v>92</v>
       </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bdd_excel/Avis.xlsx
+++ b/bdd_excel/Avis.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA31D2C-AB31-044E-9965-8F16D92BD936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E5A5C9-FF0C-4A36-B9DD-AEEE0CE28DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{FFAC0233-3D28-634B-9D7E-2085D8CE6967}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Avis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="506" uniqueCount="488">
   <si>
     <t>id_avis</t>
   </si>
@@ -56,681 +48,1410 @@
     <t>"Incroyable ce jeu ! Probablement le meilleur de l'année ! Je conseille fortement !"</t>
   </si>
   <si>
+    <t>'2017-03-11'</t>
+  </si>
+  <si>
     <t>"Quelle déception ! Je l'attendais tellement mais il manque trop de contenu, en 30min on a vite fait le tour..."</t>
   </si>
   <si>
+    <t>'2022-08-22'</t>
+  </si>
+  <si>
     <t>"Très sympa à jouer avec des amis !"</t>
   </si>
   <si>
+    <t>'2022-05-10'</t>
+  </si>
+  <si>
     <t>"C'est pas le jeu de l'année, mais il saura vous occuper pendant une soirée ou deux !"</t>
   </si>
   <si>
+    <t>'2016-09-07'</t>
+  </si>
+  <si>
     <t>"Pas mal !"</t>
   </si>
   <si>
+    <t>'2020-08-29'</t>
+  </si>
+  <si>
     <t>"Pas bien !"</t>
   </si>
   <si>
+    <t>'2022-08-21'</t>
+  </si>
+  <si>
     <t>"G pa kompri lé regle"</t>
   </si>
   <si>
+    <t>'2021-09-06'</t>
+  </si>
+  <si>
     <t>"Incroyable  ! Mon jeu préféré !"</t>
   </si>
   <si>
+    <t>'2020-02-10'</t>
+  </si>
+  <si>
     <t>"Exceptionnel ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
+    <t>'2015-07-11'</t>
+  </si>
+  <si>
     <t>"Magistral ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
+    <t>'2021-04-23'</t>
+  </si>
+  <si>
     <t>"WOOOOOOOOOOOOOOOOOOOOW ! Mon nouveau jeu préféré !"</t>
   </si>
   <si>
+    <t>'2021-09-25'</t>
+  </si>
+  <si>
     <t>"Un peu cher pour sa durée de vie mais néanmoins agréable !"</t>
   </si>
   <si>
+    <t>'2015-09-15'</t>
+  </si>
+  <si>
     <t>"Parfait pour jouer avec ses enfants !"</t>
   </si>
   <si>
+    <t>'2022-06-03'</t>
+  </si>
+  <si>
     <t>"Mon dieu ! Mais quelle horreur ! Ce jeu n'a pour seul objectif de rendre vos enfants violents ! Je suis OUTRÉ !"</t>
   </si>
   <si>
+    <t>'2016-08-27'</t>
+  </si>
+  <si>
     <t>"Excellent jeu avec une durée de vie infinie !"</t>
   </si>
   <si>
+    <t>'2018-06-28'</t>
+  </si>
+  <si>
     <t>"Oui"</t>
   </si>
   <si>
+    <t>'2015-03-17'</t>
+  </si>
+  <si>
     <t>"Non"</t>
   </si>
   <si>
+    <t>'2019-09-14'</t>
+  </si>
+  <si>
+    <t>'2019-07-08'</t>
+  </si>
+  <si>
+    <t>'2016-04-29'</t>
+  </si>
+  <si>
     <t>"enorme c incr com jeu"</t>
   </si>
   <si>
+    <t>'2019-02-04'</t>
+  </si>
+  <si>
     <t>"vrmt bien quan ta rien a fair"</t>
   </si>
   <si>
+    <t>'2016-07-22'</t>
+  </si>
+  <si>
     <t>"On faisait mieux en 2001…"</t>
   </si>
   <si>
+    <t>'2018-02-11'</t>
+  </si>
+  <si>
     <t>"C'est un jeu maudit !"</t>
   </si>
   <si>
+    <t>'2020-12-20'</t>
+  </si>
+  <si>
     <t>"Juste une dingz"</t>
   </si>
   <si>
+    <t>'2021-10-27'</t>
+  </si>
+  <si>
     <t>"Juste une double dingz"</t>
   </si>
   <si>
+    <t>'2017-11-29'</t>
+  </si>
+  <si>
     <t>"Comment on se fait rembourser ?"</t>
   </si>
   <si>
+    <t>'2021-08-04'</t>
+  </si>
+  <si>
     <t>"Durée de vie : ++ / Gameplay : - / Equilibrage : - / Design : +"</t>
   </si>
   <si>
+    <t>'2017-03-26'</t>
+  </si>
+  <si>
     <t>"Durée de vie : + / Gameplay : ++ / Equilibrage : - / Design : +"</t>
   </si>
   <si>
+    <t>'2020-09-11'</t>
+  </si>
+  <si>
     <t>"Durée de vie : -- / Gameplay : + / Equilibrage : - / Design : -"</t>
   </si>
   <si>
+    <t>'2017-02-04'</t>
+  </si>
+  <si>
     <t>"Durée de vie : + / Gameplay : + / Equilibrage : + / Design : ++"</t>
   </si>
   <si>
+    <t>'2019-02-14'</t>
+  </si>
+  <si>
     <t>"Durée de vie : ++ / Gameplay : ++ / Equilibrage : + / Design : ++"</t>
   </si>
   <si>
+    <t>'2019-01-11'</t>
+  </si>
+  <si>
     <t>"Durée de vie : - / Gameplay : + / Equilibrage : -- / Design : +"</t>
   </si>
   <si>
+    <t>'2022-03-30'</t>
+  </si>
+  <si>
     <t>"Durée de vie : -- / Gameplay : ++ / Equilibrage : + / Design : -"</t>
   </si>
   <si>
+    <t>'2015-08-31'</t>
+  </si>
+  <si>
     <t>"Durée de vie : + / Gameplay : -- / Equilibrage : ++ / Design : +"</t>
   </si>
   <si>
+    <t>'2022-11-11'</t>
+  </si>
+  <si>
     <t>"Durée de vie : - / Gameplay : + / Equilibrage : + / Design : +"</t>
   </si>
   <si>
+    <t>'2017-06-06'</t>
+  </si>
+  <si>
     <t>"Durée de vie : -- / Gameplay : -- / Equilibrage : - / Design : --"</t>
   </si>
   <si>
+    <t>'2015-09-03'</t>
+  </si>
+  <si>
     <t>"Durée de vie : ++ / Gameplay : ++ / Equilibrage : - / Design : ++"</t>
   </si>
   <si>
+    <t>'2022-11-17'</t>
+  </si>
+  <si>
     <t>"Vraiment pas mal ce petit jeu !"</t>
   </si>
   <si>
+    <t>'2022-09-02'</t>
+  </si>
+  <si>
     <t>"Un classique !"</t>
   </si>
   <si>
+    <t>'2015-01-19'</t>
+  </si>
+  <si>
     <t>"Bof"</t>
   </si>
   <si>
+    <t>'2016-10-24'</t>
+  </si>
+  <si>
     <t>"Un très bon jeu ! Si y en a qui cherchent des gens pour jouer, vous pouvez m'ajouter, mon pseudo c'est Whiskey"</t>
   </si>
   <si>
+    <t>'2022-12-06'</t>
+  </si>
+  <si>
     <t>"Il était une école, qui avait tout gagné…"</t>
   </si>
   <si>
+    <t>'2017-11-19'</t>
+  </si>
+  <si>
     <t>"Catastrophique ! Une honte de vendre un jeu pareil !"</t>
   </si>
   <si>
+    <t>'2021-10-21'</t>
+  </si>
+  <si>
     <t>"Si l'ennui est votre passion, alors n'hésitez pas !"</t>
   </si>
   <si>
+    <t>'2022-09-08'</t>
+  </si>
+  <si>
     <t>"Remplir sa fiche d'impôsition est du fun à l'état pur à côté de ça..."</t>
   </si>
   <si>
+    <t>'2022-01-06'</t>
+  </si>
+  <si>
     <t>"Wow ! Ils ont dû redoubler d'effort pour réussir à condenser tout ce qui s'oppose à l'amusement en un seul jeu !"</t>
   </si>
   <si>
+    <t>'2021-07-07'</t>
+  </si>
+  <si>
     <t>"Ce jeu me rappelle mon fils : j'en voulais pas, il m'a coûté plus cher que ce qu'il m'a rapporté et même si j'en attendais rien, j'ai quand même été déçu…"</t>
   </si>
   <si>
+    <t>'2021-10-19'</t>
+  </si>
+  <si>
     <t>"Alors là, j'ai plus les mots…"</t>
   </si>
   <si>
+    <t>'2016-07-19'</t>
+  </si>
+  <si>
     <t>"Du pain béni !"</t>
   </si>
   <si>
+    <t>'2021-03-11'</t>
+  </si>
+  <si>
     <t>"MASTERCLASS !! Vous devez y jouer !!"</t>
   </si>
   <si>
+    <t>'2016-03-05'</t>
+  </si>
+  <si>
     <t>"Le parfait mélange entre un éclair vanille et une tarte au citron meringuée !"</t>
   </si>
   <si>
+    <t>'2020-08-04'</t>
+  </si>
+  <si>
     <t>"Si les dieux faisaient un enfant, il resemblerait à ça !"</t>
   </si>
   <si>
+    <t>'2015-01-28'</t>
+  </si>
+  <si>
     <t>"Très fun ! Il vaut le détour !"</t>
   </si>
   <si>
+    <t>'2022-06-23'</t>
+  </si>
+  <si>
     <t>"MA-SHA-LLAH !"</t>
   </si>
   <si>
+    <t>'2018-08-10'</t>
+  </si>
+  <si>
     <t>"Ne vaut pas son prix !"</t>
   </si>
   <si>
+    <t>'2015-03-31'</t>
+  </si>
+  <si>
     <t>"Le concept est vraiment original ! Dommage que les dessins soient peu travaillés…"</t>
   </si>
   <si>
+    <t>'2016-06-16'</t>
+  </si>
+  <si>
     <t>"Les pièces commencent déjà à s'abîmer gravement alors que j'ai acheté le jeu il y a moins de 2 semaines ! C'est honteux !"</t>
   </si>
   <si>
+    <t>'2016-11-14'</t>
+  </si>
+  <si>
     <t>"Excellent jeu ! Très convivial !"</t>
   </si>
   <si>
+    <t>'2020-07-18'</t>
+  </si>
+  <si>
     <t>"Les dessins sont beaux mais c'est tout…"</t>
   </si>
   <si>
+    <t>'2016-02-09'</t>
+  </si>
+  <si>
     <t>"Pas le jeu de l'année mais plutôt cool !"</t>
   </si>
   <si>
+    <t>'2018-04-04'</t>
+  </si>
+  <si>
     <t>"Ce jeu est aux jeux de société ce que Père Fouras est à Fort Boyard ! "</t>
   </si>
   <si>
+    <t>'2019-10-26'</t>
+  </si>
+  <si>
     <t>"Ce jeu est aux jeux de société ce que la tarte au citron meringuée est aux desserts !"</t>
   </si>
   <si>
+    <t>'2019-02-13'</t>
+  </si>
+  <si>
     <t>"Ce jeu est aux jeux de société ce que le réglisse est aux bonbons !"</t>
   </si>
   <si>
+    <t>'2018-10-16'</t>
+  </si>
+  <si>
     <t>"Ce jeu est aux jeux de société ce que le chou est aux légumes !"</t>
   </si>
   <si>
+    <t>'2021-04-27'</t>
+  </si>
+  <si>
     <t>"pas mal"</t>
   </si>
   <si>
+    <t>'2015-04-03'</t>
+  </si>
+  <si>
     <t>"vrmt pas mal"</t>
   </si>
   <si>
+    <t>'2019-05-09'</t>
+  </si>
+  <si>
     <t>"pas vrmt pas mal"</t>
   </si>
   <si>
+    <t>'2017-05-19'</t>
+  </si>
+  <si>
     <t>"Un bon petit jeu"</t>
   </si>
   <si>
+    <t>'2022-03-15'</t>
+  </si>
+  <si>
     <t>"Un indispensable des soirées entre amis !"</t>
   </si>
   <si>
+    <t>'2020-09-06'</t>
+  </si>
+  <si>
     <t>"Presque autant déçu que Leon"</t>
   </si>
   <si>
+    <t>'2019-09-01'</t>
+  </si>
+  <si>
     <t>"Moyen"</t>
   </si>
   <si>
+    <t>'2017-12-12'</t>
+  </si>
+  <si>
+    <t>'2018-12-10'</t>
+  </si>
+  <si>
     <t>"Dans la moyenne"</t>
   </si>
   <si>
+    <t>'2017-06-13'</t>
+  </si>
+  <si>
     <t>"Médiane"</t>
   </si>
   <si>
+    <t>'2019-09-06'</t>
+  </si>
+  <si>
     <t>"Meh"</t>
   </si>
   <si>
+    <t>'2020-02-09'</t>
+  </si>
+  <si>
     <t>"Ça ne vaut pas un bon vieux Takenoko mais ça fait quand même l'affaire"</t>
   </si>
   <si>
+    <t>'2017-05-16'</t>
+  </si>
+  <si>
     <t>"J'ai vu mieux, j'ai vu pire…"</t>
   </si>
   <si>
+    <t>'2017-07-28'</t>
+  </si>
+  <si>
     <t>"Nul"</t>
   </si>
   <si>
+    <t>'2020-06-16'</t>
+  </si>
+  <si>
     <t>"Grave bien !"</t>
   </si>
   <si>
+    <t>'2016-09-11'</t>
+  </si>
+  <si>
     <t>"Comme une envie de me foutre en l'air…"</t>
   </si>
   <si>
+    <t>'2017-11-14'</t>
+  </si>
+  <si>
     <t>"Plutôt original, il en vaut le détour !"</t>
   </si>
   <si>
+    <t>'2022-02-14'</t>
+  </si>
+  <si>
     <t>"Sûrement l'un des meilleurs dans ce domaine"</t>
   </si>
   <si>
+    <t>'2017-06-28'</t>
+  </si>
+  <si>
+    <t>"Toujours une valeur sure Libellud !"</t>
+  </si>
+  <si>
+    <t>'2018-02-25'</t>
+  </si>
+  <si>
+    <t>"Y en a pas bcp des bons jeux policier, mais celui-là en fait partie !"</t>
+  </si>
+  <si>
+    <t>'2015-11-29'</t>
+  </si>
+  <si>
     <t>"Bcp trop de règles compliquées qui rendent le jeu incompréhensible !"</t>
   </si>
   <si>
+    <t>'2022-11-25'</t>
+  </si>
+  <si>
     <t>"Un bon jeu pour changer des grands classiques !"</t>
   </si>
   <si>
     <t>"J'aime bien le concept mais à acheter en promo car la durée de vie est limitée"</t>
   </si>
   <si>
+    <t>'2022-08-12'</t>
+  </si>
+  <si>
     <t>"Excellent en tout point ! Un must-have !"</t>
   </si>
   <si>
+    <t>'2020-06-14'</t>
+  </si>
+  <si>
     <t>"Même si le design est un peu élémentaire, il vaut le coup !"</t>
   </si>
   <si>
+    <t>'2016-09-14'</t>
+  </si>
+  <si>
+    <t>"Le gameplay n'est pas très passionnant… Heureusement que c'est illustré par Vincent Dutrait !"</t>
+  </si>
+  <si>
+    <t>'2022-06-20'</t>
+  </si>
+  <si>
     <t>"Il sort des sentiers battus et ça marche ! Je valide !"</t>
   </si>
   <si>
+    <t>'2022-10-27'</t>
+  </si>
+  <si>
     <t>"Une formule classique mais bien exécutée !"</t>
   </si>
   <si>
+    <t>'2015-05-05'</t>
+  </si>
+  <si>
+    <t>"On retrouve bien la patte de Bauza, ce qui nous donne un jeu agréable entre amis !"</t>
+  </si>
+  <si>
+    <t>'2019-05-14'</t>
+  </si>
+  <si>
     <t>"Moelleux"</t>
   </si>
   <si>
+    <t>'2022-12-10'</t>
+  </si>
+  <si>
     <t>"Galbé"</t>
   </si>
   <si>
+    <t>'2018-08-31'</t>
+  </si>
+  <si>
     <t>"Eclairé"</t>
   </si>
   <si>
+    <t>'2019-02-08'</t>
+  </si>
+  <si>
     <t>"Obscur"</t>
   </si>
   <si>
+    <t>'2020-10-04'</t>
+  </si>
+  <si>
     <t>"Transcendant"</t>
   </si>
   <si>
+    <t>'2019-08-12'</t>
+  </si>
+  <si>
     <t>"Arrogant"</t>
   </si>
   <si>
+    <t>'2016-03-07'</t>
+  </si>
+  <si>
     <t>"Curieux"</t>
   </si>
   <si>
+    <t>'2017-09-28'</t>
+  </si>
+  <si>
     <t>"Mignon"</t>
   </si>
   <si>
+    <t>'2018-11-05'</t>
+  </si>
+  <si>
     <t>"Froid"</t>
   </si>
   <si>
+    <t>'2022-12-30'</t>
+  </si>
+  <si>
     <t>"Hypocrite"</t>
   </si>
   <si>
+    <t>'2016-09-16'</t>
+  </si>
+  <si>
     <t>"Egal"</t>
   </si>
   <si>
+    <t>'2017-06-12'</t>
+  </si>
+  <si>
     <t>"Patient"</t>
   </si>
   <si>
+    <t>'2020-07-30'</t>
+  </si>
+  <si>
     <t>"Pauvre"</t>
   </si>
   <si>
+    <t>'2018-02-24'</t>
+  </si>
+  <si>
     <t>"Sincère"</t>
   </si>
   <si>
+    <t>'2020-12-23'</t>
+  </si>
+  <si>
     <t>"Timide"</t>
   </si>
   <si>
+    <t>'2021-02-07'</t>
+  </si>
+  <si>
     <t>"Onctueux"</t>
   </si>
   <si>
+    <t>'2021-01-16'</t>
+  </si>
+  <si>
     <t>"Pas cuit"</t>
   </si>
   <si>
+    <t>'2017-02-18'</t>
+  </si>
+  <si>
     <t>"Trop cuit"</t>
   </si>
   <si>
+    <t>'2016-10-09'</t>
+  </si>
+  <si>
     <t>"Allumé"</t>
   </si>
   <si>
+    <t>'2016-03-14'</t>
+  </si>
+  <si>
     <t>"Vibrant"</t>
   </si>
   <si>
+    <t>'2016-05-20'</t>
+  </si>
+  <si>
     <t>"Vivant"</t>
   </si>
   <si>
+    <t>'2020-10-18'</t>
+  </si>
+  <si>
     <t>"Sauvage"</t>
   </si>
   <si>
+    <t>'2019-07-16'</t>
+  </si>
+  <si>
     <t>"Assaisonné"</t>
   </si>
   <si>
+    <t>'2015-02-14'</t>
+  </si>
+  <si>
     <t>"Innocent"</t>
   </si>
   <si>
+    <t>'2018-11-13'</t>
+  </si>
+  <si>
     <t>"Super"</t>
   </si>
   <si>
+    <t>'2019-09-23'</t>
+  </si>
+  <si>
     <t>"Indiscernable"</t>
   </si>
   <si>
     <t>"Invincible"</t>
   </si>
   <si>
+    <t>'2022-09-28'</t>
+  </si>
+  <si>
     <t>"Artérielle"</t>
   </si>
   <si>
+    <t>'2020-08-05'</t>
+  </si>
+  <si>
     <t>"Aberrant"</t>
   </si>
   <si>
+    <t>'2020-03-19'</t>
+  </si>
+  <si>
     <t>"Immédiat"</t>
   </si>
   <si>
+    <t>'2016-10-26'</t>
+  </si>
+  <si>
     <t>"Sanguin"</t>
   </si>
   <si>
+    <t>'2020-06-17'</t>
+  </si>
+  <si>
     <t>"Oxygéné"</t>
   </si>
   <si>
+    <t>'2015-03-11'</t>
+  </si>
+  <si>
     <t>"Aéré"</t>
   </si>
   <si>
+    <t>'2016-01-24'</t>
+  </si>
+  <si>
     <t>"Plausible"</t>
   </si>
   <si>
+    <t>'2017-07-31'</t>
+  </si>
+  <si>
     <t>"Occupant"</t>
   </si>
   <si>
+    <t>'2020-02-08'</t>
+  </si>
+  <si>
     <t>"Distrayant"</t>
   </si>
   <si>
+    <t>'2017-08-28'</t>
+  </si>
+  <si>
     <t>"Demonstratif"</t>
   </si>
   <si>
+    <t>'2018-11-06'</t>
+  </si>
+  <si>
     <t>"Très bien ! "</t>
   </si>
   <si>
+    <t>'2020-06-08'</t>
+  </si>
+  <si>
     <t>"Oubliable"</t>
   </si>
   <si>
+    <t>'2022-09-09'</t>
+  </si>
+  <si>
     <t>"Nullissime"</t>
   </si>
   <si>
+    <t>'2022-04-23'</t>
+  </si>
+  <si>
     <t>"Génant"</t>
   </si>
   <si>
+    <t>'2019-07-14'</t>
+  </si>
+  <si>
     <t>"Aiguisé"</t>
   </si>
   <si>
+    <t>'2018-10-07'</t>
+  </si>
+  <si>
     <t>"Inquiet"</t>
   </si>
   <si>
+    <t>'2015-11-12'</t>
+  </si>
+  <si>
     <t>"Grossier"</t>
   </si>
   <si>
     <t>"Monstreux"</t>
   </si>
   <si>
+    <t>'2022-03-25'</t>
+  </si>
+  <si>
     <t>"Lucide"</t>
   </si>
   <si>
+    <t>'2015-11-18'</t>
+  </si>
+  <si>
     <t>"Basique"</t>
   </si>
   <si>
+    <t>'2020-03-29'</t>
+  </si>
+  <si>
     <t>"Simple"</t>
   </si>
   <si>
+    <t>'2016-12-03'</t>
+  </si>
+  <si>
     <t>"Académique"</t>
   </si>
   <si>
+    <t>'2016-10-18'</t>
+  </si>
+  <si>
     <t>"Ludique"</t>
   </si>
   <si>
+    <t>'2022-02-20'</t>
+  </si>
+  <si>
     <t>"Stylé"</t>
   </si>
   <si>
+    <t>'2019-09-21'</t>
+  </si>
+  <si>
     <t>"Cosmique"</t>
   </si>
   <si>
+    <t>'2017-07-29'</t>
+  </si>
+  <si>
     <t>"Rapide"</t>
   </si>
   <si>
+    <t>'2016-04-30'</t>
+  </si>
+  <si>
     <t>"Long"</t>
   </si>
   <si>
+    <t>'2017-11-06'</t>
+  </si>
+  <si>
     <t>"Lent"</t>
   </si>
   <si>
+    <t>'2019-11-23'</t>
+  </si>
+  <si>
     <t>"Court"</t>
   </si>
   <si>
+    <t>'2017-06-23'</t>
+  </si>
+  <si>
     <t>"Minimal"</t>
   </si>
   <si>
+    <t>'2018-07-09'</t>
+  </si>
+  <si>
     <t>"Développé"</t>
   </si>
   <si>
+    <t>'2020-02-20'</t>
+  </si>
+  <si>
     <t>"Beau"</t>
   </si>
   <si>
+    <t>'2017-12-04'</t>
+  </si>
+  <si>
     <t>"Immersif"</t>
   </si>
   <si>
+    <t>'2021-03-21'</t>
+  </si>
+  <si>
     <t>"Intuitif"</t>
   </si>
   <si>
+    <t>'2019-10-09'</t>
+  </si>
+  <si>
     <t>"Normal"</t>
   </si>
   <si>
     <t>"Surprenant"</t>
   </si>
   <si>
+    <t>'2022-12-26'</t>
+  </si>
+  <si>
     <t>"Génial"</t>
   </si>
   <si>
     <t>"Imaginatif"</t>
   </si>
   <si>
+    <t>'2022-08-04'</t>
+  </si>
+  <si>
     <t>"Créatif"</t>
   </si>
   <si>
     <t>"Solide"</t>
   </si>
   <si>
+    <t>'2021-08-20'</t>
+  </si>
+  <si>
     <t>"Ponctuel"</t>
   </si>
   <si>
+    <t>'2021-02-18'</t>
+  </si>
+  <si>
     <t>"Bienveillant"</t>
   </si>
   <si>
+    <t>'2022-07-28'</t>
+  </si>
+  <si>
     <t>"Traumatisant"</t>
   </si>
   <si>
+    <t>'2016-02-14'</t>
+  </si>
+  <si>
     <t>"Horrible"</t>
   </si>
   <si>
+    <t>'2017-11-17'</t>
+  </si>
+  <si>
     <t>"Affreux"</t>
   </si>
   <si>
+    <t>'2017-04-09'</t>
+  </si>
+  <si>
     <t>"Catastrophique"</t>
   </si>
   <si>
     <t>"Désastreux"</t>
   </si>
   <si>
+    <t>'2021-12-13'</t>
+  </si>
+  <si>
     <t>"Ecoeurant"</t>
   </si>
   <si>
+    <t>'2018-05-30'</t>
+  </si>
+  <si>
     <t>"Assidu"</t>
   </si>
   <si>
+    <t>'2018-11-21'</t>
+  </si>
+  <si>
     <t>"Pensif"</t>
   </si>
   <si>
+    <t>'2022-04-28'</t>
+  </si>
+  <si>
     <t>"Vendu"</t>
   </si>
   <si>
     <t>"Terminé"</t>
   </si>
   <si>
+    <t>'2015-09-28'</t>
+  </si>
+  <si>
     <t>"Héroïque"</t>
   </si>
   <si>
+    <t>'2021-12-23'</t>
+  </si>
+  <si>
     <t>"Plat"</t>
   </si>
   <si>
+    <t>'2019-07-26'</t>
+  </si>
+  <si>
     <t>"Fade"</t>
   </si>
   <si>
+    <t>'2016-09-09'</t>
+  </si>
+  <si>
     <t>"Gastronomique"</t>
   </si>
   <si>
+    <t>'2020-05-25'</t>
+  </si>
+  <si>
     <t>"Féodal"</t>
   </si>
   <si>
+    <t>'2017-09-27'</t>
+  </si>
+  <si>
     <t>"Visible"</t>
   </si>
   <si>
+    <t>'2019-07-31'</t>
+  </si>
+  <si>
     <t>"Efficace"</t>
   </si>
   <si>
+    <t>'2016-06-29'</t>
+  </si>
+  <si>
     <t>"Chargemeeeeeennnnnntt !! Lalalalala ! Chargemeeeeeeeennntt !!"</t>
   </si>
   <si>
+    <t>'2018-08-25'</t>
+  </si>
+  <si>
     <t>"Ouverture de porte"</t>
   </si>
   <si>
+    <t>'2020-12-12'</t>
+  </si>
+  <si>
     <t>"Transition"</t>
   </si>
   <si>
+    <t>'2016-06-19'</t>
+  </si>
+  <si>
     <t>"Un jeu excellent !"</t>
   </si>
   <si>
+    <t>'2022-09-12'</t>
+  </si>
+  <si>
     <t>"Un jeu mauvais !"</t>
   </si>
   <si>
+    <t>'2016-05-12'</t>
+  </si>
+  <si>
     <t>"Un jeu amusant !"</t>
   </si>
   <si>
+    <t>'2015-04-07'</t>
+  </si>
+  <si>
     <t>"Rien à dire, il fait le job."</t>
   </si>
   <si>
     <t>"Un peu déçu par la fin, dommage le début était prometteur…"</t>
   </si>
   <si>
+    <t>'2016-05-31'</t>
+  </si>
+  <si>
     <t>"Très compliqué au premier abord mais la courbe de progression est très satisfaisante !"</t>
   </si>
   <si>
     <t>"Alors là je dis oui, oui, oui !"</t>
   </si>
   <si>
+    <t>'2017-04-29'</t>
+  </si>
+  <si>
     <t>"Mais là je dis non, non, non !"</t>
   </si>
   <si>
+    <t>'2018-04-20'</t>
+  </si>
+  <si>
+    <t>"C'est un jeu de niche, qui plaira aux fans des jeux de bluff !"</t>
+  </si>
+  <si>
+    <t>'2017-03-09'</t>
+  </si>
+  <si>
+    <t>"J'ai enfin trouvé le digne successeur de Abyss !"</t>
+  </si>
+  <si>
+    <t>'2015-11-24'</t>
+  </si>
+  <si>
+    <t>"Il est cool celui-là ! Tu voudras y jouer Ultia ?"</t>
+  </si>
+  <si>
+    <t>'2021-09-11'</t>
+  </si>
+  <si>
     <t>"Je vendrai ma mère pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2017-09-14'</t>
+  </si>
+  <si>
     <t>"Je vendrai mon père pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2016-07-30'</t>
+  </si>
+  <si>
     <t>"Je vendrai mon frère pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2019-06-10'</t>
+  </si>
+  <si>
     <t>"Je vendrai ma sœur pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2021-05-10'</t>
+  </si>
+  <si>
     <t>"Je vendrai mon fils pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2020-02-29'</t>
+  </si>
+  <si>
     <t>"Je vendrai ma fille pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2018-09-08'</t>
+  </si>
+  <si>
     <t>"Je vendrai mon oncle pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2017-09-03'</t>
+  </si>
+  <si>
     <t>"Il vaut pas un rond celui-là…"</t>
   </si>
   <si>
+    <t>'2019-04-23'</t>
+  </si>
+  <si>
     <t>"Je vendrai ma tante pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2015-12-23'</t>
+  </si>
+  <si>
     <t>"Je vendrai mon grand-père pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2021-06-24'</t>
+  </si>
+  <si>
     <t>"Je vendrai ma grand-mère pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2016-11-19'</t>
+  </si>
+  <si>
     <t>"Je vendrai ma femme pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2015-07-14'</t>
+  </si>
+  <si>
     <t>"Je vendrai mon meilleur ami pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2019-10-19'</t>
+  </si>
+  <si>
     <t>"Je vendrai mon chien pour ce jeu !"</t>
   </si>
   <si>
+    <t>'2017-02-22'</t>
+  </si>
+  <si>
     <t>"J'ai plus grand-chose à vendre, mais il est vraiment bien !"</t>
   </si>
   <si>
+    <t>'2017-04-01'</t>
+  </si>
+  <si>
     <t>"Nul ! Faut être beaucoup pour jouer mais je suis tout seul…"</t>
   </si>
   <si>
+    <t>'2020-04-05'</t>
+  </si>
+  <si>
     <t>"Ne l'achetez surtout pas !"</t>
   </si>
   <si>
+    <t>'2017-09-23'</t>
+  </si>
+  <si>
     <t>"Vrmt raffraichissant ! Ça devrait être une inspiration pour les prochains jeux !"</t>
   </si>
   <si>
     <t>"Un classique indémodable"</t>
   </si>
   <si>
+    <t>'2017-04-24'</t>
+  </si>
+  <si>
     <t>"*pouce en l'air*"</t>
   </si>
   <si>
+    <t>'2020-10-07'</t>
+  </si>
+  <si>
     <t>"*applaudissement*"</t>
   </si>
   <si>
+    <t>'2019-05-11'</t>
+  </si>
+  <si>
     <t>"*smiley content*"</t>
   </si>
   <si>
+    <t>'2022-10-12'</t>
+  </si>
+  <si>
     <t>"*smiley énervé*"</t>
   </si>
   <si>
+    <t>'2022-03-26'</t>
+  </si>
+  <si>
     <t>"*smiley déçu*"</t>
   </si>
   <si>
+    <t>'2018-03-06'</t>
+  </si>
+  <si>
     <t>"*baleine*"</t>
   </si>
   <si>
+    <t>'2021-04-14'</t>
+  </si>
+  <si>
     <t>"*hot-dog*"</t>
   </si>
   <si>
+    <t>'2021-12-30'</t>
+  </si>
+  <si>
     <t>"*pouce vers le bas*"</t>
   </si>
   <si>
+    <t>'2022-04-17'</t>
+  </si>
+  <si>
     <t>"*smiley satisfait mais qui reste un peu sur sa faim quand même car il aurait aimé un peu plus de possibilité de gameplay mais vu que les dessins sont stylés*"</t>
   </si>
   <si>
+    <t>'2021-11-11'</t>
+  </si>
+  <si>
     <t>"Très convivial, parfait pour les dimanche en famille !"</t>
   </si>
   <si>
+    <t>'2016-08-10'</t>
+  </si>
+  <si>
     <t>"Un peu trop compliqué pour les novices du genre."</t>
   </si>
   <si>
+    <t>'2021-08-14'</t>
+  </si>
+  <si>
     <t>"A la fois intuitif et complexe, il permet de faire de belles parties entre adeptes !"</t>
   </si>
   <si>
+    <t>'2017-10-08'</t>
+  </si>
+  <si>
+    <t>"Parfait pour initier de nouveaux joueurs aux jeux de construction et de stratégie !"</t>
+  </si>
+  <si>
+    <t>'2017-07-25'</t>
+  </si>
+  <si>
     <t>"3550708"</t>
   </si>
   <si>
+    <t>'2021-04-30'</t>
+  </si>
+  <si>
     <t>"5508"</t>
   </si>
   <si>
+    <t>'2020-02-16'</t>
+  </si>
+  <si>
     <t>"370909"</t>
   </si>
   <si>
+    <t>"Enfin un jeu de mythologie à la hauteur !"</t>
+  </si>
+  <si>
+    <t>'2021-11-03'</t>
+  </si>
+  <si>
+    <t>"Quadropolis, c'est la vie !"</t>
+  </si>
+  <si>
+    <t>'2019-02-10'</t>
+  </si>
+  <si>
     <t>"B***** de m**** ! C'est quoi cette m**** p***** ! Bande d'e****** remboursez moi !"</t>
   </si>
   <si>
+    <t>'2020-08-12'</t>
+  </si>
+  <si>
     <t>"Toujours un plaisir d'y jouer avec mes amies du club de tricot !"</t>
   </si>
   <si>
+    <t>'2019-08-29'</t>
+  </si>
+  <si>
     <t>"Jsuis pas sur davoir tout compris mais ca a lair plutot cool"</t>
   </si>
   <si>
+    <t>'2021-12-10'</t>
+  </si>
+  <si>
+    <t>"Un peu déçu venant de Gandon et Miramon, c'est pas leur meilleur..."</t>
+  </si>
+  <si>
+    <t>'2015-10-27'</t>
+  </si>
+  <si>
+    <t>"Une collaboration entre Theo Riviere et Miguel Coimbra ne pouvait donner qu'un chef d'œuvre !"</t>
+  </si>
+  <si>
+    <t>'2021-10-24'</t>
+  </si>
+  <si>
     <t>"Je ne sais pas pour les autres configurations, mais y jouer à 4 rendait le jeu assez lent…"</t>
   </si>
   <si>
+    <t>'2021-11-06'</t>
+  </si>
+  <si>
     <t>"J'adore l'univers ! De plus le gameplay est nerveux et intense ! C'est un grand oui pour moi !"</t>
   </si>
   <si>
+    <t>'2021-06-22'</t>
+  </si>
+  <si>
     <t>"C'est tellement dommage ! Le concept de base était grave intéressant, mais on s'y perd trop avec tous les attributs et les objets en plus ! On passe plus de temps à essayer de comprendre ce qu'il se passe qu'à jouer..."</t>
   </si>
   <si>
+    <t>'2017-05-31'</t>
+  </si>
+  <si>
+    <t>"Et bien ! Je ne suis pas un grand fan des jeux de cartes, mais je dois avouer que celui-ci a su me plaire !"</t>
+  </si>
+  <si>
+    <t>'2022-03-27'</t>
+  </si>
+  <si>
     <t>"Un jeu intuitif, facile à prendre en main et compréhensible"</t>
   </si>
   <si>
+    <t>'2015-01-07'</t>
+  </si>
+  <si>
     <t>"Un jeu rapide, vif et véloce"</t>
   </si>
   <si>
+    <t>'2021-11-04'</t>
+  </si>
+  <si>
     <t>"Un jeu difficile, complexe et compliqué"</t>
   </si>
   <si>
+    <t>'2015-10-06'</t>
+  </si>
+  <si>
     <t>"Easy"</t>
   </si>
   <si>
@@ -743,113 +1464,560 @@
     <t>"vous aver pa plus dificil ?"</t>
   </si>
   <si>
+    <t>'2017-09-30'</t>
+  </si>
+  <si>
+    <t>"Première fois que je teste un jeu de Repos Production : résultat très concluant !"</t>
+  </si>
+  <si>
+    <t>'2018-06-12'</t>
+  </si>
+  <si>
     <t>"A part si vous n'avez rien d'autre, à éviter"</t>
   </si>
   <si>
+    <t>'2020-12-30'</t>
+  </si>
+  <si>
     <t>"Bon jeu entre amis, dommage qu'il ne puisse pas y avoir plus de joueurs…"</t>
   </si>
   <si>
+    <t>'2021-07-30'</t>
+  </si>
+  <si>
     <t>"Si vous tenez à votre santé mental, votre temps et votre argent, n'y jouez pas !"</t>
   </si>
   <si>
-    <t>"Le gameplay n'est pas très passionnant… Heureusement que c'est illustré par Vincent Dutrait !"</t>
-  </si>
-  <si>
-    <t>"On retrouve bien la patte de Bauza, ce qui nous donne un jeu agréable entre amis !"</t>
-  </si>
-  <si>
-    <t>"Toujours une valeur sure Libellud !"</t>
-  </si>
-  <si>
-    <t>"C'est un jeu de niche, qui plaira aux fans des jeux de bluff !"</t>
-  </si>
-  <si>
-    <t>"Y en a pas bcp des bons jeux policier, mais celui-là en fait partie !"</t>
-  </si>
-  <si>
-    <t>"J'ai enfin trouvé le digne successeur de Abyss !"</t>
-  </si>
-  <si>
-    <t>"Parfait pour initier de nouveaux joueurs aux jeux de construction et de stratégie !"</t>
-  </si>
-  <si>
-    <t>"Enfin un jeu de mythologie à la hauteur !"</t>
-  </si>
-  <si>
-    <t>"Quadropolis, c'est la vie !"</t>
-  </si>
-  <si>
-    <t>"Un peu déçu venant de Gandon et Miramon, c'est pas leur meilleur..."</t>
-  </si>
-  <si>
-    <t>"Une collaboration entre Theo Riviere et Miguel Coimbra ne pouvait donner qu'un chef d'œuvre !"</t>
-  </si>
-  <si>
-    <t>"Et bien ! Je ne suis pas un grand fan des jeux de cartes, mais je dois avouer que celui-ci a su me plaire !"</t>
-  </si>
-  <si>
-    <t>"Première fois que je teste un jeu de Repos Production : résultat très concluant !"</t>
-  </si>
-  <si>
-    <t>"Il est cool celui-là ! Tu voudras y jouer Ultia ?"</t>
+    <t>'2017-09-01'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="171" formatCode="\'yyyy\-mm\-dd\'"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF7F7F7F"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF7F7F7F"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF3F3F3F"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF3F3F3F"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="double">
+        <color rgb="FF3F3F3F"/>
+      </start>
+      <end style="double">
+        <color rgb="FF3F3F3F"/>
+      </end>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FFB2B2B2"/>
+      </start>
+      <end style="thin">
+        <color rgb="FFB2B2B2"/>
+      </end>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,7 +2033,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1018,25 +2186,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1044,25 +2212,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1075,21 +2243,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1103,7 +2271,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1115,32 +2283,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1160,28 +2328,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554BF90-C002-4843-AC84-EB706920A8E3}">
-  <dimension ref="A1:I251"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="42" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1194,18 +2355,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
-        <v>42805</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
         <v>48</v>
@@ -1213,22 +2374,19 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>44795</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -1236,22 +2394,19 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44691</v>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -1259,22 +2414,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>42620</v>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5">
         <v>46</v>
@@ -1282,22 +2434,19 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44072</v>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -1305,22 +2454,19 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5">
-        <v>44794</v>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
       <c r="E7">
         <v>26</v>
@@ -1328,22 +2474,19 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44445</v>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
       <c r="E8">
         <v>24</v>
@@ -1351,22 +2494,19 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>43871</v>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
       <c r="E9">
         <v>52</v>
@@ -1374,22 +2514,19 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5">
-        <v>42196</v>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1397,22 +2534,19 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>44309</v>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
       <c r="E11">
         <v>45</v>
@@ -1420,22 +2554,19 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5">
-        <v>44464</v>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
       <c r="E12">
         <v>24</v>
@@ -1443,22 +2574,19 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5">
-        <v>42262</v>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
       </c>
       <c r="E13">
         <v>48</v>
@@ -1466,22 +2594,19 @@
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5">
-        <v>44715</v>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -1489,22 +2614,19 @@
       <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
-        <v>42609</v>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
       </c>
       <c r="E15">
         <v>22</v>
@@ -1512,22 +2634,19 @@
       <c r="F15">
         <v>7</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <v>43279</v>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
       </c>
       <c r="E16">
         <v>37</v>
@@ -1535,22 +2654,19 @@
       <c r="F16">
         <v>8</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5">
-        <v>42080</v>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
       </c>
       <c r="E17">
         <v>27</v>
@@ -1558,22 +2674,19 @@
       <c r="F17">
         <v>10</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5">
-        <v>43722</v>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1581,22 +2694,19 @@
       <c r="F18">
         <v>10</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="5">
-        <v>43654</v>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1604,22 +2714,19 @@
       <c r="F19">
         <v>10</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5">
-        <v>42489</v>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
       </c>
       <c r="E20">
         <v>44</v>
@@ -1627,22 +2734,19 @@
       <c r="F20">
         <v>10</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5">
-        <v>43500</v>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
       </c>
       <c r="E21">
         <v>41</v>
@@ -1650,22 +2754,19 @@
       <c r="F21">
         <v>11</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5">
-        <v>42573</v>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
       </c>
       <c r="E22">
         <v>57</v>
@@ -1673,22 +2774,19 @@
       <c r="F22">
         <v>11</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5">
-        <v>43142</v>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
       </c>
       <c r="E23">
         <v>27</v>
@@ -1696,22 +2794,19 @@
       <c r="F23">
         <v>12</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5">
-        <v>44185</v>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -1719,22 +2814,19 @@
       <c r="F24">
         <v>13</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5">
-        <v>44496</v>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1742,22 +2834,19 @@
       <c r="F25">
         <v>16</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5">
-        <v>43068</v>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
       </c>
       <c r="E26">
         <v>44</v>
@@ -1765,22 +2854,19 @@
       <c r="F26">
         <v>16</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="5">
-        <v>44412</v>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
       </c>
       <c r="E27">
         <v>12</v>
@@ -1788,22 +2874,19 @@
       <c r="F27">
         <v>17</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>14</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="5">
-        <v>42820</v>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
       </c>
       <c r="E28">
         <v>43</v>
@@ -1811,22 +2894,19 @@
       <c r="F28">
         <v>18</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="5">
-        <v>44085</v>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
       </c>
       <c r="E29">
         <v>62</v>
@@ -1834,22 +2914,19 @@
       <c r="F29">
         <v>18</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="5">
-        <v>42770</v>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
       </c>
       <c r="E30">
         <v>34</v>
@@ -1857,22 +2934,19 @@
       <c r="F30">
         <v>18</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>17</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="5">
-        <v>43510</v>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
       </c>
       <c r="E31">
         <v>47</v>
@@ -1880,22 +2954,19 @@
       <c r="F31">
         <v>18</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>18</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="5">
-        <v>43476</v>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -1903,22 +2974,19 @@
       <c r="F32">
         <v>18</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>13</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="5">
-        <v>44650</v>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -1926,22 +2994,19 @@
       <c r="F33">
         <v>18</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>11</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="5">
-        <v>42247</v>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -1949,22 +3014,19 @@
       <c r="F34">
         <v>18</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="5">
-        <v>44876</v>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
       </c>
       <c r="E35">
         <v>27</v>
@@ -1972,22 +3034,19 @@
       <c r="F35">
         <v>18</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>15</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="5">
-        <v>42892</v>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
       </c>
       <c r="E36">
         <v>23</v>
@@ -1995,22 +3054,19 @@
       <c r="F36">
         <v>18</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="5">
-        <v>42250</v>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2018,22 +3074,19 @@
       <c r="F37">
         <v>18</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>17</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="5">
-        <v>44882</v>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2041,22 +3094,19 @@
       <c r="F38">
         <v>18</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="5">
-        <v>44806</v>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
       </c>
       <c r="E39">
         <v>33</v>
@@ -2064,22 +3114,19 @@
       <c r="F39">
         <v>19</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>19</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="5">
-        <v>42023</v>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
       </c>
       <c r="E40">
         <v>18</v>
@@ -2087,22 +3134,19 @@
       <c r="F40">
         <v>19</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="5">
-        <v>42667</v>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
       </c>
       <c r="E41">
         <v>37</v>
@@ -2110,22 +3154,19 @@
       <c r="F41">
         <v>19</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="5">
-        <v>44901</v>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
       </c>
       <c r="E42">
         <v>19</v>
@@ -2133,22 +3174,19 @@
       <c r="F42">
         <v>21</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>20</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="5">
-        <v>43058</v>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
       </c>
       <c r="E43">
         <v>11</v>
@@ -2156,22 +3194,19 @@
       <c r="F43">
         <v>22</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="5">
-        <v>44490</v>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
       </c>
       <c r="E44">
         <v>63</v>
@@ -2179,22 +3214,19 @@
       <c r="F44">
         <v>26</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="5">
-        <v>44812</v>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
       </c>
       <c r="E45">
         <v>33</v>
@@ -2202,22 +3234,19 @@
       <c r="F45">
         <v>26</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="5">
-        <v>44567</v>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
       </c>
       <c r="E46">
         <v>9</v>
@@ -2225,22 +3254,19 @@
       <c r="F46">
         <v>26</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="5">
-        <v>44384</v>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
       </c>
       <c r="E47">
         <v>60</v>
@@ -2248,22 +3274,19 @@
       <c r="F47">
         <v>26</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="5">
-        <v>44488</v>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
       </c>
       <c r="E48">
         <v>39</v>
@@ -2271,22 +3294,19 @@
       <c r="F48">
         <v>26</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="5">
-        <v>42570</v>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
       </c>
       <c r="E49">
         <v>53</v>
@@ -2294,45 +3314,39 @@
       <c r="F49">
         <v>26</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>18</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="5">
-        <v>44266</v>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>27</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="5">
-        <v>42434</v>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
       </c>
       <c r="E51">
         <v>13</v>
@@ -2340,22 +3354,19 @@
       <c r="F51">
         <v>27</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>17</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="5">
-        <v>44047</v>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -2363,22 +3374,19 @@
       <c r="F52">
         <v>27</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>20</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="5">
-        <v>42032</v>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
       </c>
       <c r="E53">
         <v>64</v>
@@ -2386,22 +3394,19 @@
       <c r="F53">
         <v>27</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="5">
-        <v>44735</v>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>109</v>
       </c>
       <c r="E54">
         <v>37</v>
@@ -2409,22 +3414,19 @@
       <c r="F54">
         <v>27</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="5">
-        <v>43322</v>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="E55">
         <v>43</v>
@@ -2432,22 +3434,19 @@
       <c r="F55">
         <v>27</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="5">
-        <v>42094</v>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>113</v>
       </c>
       <c r="E56">
         <v>43</v>
@@ -2455,22 +3454,19 @@
       <c r="F56">
         <v>30</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>14</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="5">
-        <v>42537</v>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
       </c>
       <c r="E57">
         <v>31</v>
@@ -2478,22 +3474,19 @@
       <c r="F57">
         <v>30</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="5">
-        <v>42688</v>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
       </c>
       <c r="E58">
         <v>63</v>
@@ -2501,22 +3494,19 @@
       <c r="F58">
         <v>31</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>17</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="5">
-        <v>44030</v>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
       </c>
       <c r="E59">
         <v>38</v>
@@ -2524,22 +3514,19 @@
       <c r="F59">
         <v>32</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>11</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="5">
-        <v>42409</v>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
       </c>
       <c r="E60">
         <v>57</v>
@@ -2547,22 +3534,19 @@
       <c r="F60">
         <v>32</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>14</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="5">
-        <v>43194</v>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
       </c>
       <c r="E61">
         <v>27</v>
@@ -2570,22 +3554,19 @@
       <c r="F61">
         <v>32</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>18</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="5">
-        <v>43764</v>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
       </c>
       <c r="E62">
         <v>18</v>
@@ -2593,22 +3574,19 @@
       <c r="F62">
         <v>33</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>20</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="5">
-        <v>43509</v>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
       </c>
       <c r="E63">
         <v>63</v>
@@ -2616,22 +3594,19 @@
       <c r="F63">
         <v>33</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="5">
-        <v>43389</v>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
       </c>
       <c r="E64">
         <v>46</v>
@@ -2639,22 +3614,19 @@
       <c r="F64">
         <v>33</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="5">
-        <v>44313</v>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
       </c>
       <c r="E65">
         <v>51</v>
@@ -2662,22 +3634,19 @@
       <c r="F65">
         <v>33</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>14</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="5">
-        <v>42097</v>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
       </c>
       <c r="E66">
         <v>54</v>
@@ -2685,22 +3654,19 @@
       <c r="F66">
         <v>41</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>15</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="5">
-        <v>43594</v>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
       </c>
       <c r="E67">
         <v>31</v>
@@ -2708,22 +3674,19 @@
       <c r="F67">
         <v>41</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="5">
-        <v>42874</v>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
       </c>
       <c r="E68">
         <v>16</v>
@@ -2731,22 +3694,19 @@
       <c r="F68">
         <v>41</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>15</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="5">
-        <v>44635</v>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -2754,22 +3714,19 @@
       <c r="F69">
         <v>45</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>18</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="5">
-        <v>44080</v>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
       </c>
       <c r="E70">
         <v>22</v>
@@ -2777,22 +3734,19 @@
       <c r="F70">
         <v>45</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="5">
-        <v>43709</v>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" t="s">
+        <v>143</v>
       </c>
       <c r="E71">
         <v>39</v>
@@ -2800,22 +3754,19 @@
       <c r="F71">
         <v>48</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>10</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="5">
-        <v>43081</v>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
       </c>
       <c r="E72">
         <v>8</v>
@@ -2823,22 +3774,19 @@
       <c r="F72">
         <v>50</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="5">
-        <v>43444</v>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -2846,22 +3794,19 @@
       <c r="F73">
         <v>50</v>
       </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>10</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="5">
-        <v>42899</v>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
       </c>
       <c r="E74">
         <v>54</v>
@@ -2869,22 +3814,19 @@
       <c r="F74">
         <v>50</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>10</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="5">
-        <v>43714</v>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2892,22 +3834,19 @@
       <c r="F75">
         <v>50</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="5">
-        <v>43870</v>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
       </c>
       <c r="E76">
         <v>27</v>
@@ -2915,22 +3854,19 @@
       <c r="F76">
         <v>50</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>14</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="5">
-        <v>42871</v>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>154</v>
       </c>
       <c r="E77">
         <v>23</v>
@@ -2938,22 +3874,19 @@
       <c r="F77">
         <v>51</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>10</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="5">
-        <v>42944</v>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
       </c>
       <c r="E78">
         <v>33</v>
@@ -2961,22 +3894,19 @@
       <c r="F78">
         <v>53</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="5">
-        <v>43998</v>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
       </c>
       <c r="E79">
         <v>45</v>
@@ -2984,22 +3914,19 @@
       <c r="F79">
         <v>53</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>18</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="5">
-        <v>42624</v>
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" t="s">
+        <v>160</v>
       </c>
       <c r="E80">
         <v>49</v>
@@ -3007,22 +3934,19 @@
       <c r="F80">
         <v>53</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="5">
-        <v>43053</v>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
+        <v>162</v>
       </c>
       <c r="E81">
         <v>18</v>
@@ -3030,22 +3954,19 @@
       <c r="F81">
         <v>53</v>
       </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>15</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="5">
-        <v>44606</v>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" t="s">
+        <v>164</v>
       </c>
       <c r="E82">
         <v>56</v>
@@ -3053,22 +3974,19 @@
       <c r="F82">
         <v>53</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="5">
-        <v>42914</v>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>166</v>
       </c>
       <c r="E83">
         <v>27</v>
@@ -3076,22 +3994,19 @@
       <c r="F83">
         <v>53</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>18</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D84" s="5">
-        <v>43156</v>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
+        <v>168</v>
       </c>
       <c r="E84">
         <v>23</v>
@@ -3099,22 +4014,19 @@
       <c r="F84">
         <v>53</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>17</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="5">
-        <v>42337</v>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>170</v>
       </c>
       <c r="E85">
         <v>34</v>
@@ -3122,45 +4034,39 @@
       <c r="F85">
         <v>53</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>7</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="5">
-        <v>44890</v>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>172</v>
       </c>
       <c r="E86">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F86">
         <v>53</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>13</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="5">
-        <v>44606</v>
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" t="s">
+        <v>164</v>
       </c>
       <c r="E87">
         <v>53</v>
@@ -3168,22 +4074,19 @@
       <c r="F87">
         <v>53</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>11</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="5">
-        <v>44785</v>
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" t="s">
+        <v>175</v>
       </c>
       <c r="E88">
         <v>63</v>
@@ -3191,22 +4094,19 @@
       <c r="F88">
         <v>53</v>
       </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>19</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="5">
-        <v>43996</v>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>177</v>
       </c>
       <c r="E89">
         <v>11</v>
@@ -3214,22 +4114,19 @@
       <c r="F89">
         <v>53</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>14</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="5">
-        <v>42627</v>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>179</v>
       </c>
       <c r="E90">
         <v>37</v>
@@ -3237,22 +4134,19 @@
       <c r="F90">
         <v>53</v>
       </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>12</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D91" s="5">
-        <v>44732</v>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" t="s">
+        <v>181</v>
       </c>
       <c r="E91">
         <v>17</v>
@@ -3260,22 +4154,19 @@
       <c r="F91">
         <v>53</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>16</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="5">
-        <v>44861</v>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" t="s">
+        <v>183</v>
       </c>
       <c r="E92">
         <v>30</v>
@@ -3283,68 +4174,59 @@
       <c r="F92">
         <v>53</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>16</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="5">
-        <v>42129</v>
+      <c r="C93" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" t="s">
+        <v>185</v>
       </c>
       <c r="E93">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F93">
         <v>53</v>
       </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D94" s="5">
-        <v>43599</v>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" t="s">
+        <v>187</v>
       </c>
       <c r="E94">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F94">
         <v>53</v>
       </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>14</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D95" s="5">
-        <v>44905</v>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" t="s">
+        <v>189</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -3352,22 +4234,19 @@
       <c r="F95">
         <v>55</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>16</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D96" s="5">
-        <v>43343</v>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
       </c>
       <c r="E96">
         <v>33</v>
@@ -3375,22 +4254,19 @@
       <c r="F96">
         <v>55</v>
       </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>17</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="5">
-        <v>43504</v>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" t="s">
+        <v>193</v>
       </c>
       <c r="E97">
         <v>63</v>
@@ -3398,22 +4274,19 @@
       <c r="F97">
         <v>55</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="5">
-        <v>44108</v>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" t="s">
+        <v>195</v>
       </c>
       <c r="E98">
         <v>50</v>
@@ -3421,22 +4294,19 @@
       <c r="F98">
         <v>55</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>20</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" s="5">
-        <v>43689</v>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" t="s">
+        <v>197</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -3444,22 +4314,19 @@
       <c r="F99">
         <v>55</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>9</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" s="5">
-        <v>42436</v>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" t="s">
+        <v>199</v>
       </c>
       <c r="E100">
         <v>58</v>
@@ -3467,22 +4334,19 @@
       <c r="F100">
         <v>55</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>13</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101" s="5">
-        <v>43006</v>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>201</v>
       </c>
       <c r="E101">
         <v>40</v>
@@ -3490,45 +4354,39 @@
       <c r="F101">
         <v>55</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>15</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="5">
-        <v>43409</v>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>203</v>
       </c>
       <c r="E102">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>55</v>
       </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D103" s="5">
-        <v>44925</v>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3536,22 +4394,19 @@
       <c r="F103">
         <v>55</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D104" s="5">
-        <v>42629</v>
+      <c r="C104" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" t="s">
+        <v>207</v>
       </c>
       <c r="E104">
         <v>17</v>
@@ -3559,22 +4414,19 @@
       <c r="F104">
         <v>55</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <v>10</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D105" s="5">
-        <v>42898</v>
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" t="s">
+        <v>209</v>
       </c>
       <c r="E105">
         <v>36</v>
@@ -3582,22 +4434,19 @@
       <c r="F105">
         <v>55</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>11</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" s="5">
-        <v>44042</v>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>211</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -3605,22 +4454,19 @@
       <c r="F106">
         <v>55</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" s="5">
-        <v>43155</v>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" t="s">
+        <v>213</v>
       </c>
       <c r="E107">
         <v>32</v>
@@ -3628,91 +4474,79 @@
       <c r="F107">
         <v>55</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <v>17</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D108" s="5">
-        <v>44188</v>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" t="s">
+        <v>215</v>
       </c>
       <c r="E108">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F108">
         <v>55</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <v>12</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D109" s="5">
-        <v>44234</v>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
       </c>
       <c r="E109">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F109">
         <v>55</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <v>18</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D110" s="5">
-        <v>44212</v>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" t="s">
+        <v>219</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F110">
         <v>55</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <v>7</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" s="5">
-        <v>42784</v>
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" t="s">
+        <v>221</v>
       </c>
       <c r="E111">
         <v>51</v>
@@ -3720,22 +4554,19 @@
       <c r="F111">
         <v>55</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D112" s="5">
-        <v>42652</v>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" t="s">
+        <v>223</v>
       </c>
       <c r="E112">
         <v>46</v>
@@ -3743,137 +4574,119 @@
       <c r="F112">
         <v>55</v>
       </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <v>14</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D113" s="5">
-        <v>42443</v>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
+      <c r="D113" t="s">
+        <v>225</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F113">
         <v>55</v>
       </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <v>14</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D114" s="5">
-        <v>42510</v>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" t="s">
+        <v>227</v>
       </c>
       <c r="E114">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F114">
         <v>55</v>
       </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <v>16</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="5">
-        <v>44122</v>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" t="s">
+        <v>229</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F115">
         <v>55</v>
       </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <v>6</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D116" s="5">
-        <v>43662</v>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" t="s">
+        <v>231</v>
       </c>
       <c r="E116">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F116">
         <v>55</v>
       </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <v>13</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D117" s="5">
-        <v>42049</v>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" t="s">
+        <v>233</v>
       </c>
       <c r="E117">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F117">
         <v>55</v>
       </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D118" s="5">
-        <v>43417</v>
+      <c r="C118" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" t="s">
+        <v>235</v>
       </c>
       <c r="E118">
         <v>43</v>
@@ -3881,22 +4694,19 @@
       <c r="F118">
         <v>56</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <v>16</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" s="5">
-        <v>43731</v>
+      <c r="C119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" t="s">
+        <v>237</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -3904,22 +4714,19 @@
       <c r="F119">
         <v>56</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" s="5">
-        <v>42434</v>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
+        <v>103</v>
       </c>
       <c r="E120">
         <v>28</v>
@@ -3927,22 +4734,19 @@
       <c r="F120">
         <v>56</v>
       </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <v>18</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D121" s="5">
-        <v>44832</v>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" t="s">
+        <v>240</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3950,45 +4754,39 @@
       <c r="F121">
         <v>56</v>
       </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
         <v>10</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D122" s="5">
-        <v>44048</v>
+      <c r="C122" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122" t="s">
+        <v>242</v>
       </c>
       <c r="E122">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>56</v>
       </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D123" s="5">
-        <v>43909</v>
+      <c r="C123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" t="s">
+        <v>244</v>
       </c>
       <c r="E123">
         <v>30</v>
@@ -3996,22 +4794,19 @@
       <c r="F123">
         <v>56</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D124" s="5">
-        <v>42669</v>
+      <c r="C124" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" t="s">
+        <v>246</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -4019,22 +4814,19 @@
       <c r="F124">
         <v>56</v>
       </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
         <v>11</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D125" s="5">
-        <v>43999</v>
+      <c r="C125" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125" t="s">
+        <v>248</v>
       </c>
       <c r="E125">
         <v>9</v>
@@ -4042,22 +4834,19 @@
       <c r="F125">
         <v>56</v>
       </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <v>17</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D126" s="5">
-        <v>42074</v>
+      <c r="C126" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126" t="s">
+        <v>250</v>
       </c>
       <c r="E126">
         <v>48</v>
@@ -4065,22 +4854,19 @@
       <c r="F126">
         <v>56</v>
       </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <v>14</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D127" s="5">
-        <v>42393</v>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" t="s">
+        <v>252</v>
       </c>
       <c r="E127">
         <v>20</v>
@@ -4088,22 +4874,19 @@
       <c r="F127">
         <v>56</v>
       </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <v>9</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D128" s="5">
-        <v>42947</v>
+      <c r="C128" t="s">
+        <v>253</v>
+      </c>
+      <c r="D128" t="s">
+        <v>254</v>
       </c>
       <c r="E128">
         <v>36</v>
@@ -4111,22 +4894,19 @@
       <c r="F128">
         <v>56</v>
       </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <v>13</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D129" s="5">
-        <v>43869</v>
+      <c r="C129" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" t="s">
+        <v>256</v>
       </c>
       <c r="E129">
         <v>52</v>
@@ -4134,68 +4914,59 @@
       <c r="F129">
         <v>56</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
         <v>16</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" s="5">
-        <v>42975</v>
+      <c r="C130" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" t="s">
+        <v>258</v>
       </c>
       <c r="E130">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F130">
         <v>56</v>
       </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
         <v>13</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D131" s="5">
-        <v>43410</v>
+      <c r="C131" t="s">
+        <v>259</v>
+      </c>
+      <c r="D131" t="s">
+        <v>260</v>
       </c>
       <c r="E131">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F131">
         <v>56</v>
       </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
         <v>17</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D132" s="5">
-        <v>43990</v>
+      <c r="C132" t="s">
+        <v>261</v>
+      </c>
+      <c r="D132" t="s">
+        <v>262</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -4203,22 +4974,19 @@
       <c r="F132">
         <v>57</v>
       </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
         <v>4</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D133" s="5">
-        <v>44813</v>
+      <c r="C133" t="s">
+        <v>263</v>
+      </c>
+      <c r="D133" t="s">
+        <v>264</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -4226,22 +4994,19 @@
       <c r="F133">
         <v>57</v>
       </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D134" s="5">
-        <v>44674</v>
+      <c r="C134" t="s">
+        <v>265</v>
+      </c>
+      <c r="D134" t="s">
+        <v>266</v>
       </c>
       <c r="E134">
         <v>53</v>
@@ -4249,22 +5014,19 @@
       <c r="F134">
         <v>57</v>
       </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D135" s="5">
-        <v>43660</v>
+      <c r="C135" t="s">
+        <v>267</v>
+      </c>
+      <c r="D135" t="s">
+        <v>268</v>
       </c>
       <c r="E135">
         <v>29</v>
@@ -4272,45 +5034,39 @@
       <c r="F135">
         <v>57</v>
       </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
         <v>14</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D136" s="5">
-        <v>43380</v>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="D136" t="s">
+        <v>270</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F136">
         <v>57</v>
       </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <v>8</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D137" s="5">
-        <v>42320</v>
+      <c r="C137" t="s">
+        <v>271</v>
+      </c>
+      <c r="D137" t="s">
+        <v>272</v>
       </c>
       <c r="E137">
         <v>63</v>
@@ -4318,22 +5074,19 @@
       <c r="F137">
         <v>57</v>
       </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D138" s="5">
-        <v>43194</v>
+      <c r="C138" t="s">
+        <v>273</v>
+      </c>
+      <c r="D138" t="s">
+        <v>123</v>
       </c>
       <c r="E138">
         <v>51</v>
@@ -4341,22 +5094,19 @@
       <c r="F138">
         <v>57</v>
       </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
         <v>19</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D139" s="5">
-        <v>44645</v>
+      <c r="C139" t="s">
+        <v>274</v>
+      </c>
+      <c r="D139" t="s">
+        <v>275</v>
       </c>
       <c r="E139">
         <v>35</v>
@@ -4364,45 +5114,39 @@
       <c r="F139">
         <v>57</v>
       </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <v>12</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D140" s="5">
-        <v>42326</v>
+      <c r="C140" t="s">
+        <v>276</v>
+      </c>
+      <c r="D140" t="s">
+        <v>277</v>
       </c>
       <c r="E140">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F140">
         <v>57</v>
       </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <v>9</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D141" s="5">
-        <v>43919</v>
+      <c r="C141" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" t="s">
+        <v>279</v>
       </c>
       <c r="E141">
         <v>18</v>
@@ -4410,45 +5154,39 @@
       <c r="F141">
         <v>57</v>
       </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <v>11</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D142" s="5">
-        <v>42707</v>
+      <c r="C142" t="s">
+        <v>280</v>
+      </c>
+      <c r="D142" t="s">
+        <v>281</v>
       </c>
       <c r="E142">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F142">
         <v>57</v>
       </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <v>12</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D143" s="5">
-        <v>42661</v>
+      <c r="C143" t="s">
+        <v>282</v>
+      </c>
+      <c r="D143" t="s">
+        <v>283</v>
       </c>
       <c r="E143">
         <v>39</v>
@@ -4456,22 +5194,19 @@
       <c r="F143">
         <v>57</v>
       </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <v>16</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D144" s="5">
-        <v>44612</v>
+      <c r="C144" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" t="s">
+        <v>285</v>
       </c>
       <c r="E144">
         <v>34</v>
@@ -4479,45 +5214,39 @@
       <c r="F144">
         <v>57</v>
       </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <v>16</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D145" s="5">
-        <v>43729</v>
+      <c r="C145" t="s">
+        <v>286</v>
+      </c>
+      <c r="D145" t="s">
+        <v>287</v>
       </c>
       <c r="E145">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F145">
         <v>57</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <v>19</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D146" s="5">
-        <v>42945</v>
+      <c r="C146" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" t="s">
+        <v>289</v>
       </c>
       <c r="E146">
         <v>34</v>
@@ -4525,22 +5254,19 @@
       <c r="F146">
         <v>58</v>
       </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <v>11</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D147" s="5">
-        <v>42490</v>
+      <c r="C147" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" t="s">
+        <v>291</v>
       </c>
       <c r="E147">
         <v>59</v>
@@ -4548,22 +5274,19 @@
       <c r="F147">
         <v>58</v>
       </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="5"/>
-    </row>
-    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <v>11</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D148" s="5">
-        <v>43045</v>
+      <c r="C148" t="s">
+        <v>292</v>
+      </c>
+      <c r="D148" t="s">
+        <v>293</v>
       </c>
       <c r="E148">
         <v>57</v>
@@ -4571,22 +5294,19 @@
       <c r="F148">
         <v>58</v>
       </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <v>6</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D149" s="5">
-        <v>43792</v>
+      <c r="C149" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" t="s">
+        <v>295</v>
       </c>
       <c r="E149">
         <v>17</v>
@@ -4594,22 +5314,19 @@
       <c r="F149">
         <v>58</v>
       </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="5"/>
-    </row>
-    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <v>5</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D150" s="5">
-        <v>42909</v>
+      <c r="C150" t="s">
+        <v>296</v>
+      </c>
+      <c r="D150" t="s">
+        <v>297</v>
       </c>
       <c r="E150">
         <v>12</v>
@@ -4617,22 +5334,19 @@
       <c r="F150">
         <v>58</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="5"/>
-    </row>
-    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
         <v>14</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D151" s="5">
-        <v>43290</v>
+      <c r="C151" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" t="s">
+        <v>299</v>
       </c>
       <c r="E151">
         <v>31</v>
@@ -4640,22 +5354,19 @@
       <c r="F151">
         <v>58</v>
       </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
         <v>15</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D152" s="5">
-        <v>43881</v>
+      <c r="C152" t="s">
+        <v>300</v>
+      </c>
+      <c r="D152" t="s">
+        <v>301</v>
       </c>
       <c r="E152">
         <v>44</v>
@@ -4663,22 +5374,19 @@
       <c r="F152">
         <v>58</v>
       </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="5"/>
-    </row>
-    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <v>15</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D153" s="5">
-        <v>43073</v>
+      <c r="C153" t="s">
+        <v>302</v>
+      </c>
+      <c r="D153" t="s">
+        <v>303</v>
       </c>
       <c r="E153">
         <v>25</v>
@@ -4686,22 +5394,19 @@
       <c r="F153">
         <v>58</v>
       </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="5"/>
-    </row>
-    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
         <v>17</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D154" s="5">
-        <v>44276</v>
+      <c r="C154" t="s">
+        <v>304</v>
+      </c>
+      <c r="D154" t="s">
+        <v>305</v>
       </c>
       <c r="E154">
         <v>46</v>
@@ -4709,22 +5414,19 @@
       <c r="F154">
         <v>58</v>
       </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="5"/>
-    </row>
-    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
         <v>18</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D155" s="5">
-        <v>43747</v>
+      <c r="C155" t="s">
+        <v>306</v>
+      </c>
+      <c r="D155" t="s">
+        <v>307</v>
       </c>
       <c r="E155">
         <v>38</v>
@@ -4732,114 +5434,99 @@
       <c r="F155">
         <v>58</v>
       </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="5"/>
-    </row>
-    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
         <v>12</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D156" s="5">
-        <v>42707</v>
+      <c r="C156" t="s">
+        <v>308</v>
+      </c>
+      <c r="D156" t="s">
+        <v>281</v>
       </c>
       <c r="E156">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F156">
         <v>58</v>
       </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="5"/>
-    </row>
-    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
         <v>16</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D157" s="5">
-        <v>44921</v>
+      <c r="C157" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157" t="s">
+        <v>310</v>
       </c>
       <c r="E157">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F157">
         <v>58</v>
       </c>
-      <c r="G157" s="3"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="5"/>
-    </row>
-    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
         <v>18</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D158" s="5">
-        <v>44635</v>
+      <c r="C158" t="s">
+        <v>311</v>
+      </c>
+      <c r="D158" t="s">
+        <v>139</v>
       </c>
       <c r="E158">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F158">
         <v>58</v>
       </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="5"/>
-    </row>
-    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
         <v>16</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D159" s="5">
-        <v>44777</v>
+      <c r="C159" t="s">
+        <v>312</v>
+      </c>
+      <c r="D159" t="s">
+        <v>313</v>
       </c>
       <c r="E159">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="F159">
         <v>58</v>
       </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="5"/>
-    </row>
-    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
         <v>17</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D160" s="5">
-        <v>44085</v>
+      <c r="C160" t="s">
+        <v>314</v>
+      </c>
+      <c r="D160" t="s">
+        <v>59</v>
       </c>
       <c r="E160">
         <v>29</v>
@@ -4847,22 +5534,19 @@
       <c r="F160">
         <v>58</v>
       </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="5"/>
-    </row>
-    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D161" s="5">
-        <v>44428</v>
+      <c r="C161" t="s">
+        <v>315</v>
+      </c>
+      <c r="D161" t="s">
+        <v>316</v>
       </c>
       <c r="E161">
         <v>33</v>
@@ -4870,22 +5554,19 @@
       <c r="F161">
         <v>59</v>
       </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="5"/>
-    </row>
-    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
         <v>11</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D162" s="5">
-        <v>44245</v>
+      <c r="C162" t="s">
+        <v>317</v>
+      </c>
+      <c r="D162" t="s">
+        <v>318</v>
       </c>
       <c r="E162">
         <v>59</v>
@@ -4893,22 +5574,19 @@
       <c r="F162">
         <v>59</v>
       </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="5"/>
-    </row>
-    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D163" s="5">
-        <v>44770</v>
+      <c r="C163" t="s">
+        <v>319</v>
+      </c>
+      <c r="D163" t="s">
+        <v>320</v>
       </c>
       <c r="E163">
         <v>24</v>
@@ -4916,22 +5594,19 @@
       <c r="F163">
         <v>59</v>
       </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="5"/>
-    </row>
-    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D164" s="5">
-        <v>42414</v>
+      <c r="C164" t="s">
+        <v>321</v>
+      </c>
+      <c r="D164" t="s">
+        <v>322</v>
       </c>
       <c r="E164">
         <v>16</v>
@@ -4939,22 +5614,19 @@
       <c r="F164">
         <v>59</v>
       </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="5"/>
-    </row>
-    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
         <v>4</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D165" s="5">
-        <v>43056</v>
+      <c r="C165" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" t="s">
+        <v>324</v>
       </c>
       <c r="E165">
         <v>38</v>
@@ -4962,22 +5634,19 @@
       <c r="F165">
         <v>59</v>
       </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="5"/>
-    </row>
-    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
         <v>5</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D166" s="5">
-        <v>42834</v>
+      <c r="C166" t="s">
+        <v>325</v>
+      </c>
+      <c r="D166" t="s">
+        <v>326</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -4985,22 +5654,19 @@
       <c r="F166">
         <v>59</v>
       </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="5"/>
-    </row>
-    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D167" s="5">
-        <v>44185</v>
+      <c r="C167" t="s">
+        <v>327</v>
+      </c>
+      <c r="D167" t="s">
+        <v>49</v>
       </c>
       <c r="E167">
         <v>50</v>
@@ -5008,22 +5674,19 @@
       <c r="F167">
         <v>59</v>
       </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="5"/>
-    </row>
-    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D168" s="5">
-        <v>44543</v>
+      <c r="C168" t="s">
+        <v>328</v>
+      </c>
+      <c r="D168" t="s">
+        <v>329</v>
       </c>
       <c r="E168">
         <v>12</v>
@@ -5031,22 +5694,19 @@
       <c r="F168">
         <v>59</v>
       </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="5"/>
-    </row>
-    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D169" s="5">
-        <v>43250</v>
+      <c r="C169" t="s">
+        <v>330</v>
+      </c>
+      <c r="D169" t="s">
+        <v>331</v>
       </c>
       <c r="E169">
         <v>52</v>
@@ -5054,22 +5714,19 @@
       <c r="F169">
         <v>59</v>
       </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="5"/>
-    </row>
-    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
         <v>11</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D170" s="5">
-        <v>43425</v>
+      <c r="C170" t="s">
+        <v>332</v>
+      </c>
+      <c r="D170" t="s">
+        <v>333</v>
       </c>
       <c r="E170">
         <v>20</v>
@@ -5077,22 +5734,19 @@
       <c r="F170">
         <v>59</v>
       </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="5"/>
-    </row>
-    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
         <v>9</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D171" s="5">
-        <v>44679</v>
+      <c r="C171" t="s">
+        <v>334</v>
+      </c>
+      <c r="D171" t="s">
+        <v>335</v>
       </c>
       <c r="E171">
         <v>25</v>
@@ -5100,45 +5754,39 @@
       <c r="F171">
         <v>59</v>
       </c>
-      <c r="G171" s="3"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="5"/>
-    </row>
-    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D172" s="5">
-        <v>43380</v>
+      <c r="C172" t="s">
+        <v>336</v>
+      </c>
+      <c r="D172" t="s">
+        <v>270</v>
       </c>
       <c r="E172">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F172">
         <v>59</v>
       </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
         <v>10</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D173" s="5">
-        <v>42275</v>
+      <c r="C173" t="s">
+        <v>337</v>
+      </c>
+      <c r="D173" t="s">
+        <v>338</v>
       </c>
       <c r="E173">
         <v>2</v>
@@ -5146,22 +5794,19 @@
       <c r="F173">
         <v>59</v>
       </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="5"/>
-    </row>
-    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
         <v>18</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D174" s="5">
-        <v>44553</v>
+      <c r="C174" t="s">
+        <v>339</v>
+      </c>
+      <c r="D174" t="s">
+        <v>340</v>
       </c>
       <c r="E174">
         <v>46</v>
@@ -5169,91 +5814,79 @@
       <c r="F174">
         <v>59</v>
       </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="5"/>
-    </row>
-    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
         <v>8</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D175" s="5">
-        <v>43672</v>
+      <c r="C175" t="s">
+        <v>341</v>
+      </c>
+      <c r="D175" t="s">
+        <v>342</v>
       </c>
       <c r="E175">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F175">
         <v>59</v>
       </c>
-      <c r="G175" s="3"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="5"/>
-    </row>
-    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
         <v>7</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D176" s="5">
-        <v>42622</v>
+      <c r="C176" t="s">
+        <v>343</v>
+      </c>
+      <c r="D176" t="s">
+        <v>344</v>
       </c>
       <c r="E176">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F176">
         <v>59</v>
       </c>
-      <c r="G176" s="3"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="5"/>
-    </row>
-    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
         <v>19</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D177" s="5">
-        <v>43976</v>
+      <c r="C177" t="s">
+        <v>345</v>
+      </c>
+      <c r="D177" t="s">
+        <v>346</v>
       </c>
       <c r="E177">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F177">
         <v>59</v>
       </c>
-      <c r="G177" s="3"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="5"/>
-    </row>
-    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
         <v>13</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D178" s="5">
-        <v>43005</v>
+      <c r="C178" t="s">
+        <v>347</v>
+      </c>
+      <c r="D178" t="s">
+        <v>348</v>
       </c>
       <c r="E178">
         <v>7</v>
@@ -5261,22 +5894,19 @@
       <c r="F178">
         <v>59</v>
       </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
         <v>9</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D179" s="5">
-        <v>43677</v>
+      <c r="C179" t="s">
+        <v>349</v>
+      </c>
+      <c r="D179" t="s">
+        <v>350</v>
       </c>
       <c r="E179">
         <v>37</v>
@@ -5284,22 +5914,19 @@
       <c r="F179">
         <v>59</v>
       </c>
-      <c r="G179" s="3"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="5"/>
-    </row>
-    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
         <v>13</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D180" s="5">
-        <v>42550</v>
+      <c r="C180" t="s">
+        <v>351</v>
+      </c>
+      <c r="D180" t="s">
+        <v>352</v>
       </c>
       <c r="E180">
         <v>58</v>
@@ -5307,22 +5934,19 @@
       <c r="F180">
         <v>59</v>
       </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="5"/>
-    </row>
-    <row r="181" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
         <v>8</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D181" s="5">
-        <v>43337</v>
+      <c r="C181" t="s">
+        <v>353</v>
+      </c>
+      <c r="D181" t="s">
+        <v>354</v>
       </c>
       <c r="E181">
         <v>59</v>
@@ -5330,22 +5954,19 @@
       <c r="F181">
         <v>60</v>
       </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="5"/>
-    </row>
-    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
         <v>11</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D182" s="5">
-        <v>44177</v>
+      <c r="C182" t="s">
+        <v>355</v>
+      </c>
+      <c r="D182" t="s">
+        <v>356</v>
       </c>
       <c r="E182">
         <v>26</v>
@@ -5353,22 +5974,19 @@
       <c r="F182">
         <v>60</v>
       </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="5"/>
-    </row>
-    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
         <v>14</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D183" s="5">
-        <v>42540</v>
+      <c r="C183" t="s">
+        <v>357</v>
+      </c>
+      <c r="D183" t="s">
+        <v>358</v>
       </c>
       <c r="E183">
         <v>46</v>
@@ -5376,22 +5994,19 @@
       <c r="F183">
         <v>60</v>
       </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="5"/>
-    </row>
-    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
         <v>18</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D184" s="5">
-        <v>44816</v>
+      <c r="C184" t="s">
+        <v>359</v>
+      </c>
+      <c r="D184" t="s">
+        <v>360</v>
       </c>
       <c r="E184">
         <v>14</v>
@@ -5399,22 +6014,19 @@
       <c r="F184">
         <v>61</v>
       </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="5"/>
-    </row>
-    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
         <v>8</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D185" s="5">
-        <v>42502</v>
+      <c r="C185" t="s">
+        <v>361</v>
+      </c>
+      <c r="D185" t="s">
+        <v>362</v>
       </c>
       <c r="E185">
         <v>9</v>
@@ -5422,22 +6034,19 @@
       <c r="F185">
         <v>61</v>
       </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="5"/>
-    </row>
-    <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
         <v>15</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D186" s="5">
-        <v>42101</v>
+      <c r="C186" t="s">
+        <v>363</v>
+      </c>
+      <c r="D186" t="s">
+        <v>364</v>
       </c>
       <c r="E186">
         <v>32</v>
@@ -5445,22 +6054,19 @@
       <c r="F186">
         <v>61</v>
       </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="5"/>
-    </row>
-    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
         <v>15</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D187" s="5">
-        <v>42898</v>
+      <c r="C187" t="s">
+        <v>365</v>
+      </c>
+      <c r="D187" t="s">
+        <v>209</v>
       </c>
       <c r="E187">
         <v>61</v>
@@ -5468,22 +6074,19 @@
       <c r="F187">
         <v>62</v>
       </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="5"/>
-    </row>
-    <row r="188" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
         <v>12</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D188" s="5">
-        <v>42521</v>
+      <c r="C188" t="s">
+        <v>366</v>
+      </c>
+      <c r="D188" t="s">
+        <v>367</v>
       </c>
       <c r="E188">
         <v>46</v>
@@ -5491,22 +6094,19 @@
       <c r="F188">
         <v>62</v>
       </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="5"/>
-    </row>
-    <row r="189" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
         <v>15</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D189" s="5">
-        <v>42688</v>
+      <c r="C189" t="s">
+        <v>368</v>
+      </c>
+      <c r="D189" t="s">
+        <v>117</v>
       </c>
       <c r="E189">
         <v>8</v>
@@ -5514,22 +6114,19 @@
       <c r="F189">
         <v>64</v>
       </c>
-      <c r="G189" s="3"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="5"/>
-    </row>
-    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
         <v>18</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D190" s="5">
-        <v>42854</v>
+      <c r="C190" t="s">
+        <v>369</v>
+      </c>
+      <c r="D190" t="s">
+        <v>370</v>
       </c>
       <c r="E190">
         <v>47</v>
@@ -5537,22 +6134,19 @@
       <c r="F190">
         <v>64</v>
       </c>
-      <c r="G190" s="3"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="5"/>
-    </row>
-    <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
         <v>6</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D191" s="5">
-        <v>43210</v>
+      <c r="C191" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" t="s">
+        <v>372</v>
       </c>
       <c r="E191">
         <v>59</v>
@@ -5560,22 +6154,19 @@
       <c r="F191">
         <v>64</v>
       </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="5"/>
-    </row>
-    <row r="192" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
         <v>16</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D192" s="5">
-        <v>42803</v>
+      <c r="C192" t="s">
+        <v>373</v>
+      </c>
+      <c r="D192" t="s">
+        <v>374</v>
       </c>
       <c r="E192">
         <v>17</v>
@@ -5583,22 +6174,19 @@
       <c r="F192">
         <v>64</v>
       </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="5"/>
-    </row>
-    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
         <v>19</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D193" s="5">
-        <v>42332</v>
+      <c r="C193" t="s">
+        <v>375</v>
+      </c>
+      <c r="D193" t="s">
+        <v>376</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -5606,22 +6194,19 @@
       <c r="F193">
         <v>65</v>
       </c>
-      <c r="G193" s="3"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="5"/>
-    </row>
-    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
         <v>17</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D194" s="5">
-        <v>44450</v>
+      <c r="C194" t="s">
+        <v>377</v>
+      </c>
+      <c r="D194" t="s">
+        <v>378</v>
       </c>
       <c r="E194">
         <v>60</v>
@@ -5629,22 +6214,19 @@
       <c r="F194">
         <v>65</v>
       </c>
-      <c r="G194" s="3"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="5"/>
-    </row>
-    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
         <v>20</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D195" s="5">
-        <v>42992</v>
+      <c r="C195" t="s">
+        <v>379</v>
+      </c>
+      <c r="D195" t="s">
+        <v>380</v>
       </c>
       <c r="E195">
         <v>28</v>
@@ -5652,22 +6234,19 @@
       <c r="F195">
         <v>66</v>
       </c>
-      <c r="G195" s="3"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="5"/>
-    </row>
-    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
         <v>19</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D196" s="5">
-        <v>42581</v>
+      <c r="C196" t="s">
+        <v>381</v>
+      </c>
+      <c r="D196" t="s">
+        <v>382</v>
       </c>
       <c r="E196">
         <v>23</v>
@@ -5675,22 +6254,19 @@
       <c r="F196">
         <v>66</v>
       </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="5"/>
-    </row>
-    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
         <v>4</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D197" s="5">
-        <v>43626</v>
+      <c r="C197" t="s">
+        <v>383</v>
+      </c>
+      <c r="D197" t="s">
+        <v>384</v>
       </c>
       <c r="E197">
         <v>5</v>
@@ -5698,22 +6274,19 @@
       <c r="F197">
         <v>66</v>
       </c>
-      <c r="G197" s="3"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="5"/>
-    </row>
-    <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
         <v>15</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D198" s="5">
-        <v>44326</v>
+      <c r="C198" t="s">
+        <v>385</v>
+      </c>
+      <c r="D198" t="s">
+        <v>386</v>
       </c>
       <c r="E198">
         <v>61</v>
@@ -5721,22 +6294,19 @@
       <c r="F198">
         <v>66</v>
       </c>
-      <c r="G198" s="3"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="5"/>
-    </row>
-    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D199" s="5">
-        <v>43890</v>
+      <c r="C199" t="s">
+        <v>387</v>
+      </c>
+      <c r="D199" t="s">
+        <v>388</v>
       </c>
       <c r="E199">
         <v>56</v>
@@ -5744,22 +6314,19 @@
       <c r="F199">
         <v>66</v>
       </c>
-      <c r="G199" s="3"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="5"/>
-    </row>
-    <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
         <v>11</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D200" s="5">
-        <v>43351</v>
+      <c r="C200" t="s">
+        <v>389</v>
+      </c>
+      <c r="D200" t="s">
+        <v>390</v>
       </c>
       <c r="E200">
         <v>59</v>
@@ -5767,22 +6334,19 @@
       <c r="F200">
         <v>66</v>
       </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="5"/>
-    </row>
-    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
         <v>6</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D201" s="5">
-        <v>42981</v>
+      <c r="C201" t="s">
+        <v>391</v>
+      </c>
+      <c r="D201" t="s">
+        <v>392</v>
       </c>
       <c r="E201">
         <v>12</v>
@@ -5790,22 +6354,19 @@
       <c r="F201">
         <v>66</v>
       </c>
-      <c r="G201" s="3"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="5"/>
-    </row>
-    <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D202" s="5">
-        <v>43578</v>
+      <c r="C202" t="s">
+        <v>393</v>
+      </c>
+      <c r="D202" t="s">
+        <v>394</v>
       </c>
       <c r="E202">
         <v>13</v>
@@ -5813,22 +6374,19 @@
       <c r="F202">
         <v>66</v>
       </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="5"/>
-    </row>
-    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
         <v>14</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D203" s="5">
-        <v>42361</v>
+      <c r="C203" t="s">
+        <v>395</v>
+      </c>
+      <c r="D203" t="s">
+        <v>396</v>
       </c>
       <c r="E203">
         <v>37</v>
@@ -5836,22 +6394,19 @@
       <c r="F203">
         <v>66</v>
       </c>
-      <c r="G203" s="3"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="5"/>
-    </row>
-    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
         <v>17</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D204" s="5">
-        <v>44371</v>
+      <c r="C204" t="s">
+        <v>397</v>
+      </c>
+      <c r="D204" t="s">
+        <v>398</v>
       </c>
       <c r="E204">
         <v>32</v>
@@ -5859,22 +6414,19 @@
       <c r="F204">
         <v>66</v>
       </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="5"/>
-    </row>
-    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
         <v>17</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D205" s="5">
-        <v>42693</v>
+      <c r="C205" t="s">
+        <v>399</v>
+      </c>
+      <c r="D205" t="s">
+        <v>400</v>
       </c>
       <c r="E205">
         <v>10</v>
@@ -5882,45 +6434,39 @@
       <c r="F205">
         <v>66</v>
       </c>
-      <c r="G205" s="3"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="5"/>
-    </row>
-    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
         <v>10</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D206" s="5">
-        <v>42199</v>
+      <c r="C206" t="s">
+        <v>401</v>
+      </c>
+      <c r="D206" t="s">
+        <v>402</v>
       </c>
       <c r="E206">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F206">
         <v>66</v>
       </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="5"/>
-    </row>
-    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
         <v>18</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D207" s="5">
-        <v>43757</v>
+      <c r="C207" t="s">
+        <v>403</v>
+      </c>
+      <c r="D207" t="s">
+        <v>404</v>
       </c>
       <c r="E207">
         <v>21</v>
@@ -5928,22 +6474,19 @@
       <c r="F207">
         <v>66</v>
       </c>
-      <c r="G207" s="3"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="5"/>
-    </row>
-    <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
         <v>18</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D208" s="5">
-        <v>42788</v>
+      <c r="C208" t="s">
+        <v>405</v>
+      </c>
+      <c r="D208" t="s">
+        <v>406</v>
       </c>
       <c r="E208">
         <v>25</v>
@@ -5951,68 +6494,59 @@
       <c r="F208">
         <v>66</v>
       </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="5"/>
-    </row>
-    <row r="209" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
         <v>15</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D209" s="5">
-        <v>42826</v>
+      <c r="C209" t="s">
+        <v>407</v>
+      </c>
+      <c r="D209" t="s">
+        <v>408</v>
       </c>
       <c r="E209">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F209">
         <v>66</v>
       </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="5"/>
-    </row>
-    <row r="210" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D210" s="5">
-        <v>43926</v>
+      <c r="C210" t="s">
+        <v>409</v>
+      </c>
+      <c r="D210" t="s">
+        <v>410</v>
       </c>
       <c r="E210">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F210">
         <v>66</v>
       </c>
-      <c r="G210" s="3"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="5"/>
-    </row>
-    <row r="211" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D211" s="5">
-        <v>43001</v>
+      <c r="C211" t="s">
+        <v>411</v>
+      </c>
+      <c r="D211" t="s">
+        <v>412</v>
       </c>
       <c r="E211">
         <v>30</v>
@@ -6020,22 +6554,19 @@
       <c r="F211">
         <v>68</v>
       </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="5"/>
-    </row>
-    <row r="212" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
         <v>17</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D212" s="5">
-        <v>44905</v>
+      <c r="C212" t="s">
+        <v>413</v>
+      </c>
+      <c r="D212" t="s">
+        <v>189</v>
       </c>
       <c r="E212">
         <v>13</v>
@@ -6043,22 +6574,19 @@
       <c r="F212">
         <v>69</v>
       </c>
-      <c r="G212" s="3"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="5"/>
-    </row>
-    <row r="213" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
         <v>18</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D213" s="5">
-        <v>42849</v>
+      <c r="C213" t="s">
+        <v>414</v>
+      </c>
+      <c r="D213" t="s">
+        <v>415</v>
       </c>
       <c r="E213">
         <v>25</v>
@@ -6066,22 +6594,19 @@
       <c r="F213">
         <v>69</v>
       </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="5"/>
-    </row>
-    <row r="214" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
         <v>16</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D214" s="5">
-        <v>44111</v>
+      <c r="C214" t="s">
+        <v>416</v>
+      </c>
+      <c r="D214" t="s">
+        <v>417</v>
       </c>
       <c r="E214">
         <v>14</v>
@@ -6089,22 +6614,19 @@
       <c r="F214">
         <v>70</v>
       </c>
-      <c r="G214" s="3"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="5"/>
-    </row>
-    <row r="215" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
         <v>18</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D215" s="5">
-        <v>43596</v>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>419</v>
       </c>
       <c r="E215">
         <v>36</v>
@@ -6112,22 +6634,19 @@
       <c r="F215">
         <v>70</v>
       </c>
-      <c r="G215" s="3"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="5"/>
-    </row>
-    <row r="216" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
         <v>15</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D216" s="5">
-        <v>44846</v>
+      <c r="C216" t="s">
+        <v>420</v>
+      </c>
+      <c r="D216" t="s">
+        <v>421</v>
       </c>
       <c r="E216">
         <v>58</v>
@@ -6135,22 +6654,19 @@
       <c r="F216">
         <v>70</v>
       </c>
-      <c r="G216" s="3"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="5"/>
-    </row>
-    <row r="217" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
         <v>4</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D217" s="5">
-        <v>44646</v>
+      <c r="C217" t="s">
+        <v>422</v>
+      </c>
+      <c r="D217" t="s">
+        <v>423</v>
       </c>
       <c r="E217">
         <v>41</v>
@@ -6158,22 +6674,19 @@
       <c r="F217">
         <v>70</v>
       </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="5"/>
-    </row>
-    <row r="218" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
         <v>8</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D218" s="5">
-        <v>43165</v>
+      <c r="C218" t="s">
+        <v>424</v>
+      </c>
+      <c r="D218" t="s">
+        <v>425</v>
       </c>
       <c r="E218">
         <v>30</v>
@@ -6181,22 +6694,19 @@
       <c r="F218">
         <v>70</v>
       </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="5"/>
-    </row>
-    <row r="219" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
         <v>2</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D219" s="5">
-        <v>44300</v>
+      <c r="C219" t="s">
+        <v>426</v>
+      </c>
+      <c r="D219" t="s">
+        <v>427</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -6204,22 +6714,19 @@
       <c r="F219">
         <v>70</v>
       </c>
-      <c r="G219" s="3"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
         <v>18</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D220" s="5">
-        <v>44560</v>
+      <c r="C220" t="s">
+        <v>428</v>
+      </c>
+      <c r="D220" t="s">
+        <v>429</v>
       </c>
       <c r="E220">
         <v>54</v>
@@ -6227,45 +6734,39 @@
       <c r="F220">
         <v>70</v>
       </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="5"/>
-    </row>
-    <row r="221" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
         <v>7</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D221" s="5">
-        <v>44668</v>
+      <c r="C221" t="s">
+        <v>430</v>
+      </c>
+      <c r="D221" t="s">
+        <v>431</v>
       </c>
       <c r="E221">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F221">
         <v>70</v>
       </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="5"/>
-    </row>
-    <row r="222" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
         <v>14</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D222" s="5">
-        <v>44511</v>
+      <c r="C222" t="s">
+        <v>432</v>
+      </c>
+      <c r="D222" t="s">
+        <v>433</v>
       </c>
       <c r="E222">
         <v>27</v>
@@ -6273,22 +6774,19 @@
       <c r="F222">
         <v>70</v>
       </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="5"/>
-    </row>
-    <row r="223" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
         <v>17</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D223" s="5">
-        <v>42592</v>
+      <c r="C223" t="s">
+        <v>434</v>
+      </c>
+      <c r="D223" t="s">
+        <v>435</v>
       </c>
       <c r="E223">
         <v>55</v>
@@ -6296,22 +6794,19 @@
       <c r="F223">
         <v>72</v>
       </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="5"/>
-    </row>
-    <row r="224" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
         <v>13</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D224" s="5">
-        <v>44422</v>
+      <c r="C224" t="s">
+        <v>436</v>
+      </c>
+      <c r="D224" t="s">
+        <v>437</v>
       </c>
       <c r="E224">
         <v>42</v>
@@ -6319,45 +6814,39 @@
       <c r="F224">
         <v>72</v>
       </c>
-      <c r="G224" s="3"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="5"/>
-    </row>
-    <row r="225" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
         <v>16</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D225" s="5">
-        <v>43016</v>
+      <c r="C225" t="s">
+        <v>438</v>
+      </c>
+      <c r="D225" t="s">
+        <v>439</v>
       </c>
       <c r="E225">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F225">
         <v>72</v>
       </c>
-      <c r="G225" s="3"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="5"/>
-    </row>
-    <row r="226" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
         <v>17</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D226" s="5">
-        <v>42941</v>
+      <c r="C226" t="s">
+        <v>440</v>
+      </c>
+      <c r="D226" t="s">
+        <v>441</v>
       </c>
       <c r="E226">
         <v>60</v>
@@ -6365,22 +6854,19 @@
       <c r="F226">
         <v>73</v>
       </c>
-      <c r="G226" s="3"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="5"/>
-    </row>
-    <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
         <v>7</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D227" s="5">
-        <v>44316</v>
+      <c r="C227" t="s">
+        <v>442</v>
+      </c>
+      <c r="D227" t="s">
+        <v>443</v>
       </c>
       <c r="E227">
         <v>53</v>
@@ -6388,22 +6874,19 @@
       <c r="F227">
         <v>74</v>
       </c>
-      <c r="G227" s="3"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="5"/>
-    </row>
-    <row r="228" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
         <v>18</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D228" s="5">
-        <v>43877</v>
+      <c r="C228" t="s">
+        <v>444</v>
+      </c>
+      <c r="D228" t="s">
+        <v>445</v>
       </c>
       <c r="E228">
         <v>23</v>
@@ -6411,22 +6894,19 @@
       <c r="F228">
         <v>74</v>
       </c>
-      <c r="G228" s="3"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="5"/>
-    </row>
-    <row r="229" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
         <v>11</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D229" s="5">
-        <v>44412</v>
+      <c r="C229" t="s">
+        <v>446</v>
+      </c>
+      <c r="D229" t="s">
+        <v>55</v>
       </c>
       <c r="E229">
         <v>41</v>
@@ -6434,22 +6914,19 @@
       <c r="F229">
         <v>74</v>
       </c>
-      <c r="G229" s="3"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="5"/>
-    </row>
-    <row r="230" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
         <v>17</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D230" s="5">
-        <v>44503</v>
+      <c r="C230" t="s">
+        <v>447</v>
+      </c>
+      <c r="D230" t="s">
+        <v>448</v>
       </c>
       <c r="E230">
         <v>30</v>
@@ -6457,22 +6934,19 @@
       <c r="F230">
         <v>75</v>
       </c>
-      <c r="G230" s="3"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="5"/>
-    </row>
-    <row r="231" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
         <v>20</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D231" s="5">
-        <v>43506</v>
+      <c r="C231" t="s">
+        <v>449</v>
+      </c>
+      <c r="D231" t="s">
+        <v>450</v>
       </c>
       <c r="E231">
         <v>12</v>
@@ -6480,22 +6954,19 @@
       <c r="F231">
         <v>76</v>
       </c>
-      <c r="G231" s="3"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="5"/>
-    </row>
-    <row r="232" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D232" s="5">
-        <v>44055</v>
+      <c r="C232" t="s">
+        <v>451</v>
+      </c>
+      <c r="D232" t="s">
+        <v>452</v>
       </c>
       <c r="E232">
         <v>15</v>
@@ -6503,22 +6974,19 @@
       <c r="F232">
         <v>77</v>
       </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="5"/>
-    </row>
-    <row r="233" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233">
         <v>17</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D233" s="5">
-        <v>43706</v>
+      <c r="C233" t="s">
+        <v>453</v>
+      </c>
+      <c r="D233" t="s">
+        <v>454</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -6526,22 +6994,19 @@
       <c r="F233">
         <v>77</v>
       </c>
-      <c r="G233" s="3"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="5"/>
-    </row>
-    <row r="234" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234">
         <v>15</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D234" s="5">
-        <v>44540</v>
+      <c r="C234" t="s">
+        <v>455</v>
+      </c>
+      <c r="D234" t="s">
+        <v>456</v>
       </c>
       <c r="E234">
         <v>49</v>
@@ -6549,22 +7014,19 @@
       <c r="F234">
         <v>78</v>
       </c>
-      <c r="G234" s="3"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="5"/>
-    </row>
-    <row r="235" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235">
         <v>11</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D235" s="5">
-        <v>42304</v>
+      <c r="C235" t="s">
+        <v>457</v>
+      </c>
+      <c r="D235" t="s">
+        <v>458</v>
       </c>
       <c r="E235">
         <v>11</v>
@@ -6572,22 +7034,19 @@
       <c r="F235">
         <v>80</v>
       </c>
-      <c r="G235" s="3"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="5"/>
-    </row>
-    <row r="236" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236">
         <v>20</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D236" s="5">
-        <v>44493</v>
+      <c r="C236" t="s">
+        <v>459</v>
+      </c>
+      <c r="D236" t="s">
+        <v>460</v>
       </c>
       <c r="E236">
         <v>62</v>
@@ -6595,22 +7054,19 @@
       <c r="F236">
         <v>84</v>
       </c>
-      <c r="G236" s="3"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="5"/>
-    </row>
-    <row r="237" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237">
         <v>10</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D237" s="5">
-        <v>44506</v>
+      <c r="C237" t="s">
+        <v>461</v>
+      </c>
+      <c r="D237" t="s">
+        <v>462</v>
       </c>
       <c r="E237">
         <v>7</v>
@@ -6618,22 +7074,19 @@
       <c r="F237">
         <v>84</v>
       </c>
-      <c r="G237" s="3"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="5"/>
-    </row>
-    <row r="238" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238">
         <v>18</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D238" s="5">
-        <v>44369</v>
+      <c r="C238" t="s">
+        <v>463</v>
+      </c>
+      <c r="D238" t="s">
+        <v>464</v>
       </c>
       <c r="E238">
         <v>47</v>
@@ -6641,22 +7094,19 @@
       <c r="F238">
         <v>84</v>
       </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="5"/>
-    </row>
-    <row r="239" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239">
         <v>9</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D239" s="5">
-        <v>42886</v>
+      <c r="C239" t="s">
+        <v>465</v>
+      </c>
+      <c r="D239" t="s">
+        <v>466</v>
       </c>
       <c r="E239">
         <v>52</v>
@@ -6664,22 +7114,19 @@
       <c r="F239">
         <v>84</v>
       </c>
-      <c r="G239" s="3"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="5"/>
-    </row>
-    <row r="240" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240">
         <v>17</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D240" s="5">
-        <v>44647</v>
+      <c r="C240" t="s">
+        <v>467</v>
+      </c>
+      <c r="D240" t="s">
+        <v>468</v>
       </c>
       <c r="E240">
         <v>4</v>
@@ -6687,22 +7134,19 @@
       <c r="F240">
         <v>84</v>
       </c>
-      <c r="G240" s="3"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="5"/>
-    </row>
-    <row r="241" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241">
         <v>15</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D241" s="5">
-        <v>42011</v>
+      <c r="C241" t="s">
+        <v>469</v>
+      </c>
+      <c r="D241" t="s">
+        <v>470</v>
       </c>
       <c r="E241">
         <v>24</v>
@@ -6710,22 +7154,19 @@
       <c r="F241">
         <v>87</v>
       </c>
-      <c r="G241" s="3"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="5"/>
-    </row>
-    <row r="242" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
         <v>15</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D242" s="5">
-        <v>44504</v>
+      <c r="C242" t="s">
+        <v>471</v>
+      </c>
+      <c r="D242" t="s">
+        <v>472</v>
       </c>
       <c r="E242">
         <v>31</v>
@@ -6733,22 +7174,19 @@
       <c r="F242">
         <v>87</v>
       </c>
-      <c r="G242" s="3"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="5"/>
-    </row>
-    <row r="243" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
         <v>11</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D243" s="5">
-        <v>42283</v>
+      <c r="C243" t="s">
+        <v>473</v>
+      </c>
+      <c r="D243" t="s">
+        <v>474</v>
       </c>
       <c r="E243">
         <v>54</v>
@@ -6756,22 +7194,19 @@
       <c r="F243">
         <v>87</v>
       </c>
-      <c r="G243" s="3"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="5"/>
-    </row>
-    <row r="244" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
         <v>12</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D244" s="5">
-        <v>44048</v>
+      <c r="C244" t="s">
+        <v>475</v>
+      </c>
+      <c r="D244" t="s">
+        <v>242</v>
       </c>
       <c r="E244">
         <v>52</v>
@@ -6779,22 +7214,19 @@
       <c r="F244">
         <v>88</v>
       </c>
-      <c r="G244" s="3"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="5"/>
-    </row>
-    <row r="245" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
         <v>11</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D245" s="5">
-        <v>43919</v>
+      <c r="C245" t="s">
+        <v>476</v>
+      </c>
+      <c r="D245" t="s">
+        <v>279</v>
       </c>
       <c r="E245">
         <v>9</v>
@@ -6802,22 +7234,19 @@
       <c r="F245">
         <v>88</v>
       </c>
-      <c r="G245" s="3"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="5"/>
-    </row>
-    <row r="246" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
         <v>10</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D246" s="5">
-        <v>44732</v>
+      <c r="C246" t="s">
+        <v>477</v>
+      </c>
+      <c r="D246" t="s">
+        <v>181</v>
       </c>
       <c r="E246">
         <v>64</v>
@@ -6825,22 +7254,19 @@
       <c r="F246">
         <v>88</v>
       </c>
-      <c r="G246" s="3"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="5"/>
-    </row>
-    <row r="247" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
         <v>9</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D247" s="5">
-        <v>43008</v>
+      <c r="C247" t="s">
+        <v>478</v>
+      </c>
+      <c r="D247" t="s">
+        <v>479</v>
       </c>
       <c r="E247">
         <v>40</v>
@@ -6848,22 +7274,19 @@
       <c r="F247">
         <v>88</v>
       </c>
-      <c r="G247" s="3"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="5"/>
-    </row>
-    <row r="248" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
         <v>17</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D248" s="5">
-        <v>43263</v>
+      <c r="C248" t="s">
+        <v>480</v>
+      </c>
+      <c r="D248" t="s">
+        <v>481</v>
       </c>
       <c r="E248">
         <v>21</v>
@@ -6871,22 +7294,19 @@
       <c r="F248">
         <v>91</v>
       </c>
-      <c r="G248" s="3"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="5"/>
-    </row>
-    <row r="249" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
         <v>7</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D249" s="5">
-        <v>44195</v>
+      <c r="C249" t="s">
+        <v>482</v>
+      </c>
+      <c r="D249" t="s">
+        <v>483</v>
       </c>
       <c r="E249">
         <v>48</v>
@@ -6894,22 +7314,19 @@
       <c r="F249">
         <v>91</v>
       </c>
-      <c r="G249" s="3"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="5"/>
-    </row>
-    <row r="250" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
         <v>15</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D250" s="5">
-        <v>44407</v>
+      <c r="C250" t="s">
+        <v>484</v>
+      </c>
+      <c r="D250" t="s">
+        <v>485</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -6917,22 +7334,19 @@
       <c r="F250">
         <v>91</v>
       </c>
-      <c r="G250" s="3"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="5"/>
-    </row>
-    <row r="251" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D251" s="5">
-        <v>42979</v>
+      <c r="C251" t="s">
+        <v>486</v>
+      </c>
+      <c r="D251" t="s">
+        <v>487</v>
       </c>
       <c r="E251">
         <v>19</v>
@@ -6940,9 +7354,6 @@
       <c r="F251">
         <v>92</v>
       </c>
-      <c r="G251" s="3"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
